--- a/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
+++ b/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-modeling/Lit_Review_Fig/FireMeta_Rproj/inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-meta/FireMeta_Rproj/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51F560D-F72C-B042-8D3A-62A59B5D5869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C347D21-ED9D-2E43-B32C-37ECD166B59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="4" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6385" uniqueCount="1480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6385" uniqueCount="1482">
   <si>
     <t>Study</t>
   </si>
@@ -4624,7 +4624,13 @@
     <t xml:space="preserve">Y: for the big thompson river but the NSV river I cant quite find it on USGS but there is a record in the figures </t>
   </si>
   <si>
-    <t>Y: DS2 (USGS), DS3 (USGS)</t>
+    <t>Y: DS2 (USGS), DS3 (USGS), N: DS1, US1, US2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y: Putah Creek (USGS; Wragg fire - burn), Y: Cache Creek (USGS; Rocky fire - burn), Y/N: Miller Canyon Creek (Wragg - Reference) - flow in lower lake </t>
+  </si>
+  <si>
+    <t>Y: FCBC (USGS), FCLM (USGS), N: FCCR (HOBO), FCWM (HOBO), in figure 3 in Murphy et al. 2012 (chrome-extension://efaidnbmnnnibpcajpcglclefindmkaj/https://iahs.info/uploads/dms/16021.10-51-58-354-15-SheilaMurphy_sm.pdf)</t>
   </si>
 </sst>
 </file>
@@ -4921,7 +4927,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -5077,8 +5083,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -29932,8 +29936,8 @@
   <dimension ref="A1:AB34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X28" sqref="X28"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W30" sqref="W30:W33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30661,10 +30665,10 @@
       <c r="W11" t="s">
         <v>1424</v>
       </c>
-      <c r="X11" s="113" t="s">
+      <c r="X11" t="s">
         <v>1454</v>
       </c>
-      <c r="Y11" s="113" t="s">
+      <c r="Y11" t="s">
         <v>1460</v>
       </c>
     </row>
@@ -30726,7 +30730,7 @@
       <c r="X12" t="s">
         <v>1431</v>
       </c>
-      <c r="Y12" s="113" t="s">
+      <c r="Y12" t="s">
         <v>1461</v>
       </c>
     </row>
@@ -30754,7 +30758,7 @@
       <c r="X13" t="s">
         <v>1456</v>
       </c>
-      <c r="Y13" s="113" t="s">
+      <c r="Y13" t="s">
         <v>1244</v>
       </c>
     </row>
@@ -30822,7 +30826,7 @@
       <c r="X14" t="s">
         <v>1433</v>
       </c>
-      <c r="Y14" s="113" t="s">
+      <c r="Y14" t="s">
         <v>1466</v>
       </c>
     </row>
@@ -30893,7 +30897,7 @@
       <c r="X15" t="s">
         <v>1414</v>
       </c>
-      <c r="Y15" s="113" t="s">
+      <c r="Y15" t="s">
         <v>1244</v>
       </c>
     </row>
@@ -30961,7 +30965,7 @@
       <c r="X16" t="s">
         <v>1415</v>
       </c>
-      <c r="Y16" s="113" t="s">
+      <c r="Y16" t="s">
         <v>1462</v>
       </c>
     </row>
@@ -31032,10 +31036,10 @@
       <c r="X17" t="s">
         <v>1416</v>
       </c>
-      <c r="Y17" s="113" t="s">
+      <c r="Y17" t="s">
         <v>1463</v>
       </c>
-      <c r="AA17" s="116"/>
+      <c r="AA17" s="114"/>
     </row>
     <row r="18" spans="1:27" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -31101,10 +31105,10 @@
       <c r="X18" t="s">
         <v>1434</v>
       </c>
-      <c r="Y18" s="113" t="s">
+      <c r="Y18" t="s">
         <v>1464</v>
       </c>
-      <c r="AA18" s="115"/>
+      <c r="AA18" s="113"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -31164,7 +31168,7 @@
       <c r="X19" t="s">
         <v>1417</v>
       </c>
-      <c r="Y19" s="113" t="s">
+      <c r="Y19" t="s">
         <v>1465</v>
       </c>
     </row>
@@ -31192,7 +31196,7 @@
       <c r="X20" t="s">
         <v>1446</v>
       </c>
-      <c r="Y20" s="113" t="s">
+      <c r="Y20" t="s">
         <v>1468</v>
       </c>
       <c r="Z20" s="62" t="s">
@@ -31269,7 +31273,7 @@
       <c r="X21" t="s">
         <v>1470</v>
       </c>
-      <c r="Y21" s="113" t="s">
+      <c r="Y21" t="s">
         <v>1471</v>
       </c>
     </row>
@@ -31294,13 +31298,13 @@
       <c r="W22" t="s">
         <v>1422</v>
       </c>
-      <c r="X22" s="113" t="s">
+      <c r="X22" t="s">
         <v>1472</v>
       </c>
-      <c r="Y22" s="113" t="s">
+      <c r="Y22" t="s">
         <v>1473</v>
       </c>
-      <c r="Z22" s="116" t="s">
+      <c r="Z22" s="114" t="s">
         <v>1474</v>
       </c>
     </row>
@@ -31363,7 +31367,7 @@
       <c r="X23" t="s">
         <v>1418</v>
       </c>
-      <c r="Y23" s="113" t="s">
+      <c r="Y23" t="s">
         <v>1475</v>
       </c>
     </row>
@@ -31438,7 +31442,7 @@
       <c r="X24" s="96" t="s">
         <v>1476</v>
       </c>
-      <c r="Y24" s="114" t="s">
+      <c r="Y24" s="96" t="s">
         <v>1477</v>
       </c>
     </row>
@@ -31515,7 +31519,7 @@
       <c r="X25" t="s">
         <v>1423</v>
       </c>
-      <c r="Y25" s="114" t="s">
+      <c r="Y25" s="96" t="s">
         <v>1478</v>
       </c>
     </row>
@@ -31583,7 +31587,7 @@
       <c r="X26" t="s">
         <v>1436</v>
       </c>
-      <c r="Y26" s="114" t="s">
+      <c r="Y26" s="96" t="s">
         <v>1479</v>
       </c>
     </row>
@@ -31642,8 +31646,8 @@
       <c r="X27" t="s">
         <v>1425</v>
       </c>
-      <c r="Y27" s="114" t="s">
-        <v>1156</v>
+      <c r="Y27" s="96" t="s">
+        <v>1479</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
@@ -31713,8 +31717,8 @@
       <c r="X28" t="s">
         <v>1428</v>
       </c>
-      <c r="Y28" s="114" t="s">
-        <v>1156</v>
+      <c r="Y28" s="96" t="s">
+        <v>1480</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
@@ -31736,8 +31740,8 @@
       <c r="X29" t="s">
         <v>1453</v>
       </c>
-      <c r="Y29" s="114" t="s">
-        <v>1156</v>
+      <c r="Y29" s="96" t="s">
+        <v>1481</v>
       </c>
     </row>
     <row r="30" spans="1:27" ht="19" x14ac:dyDescent="0.2">
@@ -31765,7 +31769,7 @@
       <c r="X30" s="112" t="s">
         <v>1449</v>
       </c>
-      <c r="Y30" s="114" t="s">
+      <c r="Y30" s="96" t="s">
         <v>1156</v>
       </c>
     </row>
@@ -31839,7 +31843,7 @@
       <c r="X31" t="s">
         <v>1443</v>
       </c>
-      <c r="Y31" s="114" t="s">
+      <c r="Y31" s="96" t="s">
         <v>1156</v>
       </c>
     </row>
@@ -31911,7 +31915,7 @@
       <c r="X32" t="s">
         <v>1429</v>
       </c>
-      <c r="Y32" s="114" t="s">
+      <c r="Y32" s="96" t="s">
         <v>1156</v>
       </c>
     </row>
@@ -31941,7 +31945,7 @@
       <c r="X33" t="s">
         <v>1447</v>
       </c>
-      <c r="Y33" s="114" t="s">
+      <c r="Y33" s="96" t="s">
         <v>1156</v>
       </c>
     </row>
@@ -32009,7 +32013,7 @@
       <c r="X34" t="s">
         <v>1438</v>
       </c>
-      <c r="Y34" s="114" t="s">
+      <c r="Y34" s="96" t="s">
         <v>1156</v>
       </c>
     </row>

--- a/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
+++ b/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-meta/FireMeta_Rproj/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C347D21-ED9D-2E43-B32C-37ECD166B59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530A06B8-E4ED-6E4A-B8B9-269DC3C50155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="4" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6385" uniqueCount="1482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6419" uniqueCount="1486">
   <si>
     <t>Study</t>
   </si>
@@ -4631,6 +4631,18 @@
   </si>
   <si>
     <t>Y: FCBC (USGS), FCLM (USGS), N: FCCR (HOBO), FCWM (HOBO), in figure 3 in Murphy et al. 2012 (chrome-extension://efaidnbmnnnibpcajpcglclefindmkaj/https://iahs.info/uploads/dms/16021.10-51-58-354-15-SheilaMurphy_sm.pdf)</t>
+  </si>
+  <si>
+    <t>Q_Extracted</t>
+  </si>
+  <si>
+    <t>Flux (mmol_m_year) from Table_S2</t>
+  </si>
+  <si>
+    <t>Qs from supplemental and area of each watershed</t>
+  </si>
+  <si>
+    <t>Yield (kg_km_year)</t>
   </si>
 </sst>
 </file>
@@ -29936,8 +29948,8 @@
   <dimension ref="A1:AB34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W30" sqref="W30:W33"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30028,7 +30040,9 @@
       <c r="Z1" s="105" t="s">
         <v>1467</v>
       </c>
-      <c r="AA1" s="1"/>
+      <c r="AA1" s="1" t="s">
+        <v>1482</v>
+      </c>
       <c r="AB1" s="6"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
@@ -30074,6 +30088,9 @@
       <c r="W2" t="s">
         <v>1156</v>
       </c>
+      <c r="AA2" t="s">
+        <v>1156</v>
+      </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -30145,6 +30162,9 @@
       <c r="Y3" t="s">
         <v>1156</v>
       </c>
+      <c r="AA3" t="s">
+        <v>1156</v>
+      </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -30213,6 +30233,9 @@
       <c r="Y4" t="s">
         <v>1156</v>
       </c>
+      <c r="AA4" t="s">
+        <v>1156</v>
+      </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -30275,6 +30298,9 @@
       <c r="Y5" t="s">
         <v>1156</v>
       </c>
+      <c r="AA5" t="s">
+        <v>1156</v>
+      </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -30340,6 +30366,9 @@
       <c r="Y6" t="s">
         <v>1156</v>
       </c>
+      <c r="AA6" t="s">
+        <v>1156</v>
+      </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -30399,6 +30428,9 @@
       <c r="Y7" t="s">
         <v>1156</v>
       </c>
+      <c r="AA7" t="s">
+        <v>1156</v>
+      </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -30464,6 +30496,9 @@
       <c r="Y8" t="s">
         <v>1156</v>
       </c>
+      <c r="AA8" t="s">
+        <v>1156</v>
+      </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -30535,6 +30570,9 @@
       <c r="Y9" t="s">
         <v>1156</v>
       </c>
+      <c r="AA9" t="s">
+        <v>1156</v>
+      </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -30606,6 +30644,9 @@
       <c r="Y10" t="s">
         <v>1156</v>
       </c>
+      <c r="AA10" t="s">
+        <v>1156</v>
+      </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -30671,6 +30712,9 @@
       <c r="Y11" t="s">
         <v>1460</v>
       </c>
+      <c r="AA11" t="s">
+        <v>1156</v>
+      </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -30732,6 +30776,9 @@
       </c>
       <c r="Y12" t="s">
         <v>1461</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>1484</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
@@ -30761,6 +30808,9 @@
       <c r="Y13" t="s">
         <v>1244</v>
       </c>
+      <c r="AA13" t="s">
+        <v>1156</v>
+      </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -30829,6 +30879,9 @@
       <c r="Y14" t="s">
         <v>1466</v>
       </c>
+      <c r="AA14" t="s">
+        <v>1483</v>
+      </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -30900,6 +30953,9 @@
       <c r="Y15" t="s">
         <v>1244</v>
       </c>
+      <c r="AA15" t="s">
+        <v>1156</v>
+      </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -30968,6 +31024,9 @@
       <c r="Y16" t="s">
         <v>1462</v>
       </c>
+      <c r="AA16" t="s">
+        <v>1156</v>
+      </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -31039,7 +31098,9 @@
       <c r="Y17" t="s">
         <v>1463</v>
       </c>
-      <c r="AA17" s="114"/>
+      <c r="AA17" s="114" t="s">
+        <v>1156</v>
+      </c>
     </row>
     <row r="18" spans="1:27" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -31108,7 +31169,9 @@
       <c r="Y18" t="s">
         <v>1464</v>
       </c>
-      <c r="AA18" s="113"/>
+      <c r="AA18" s="113" t="s">
+        <v>1156</v>
+      </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -31170,6 +31233,9 @@
       </c>
       <c r="Y19" t="s">
         <v>1465</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>1485</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
@@ -31202,6 +31268,9 @@
       <c r="Z20" s="62" t="s">
         <v>1469</v>
       </c>
+      <c r="AA20" t="s">
+        <v>1156</v>
+      </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -31275,6 +31344,9 @@
       </c>
       <c r="Y21" t="s">
         <v>1471</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>1156</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
@@ -31307,6 +31379,9 @@
       <c r="Z22" s="114" t="s">
         <v>1474</v>
       </c>
+      <c r="AA22" t="s">
+        <v>1156</v>
+      </c>
     </row>
     <row r="23" spans="1:27" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -31370,6 +31445,9 @@
       <c r="Y23" t="s">
         <v>1475</v>
       </c>
+      <c r="AA23" t="s">
+        <v>1156</v>
+      </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -31445,6 +31523,9 @@
       <c r="Y24" s="96" t="s">
         <v>1477</v>
       </c>
+      <c r="AA24" t="s">
+        <v>1156</v>
+      </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -31522,6 +31603,9 @@
       <c r="Y25" s="96" t="s">
         <v>1478</v>
       </c>
+      <c r="AA25" t="s">
+        <v>1156</v>
+      </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -31590,6 +31674,9 @@
       <c r="Y26" s="96" t="s">
         <v>1479</v>
       </c>
+      <c r="AA26" t="s">
+        <v>1156</v>
+      </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -31649,6 +31736,9 @@
       <c r="Y27" s="96" t="s">
         <v>1479</v>
       </c>
+      <c r="AA27" t="s">
+        <v>1156</v>
+      </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -31720,6 +31810,9 @@
       <c r="Y28" s="96" t="s">
         <v>1480</v>
       </c>
+      <c r="AA28" t="s">
+        <v>1156</v>
+      </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -31742,6 +31835,9 @@
       </c>
       <c r="Y29" s="96" t="s">
         <v>1481</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>1156</v>
       </c>
     </row>
     <row r="30" spans="1:27" ht="19" x14ac:dyDescent="0.2">
@@ -31772,6 +31868,9 @@
       <c r="Y30" s="96" t="s">
         <v>1156</v>
       </c>
+      <c r="AA30" t="s">
+        <v>1156</v>
+      </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -31846,6 +31945,9 @@
       <c r="Y31" s="96" t="s">
         <v>1156</v>
       </c>
+      <c r="AA31" t="s">
+        <v>1156</v>
+      </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -31918,8 +32020,11 @@
       <c r="Y32" s="96" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="33" spans="1:25" ht="18" x14ac:dyDescent="0.2">
+      <c r="AA32" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1243</v>
       </c>
@@ -31948,8 +32053,11 @@
       <c r="Y33" s="96" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA33" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1243</v>
       </c>
@@ -32014,6 +32122,9 @@
         <v>1438</v>
       </c>
       <c r="Y34" s="96" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AA34" t="s">
         <v>1156</v>
       </c>
     </row>

--- a/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
+++ b/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-meta/FireMeta_Rproj/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530A06B8-E4ED-6E4A-B8B9-269DC3C50155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC96438D-7C04-9140-A3B1-4597B98C7FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="4" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
+    <workbookView xWindow="30240" yWindow="0" windowWidth="38400" windowHeight="24000" activeTab="4" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
   </bookViews>
   <sheets>
     <sheet name="Study_info" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6419" uniqueCount="1486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6479" uniqueCount="1509">
   <si>
     <t>Study</t>
   </si>
@@ -4466,9 +4466,6 @@
     </r>
   </si>
   <si>
-    <t>Figure 3 has daily Q for burned watersheds and assoicated unbyrned watersheds</t>
-  </si>
-  <si>
     <t xml:space="preserve">Supplemental has some discharge records for Trout Creek and Cold Creek which is a paired watershed but not for the other paired watershed. Also the flow sometimes doesn't line up with the sampling or there are weird windows of flow. Should I just go ahead and clipped the paired watersheds that dont have Q? </t>
   </si>
   <si>
@@ -4547,10 +4544,6 @@
     <t>Figure 4 has discharge data</t>
   </si>
   <si>
-    <t xml:space="preserve">Figure 2 has mean daily Q for each site except site 1 which is the reference site. In February of 2008, the USGS outfitted Site 4 with a stream flow gauge (USGS Site 103366097). Fig. 7 Annual discharge (Q), N-loading, and P-loading for
-sites 2, 3, and 4 for the first two water years following fire. Missing reference site </t>
-  </si>
-  <si>
     <t>Figure 3 has 2016 hydrograph for Scotty Creek (Reference site). SC outlet has been monitored by Water Survey of Canada since 1995 (wateroffice.ec.gc.ca, last access: 16 August 2018)                                                                                Cumulative run-off and solute yield from Scotty Creek and Notawohka Creek catchments during the 2016 study period (Table 1). Notawohka Creek catchment discharge was calcualted by them using HOBOs and Swoffers. I dont see the data within the paper but it is available upon request. Yes_for_reference_burn_upon_Request</t>
   </si>
   <si>
@@ -4643,6 +4636,82 @@
   </si>
   <si>
     <t>Yield (kg_km_year)</t>
+  </si>
+  <si>
+    <t>N_means_TSF</t>
+  </si>
+  <si>
+    <t>N_means</t>
+  </si>
+  <si>
+    <t>Y_N</t>
+  </si>
+  <si>
+    <t>Exact_Date_Extracted</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Y_means</t>
+  </si>
+  <si>
+    <t>Means</t>
+  </si>
+  <si>
+    <t>Closest USGS gauge</t>
+  </si>
+  <si>
+    <t>Cache LA Poudre River at Fort Collins, CO - 06752260</t>
+  </si>
+  <si>
+    <t>USGS 06701900 SOUTH PLATTE RIVER BLW BRUSH CRK NEAR TRUMBULL, CO, Started on 2002-07-19. Lots of sites</t>
+  </si>
+  <si>
+    <t>Pretty much looking at the same sites from the 2011 paper. USGS 06701900 SOUTH PLATTE RIVER BLW BRUSH CRK NEAR TRUMBULL, CO, Started on 2002-07-19. Lots of sites</t>
+  </si>
+  <si>
+    <t>Tuolumne R a Grand Cyn of Tuolumne AB Hetch Hetchy - 11274790/ Merced R a Happy Isles Bridge NR Yosemite CA - 11264500. There are lots of sites for this study</t>
+  </si>
+  <si>
+    <t>SF Salmon River NR Krassel Ranger Station ID - 13310700, started in 1989. Samples were taken during 20042006</t>
+  </si>
+  <si>
+    <t>N F Flathead River nr Columbia Falls MT - 12355500, started in 1995. They have another gauge it looks like from Fig. 1 and Fig. 2 that has 1988-1993 data</t>
+  </si>
+  <si>
+    <t>Figure 2 has mean daily Q for each site except site 1 which is the reference site. In February of 2008, the USGS outfitted Site 4 with a stream flow gauge (USGS Site 103366097). Fig. 7 Annual discharge (Q), N-loading, and P-loading for
+sites 2, 3, and 4 for the first two water years following fire. Missing reference site. I have the load on a yearly scale and I have the watershed area so I can calculate yield</t>
+  </si>
+  <si>
+    <t>Don’t need</t>
+  </si>
+  <si>
+    <t>would need to request</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Figure 3 has daily Q for burned watersheds and assoicated unburned watersheds</t>
+  </si>
+  <si>
+    <t>Little Tennessee River at Needmore, NC - 03503000. This is the closest USGS gauge to the sites. None of the sites are actually USGS gauged. This starts in 1985</t>
+  </si>
+  <si>
+    <t>LTER data</t>
+  </si>
+  <si>
+    <t>USGS stream flow was obtained from http://bowdnhbow.er.usgs.gov/annual.html.</t>
+  </si>
+  <si>
+    <t>SF Salmon River NR Krassel Ranger Station ID - 13310700, started in 1989. Samples were taken during 2011 in this study</t>
+  </si>
+  <si>
+    <t>The USGS gauges that they list in the paper dont have Q. This is the closest one I could find from their website. F Flathead River Near West Glacier MT - 12358500</t>
   </si>
 </sst>
 </file>
@@ -4652,7 +4721,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4863,6 +4932,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1B1B1B"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -4939,7 +5020,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -5097,6 +5178,9 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -29945,11 +30029,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E83DAFB-3D69-1A4C-8997-3EF8B4236F27}">
-  <dimension ref="A1:AB34"/>
+  <dimension ref="A1:AC34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X20" sqref="X20"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29959,9 +30043,10 @@
     <col min="5" max="21" width="10.83203125" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="9.6640625" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>1379</v>
       </c>
@@ -30035,17 +30120,22 @@
         <v>1420</v>
       </c>
       <c r="Y1" s="105" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="Z1" s="105" t="s">
-        <v>1467</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>1482</v>
-      </c>
-      <c r="AB1" s="6"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+        <v>1492</v>
+      </c>
+      <c r="AA1" s="105" t="s">
+        <v>1465</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1243</v>
       </c>
@@ -30088,11 +30178,14 @@
       <c r="W2" t="s">
         <v>1156</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC2" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1243</v>
       </c>
@@ -30154,19 +30247,25 @@
         <v>1382</v>
       </c>
       <c r="W3" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="X3" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="Y3" t="s">
         <v>1156</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="Z3" s="115" t="s">
+        <v>1494</v>
+      </c>
+      <c r="AB3" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC3" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1243</v>
       </c>
@@ -30225,19 +30324,25 @@
         <v>1382</v>
       </c>
       <c r="W4" t="s">
+        <v>1440</v>
+      </c>
+      <c r="X4" t="s">
         <v>1441</v>
-      </c>
-      <c r="X4" t="s">
-        <v>1442</v>
       </c>
       <c r="Y4" t="s">
         <v>1156</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="Z4" t="s">
+        <v>1495</v>
+      </c>
+      <c r="AB4" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC4" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1243</v>
       </c>
@@ -30293,16 +30398,19 @@
         <v>1426</v>
       </c>
       <c r="X5" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="Y5" t="s">
         <v>1156</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="Z5" s="116" t="s">
+        <v>1493</v>
+      </c>
+      <c r="AB5" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1243</v>
       </c>
@@ -30366,11 +30474,17 @@
       <c r="Y6" t="s">
         <v>1156</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="Z6" s="116" t="s">
+        <v>1496</v>
+      </c>
+      <c r="AB6" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC6" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1243</v>
       </c>
@@ -30428,11 +30542,17 @@
       <c r="Y7" t="s">
         <v>1156</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="Z7" s="116" t="s">
+        <v>1497</v>
+      </c>
+      <c r="AB7" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC7" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1243</v>
       </c>
@@ -30491,16 +30611,19 @@
         <v>1424</v>
       </c>
       <c r="X8" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="Y8" t="s">
         <v>1156</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="Z8" s="116" t="s">
+        <v>1500</v>
+      </c>
+      <c r="AB8" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1243</v>
       </c>
@@ -30570,11 +30693,17 @@
       <c r="Y9" t="s">
         <v>1156</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="Z9" s="116" t="s">
+        <v>1498</v>
+      </c>
+      <c r="AB9" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1243</v>
       </c>
@@ -30639,16 +30768,22 @@
         <v>1424</v>
       </c>
       <c r="X10" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="Y10" t="s">
         <v>1156</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="Z10" s="116" t="s">
+        <v>1500</v>
+      </c>
+      <c r="AB10" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1243</v>
       </c>
@@ -30706,17 +30841,20 @@
       <c r="W11" t="s">
         <v>1424</v>
       </c>
-      <c r="X11" t="s">
-        <v>1454</v>
+      <c r="X11" s="117" t="s">
+        <v>1499</v>
       </c>
       <c r="Y11" t="s">
-        <v>1460</v>
-      </c>
-      <c r="AA11" t="s">
+        <v>1458</v>
+      </c>
+      <c r="AB11" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1243</v>
       </c>
@@ -30775,13 +30913,19 @@
         <v>1431</v>
       </c>
       <c r="Y12" t="s">
-        <v>1461</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+        <v>1459</v>
+      </c>
+      <c r="Z12" s="116" t="s">
+        <v>1500</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>1482</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1243</v>
       </c>
@@ -30792,27 +30936,30 @@
         <v>2015</v>
       </c>
       <c r="D13" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="V13" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="W13" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="X13" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="Y13" t="s">
         <v>1244</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1243</v>
       </c>
@@ -30877,13 +31024,19 @@
         <v>1433</v>
       </c>
       <c r="Y14" t="s">
-        <v>1466</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>1483</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+        <v>1464</v>
+      </c>
+      <c r="Z14" s="116" t="s">
+        <v>1500</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>1481</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1243</v>
       </c>
@@ -30953,11 +31106,17 @@
       <c r="Y15" t="s">
         <v>1244</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="Z15" t="s">
+        <v>1500</v>
+      </c>
+      <c r="AB15" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1243</v>
       </c>
@@ -31022,13 +31181,19 @@
         <v>1415</v>
       </c>
       <c r="Y16" t="s">
-        <v>1462</v>
-      </c>
-      <c r="AA16" t="s">
+        <v>1460</v>
+      </c>
+      <c r="Z16" s="116" t="s">
+        <v>1501</v>
+      </c>
+      <c r="AB16" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC16" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1243</v>
       </c>
@@ -31096,13 +31261,19 @@
         <v>1416</v>
       </c>
       <c r="Y17" t="s">
-        <v>1463</v>
-      </c>
-      <c r="AA17" s="114" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>1502</v>
+      </c>
+      <c r="AB17" s="114" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" ht="18" x14ac:dyDescent="0.2">
+      <c r="AC17" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1243</v>
       </c>
@@ -31164,16 +31335,22 @@
         <v>1422</v>
       </c>
       <c r="X18" t="s">
-        <v>1434</v>
+        <v>1503</v>
       </c>
       <c r="Y18" t="s">
-        <v>1464</v>
-      </c>
-      <c r="AA18" s="113" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Z18" s="116" t="s">
+        <v>1504</v>
+      </c>
+      <c r="AB18" s="113" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC18" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1243</v>
       </c>
@@ -31232,24 +31409,30 @@
         <v>1417</v>
       </c>
       <c r="Y19" t="s">
-        <v>1465</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>1485</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+        <v>1463</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>1500</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>1483</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1243</v>
       </c>
       <c r="B20" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="C20">
         <v>2013</v>
       </c>
       <c r="D20" s="111" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
@@ -31260,19 +31443,25 @@
         <v>1422</v>
       </c>
       <c r="X20" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="Y20" t="s">
-        <v>1468</v>
-      </c>
-      <c r="Z20" s="62" t="s">
-        <v>1469</v>
-      </c>
-      <c r="AA20" t="s">
+        <v>1466</v>
+      </c>
+      <c r="Z20" s="116" t="s">
+        <v>1505</v>
+      </c>
+      <c r="AA20" s="62" t="s">
+        <v>1467</v>
+      </c>
+      <c r="AB20" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC20" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1243</v>
       </c>
@@ -31340,16 +31529,22 @@
         <v>1422</v>
       </c>
       <c r="X21" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="Y21" t="s">
-        <v>1471</v>
-      </c>
-      <c r="AA21" t="s">
+        <v>1469</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>1500</v>
+      </c>
+      <c r="AB21" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC21" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1243</v>
       </c>
@@ -31370,20 +31565,26 @@
       <c r="W22" t="s">
         <v>1422</v>
       </c>
-      <c r="X22" t="s">
+      <c r="X22" s="117" t="s">
+        <v>1470</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>1471</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>1506</v>
+      </c>
+      <c r="AA22" s="114" t="s">
         <v>1472</v>
       </c>
-      <c r="Y22" t="s">
-        <v>1473</v>
-      </c>
-      <c r="Z22" s="114" t="s">
-        <v>1474</v>
-      </c>
-      <c r="AA22" t="s">
+      <c r="AB22" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" ht="18" x14ac:dyDescent="0.2">
+      <c r="AC22" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1243</v>
       </c>
@@ -31443,13 +31644,19 @@
         <v>1418</v>
       </c>
       <c r="Y23" t="s">
-        <v>1475</v>
-      </c>
-      <c r="AA23" t="s">
+        <v>1473</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>1507</v>
+      </c>
+      <c r="AB23" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC23" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1243</v>
       </c>
@@ -31518,16 +31725,22 @@
         <v>1422</v>
       </c>
       <c r="X24" s="96" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="Y24" s="96" t="s">
-        <v>1477</v>
-      </c>
-      <c r="AA24" t="s">
+        <v>1475</v>
+      </c>
+      <c r="Z24" s="116" t="s">
+        <v>1508</v>
+      </c>
+      <c r="AB24" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC24" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1243</v>
       </c>
@@ -31601,13 +31814,19 @@
         <v>1423</v>
       </c>
       <c r="Y25" s="96" t="s">
-        <v>1478</v>
-      </c>
-      <c r="AA25" t="s">
+        <v>1476</v>
+      </c>
+      <c r="Z25" s="96" t="s">
+        <v>1500</v>
+      </c>
+      <c r="AB25" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1243</v>
       </c>
@@ -31669,16 +31888,20 @@
         <v>1422</v>
       </c>
       <c r="X26" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="Y26" s="96" t="s">
-        <v>1479</v>
-      </c>
-      <c r="AA26" t="s">
+        <v>1477</v>
+      </c>
+      <c r="Z26" s="96"/>
+      <c r="AB26" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC26" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1243</v>
       </c>
@@ -31734,13 +31957,19 @@
         <v>1425</v>
       </c>
       <c r="Y27" s="96" t="s">
-        <v>1479</v>
-      </c>
-      <c r="AA27" t="s">
+        <v>1477</v>
+      </c>
+      <c r="Z27" s="96" t="s">
+        <v>1500</v>
+      </c>
+      <c r="AB27" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC27" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1243</v>
       </c>
@@ -31808,13 +32037,17 @@
         <v>1428</v>
       </c>
       <c r="Y28" s="96" t="s">
-        <v>1480</v>
-      </c>
-      <c r="AA28" t="s">
+        <v>1478</v>
+      </c>
+      <c r="Z28" s="96"/>
+      <c r="AB28" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC28" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1243</v>
       </c>
@@ -31825,22 +32058,26 @@
         <v>2012</v>
       </c>
       <c r="D29" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="W29" t="s">
         <v>1422</v>
       </c>
       <c r="X29" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="Y29" s="96" t="s">
-        <v>1481</v>
-      </c>
-      <c r="AA29" t="s">
+        <v>1479</v>
+      </c>
+      <c r="Z29" s="96"/>
+      <c r="AB29" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="30" spans="1:27" ht="19" x14ac:dyDescent="0.2">
+      <c r="AC29" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1243</v>
       </c>
@@ -31851,7 +32088,7 @@
         <v>2016</v>
       </c>
       <c r="D30" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
@@ -31863,16 +32100,22 @@
         <v>1430</v>
       </c>
       <c r="X30" s="112" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="Y30" s="96" t="s">
         <v>1156</v>
       </c>
-      <c r="AA30" t="s">
+      <c r="Z30" s="96" t="s">
+        <v>1493</v>
+      </c>
+      <c r="AB30" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC30" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1243</v>
       </c>
@@ -31940,16 +32183,22 @@
         <v>1430</v>
       </c>
       <c r="X31" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="Y31" s="96" t="s">
         <v>1156</v>
       </c>
-      <c r="AA31" t="s">
+      <c r="Z31" s="96" t="s">
+        <v>1493</v>
+      </c>
+      <c r="AB31" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC31" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1243</v>
       </c>
@@ -32020,11 +32269,17 @@
       <c r="Y32" s="96" t="s">
         <v>1156</v>
       </c>
-      <c r="AA32" t="s">
+      <c r="Z32" s="96" t="s">
+        <v>1493</v>
+      </c>
+      <c r="AB32" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="33" spans="1:27" ht="18" x14ac:dyDescent="0.2">
+      <c r="AC32" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1243</v>
       </c>
@@ -32045,19 +32300,25 @@
         <v>1385</v>
       </c>
       <c r="W33" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="X33" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="Y33" s="96" t="s">
         <v>1156</v>
       </c>
-      <c r="AA33" t="s">
+      <c r="Z33" s="96" t="s">
+        <v>1494</v>
+      </c>
+      <c r="AB33" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC33" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1243</v>
       </c>
@@ -32116,16 +32377,22 @@
         <v>1382</v>
       </c>
       <c r="W34" t="s">
+        <v>1436</v>
+      </c>
+      <c r="X34" t="s">
         <v>1437</v>
-      </c>
-      <c r="X34" t="s">
-        <v>1438</v>
       </c>
       <c r="Y34" s="96" t="s">
         <v>1156</v>
       </c>
-      <c r="AA34" t="s">
+      <c r="Z34" s="96" t="s">
+        <v>1494</v>
+      </c>
+      <c r="AB34" t="s">
         <v>1156</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>1491</v>
       </c>
     </row>
   </sheetData>

--- a/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
+++ b/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-meta/FireMeta_Rproj/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC96438D-7C04-9140-A3B1-4597B98C7FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A8B518-6A5A-0449-A3B7-3EF8D7C94A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="0" windowWidth="38400" windowHeight="24000" activeTab="4" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
+    <workbookView xWindow="30240" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
   </bookViews>
   <sheets>
     <sheet name="Study_info" sheetId="2" r:id="rId1"/>
@@ -5020,7 +5020,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -5180,7 +5180,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5498,9 +5497,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BBBCD29-F279-7640-9C44-210CA3C35D17}">
   <dimension ref="A1:AQ321"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A225" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A244" sqref="A244"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30031,9 +30030,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E83DAFB-3D69-1A4C-8997-3EF8B4236F27}">
   <dimension ref="A1:AC34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="AA1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30841,7 +30840,7 @@
       <c r="W11" t="s">
         <v>1424</v>
       </c>
-      <c r="X11" s="117" t="s">
+      <c r="X11" t="s">
         <v>1499</v>
       </c>
       <c r="Y11" t="s">
@@ -31565,7 +31564,7 @@
       <c r="W22" t="s">
         <v>1422</v>
       </c>
-      <c r="X22" s="117" t="s">
+      <c r="X22" t="s">
         <v>1470</v>
       </c>
       <c r="Y22" t="s">

--- a/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
+++ b/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-meta/FireMeta_Rproj/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A8B518-6A5A-0449-A3B7-3EF8D7C94A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDC35B0-9EEB-784B-9437-B24B4299C8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
+    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="23500" activeTab="4" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
   </bookViews>
   <sheets>
     <sheet name="Study_info" sheetId="2" r:id="rId1"/>
@@ -5497,7 +5497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BBBCD29-F279-7640-9C44-210CA3C35D17}">
   <dimension ref="A1:AQ321"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
     </sheetView>
@@ -30030,9 +30030,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E83DAFB-3D69-1A4C-8997-3EF8B4236F27}">
   <dimension ref="A1:AC34"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
+++ b/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-meta/FireMeta_Rproj/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDC35B0-9EEB-784B-9437-B24B4299C8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00337E84-FDA5-7E42-8B09-37769283A9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="23500" activeTab="4" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6479" uniqueCount="1509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6512" uniqueCount="1534">
   <si>
     <t>Study</t>
   </si>
@@ -4712,6 +4712,81 @@
   </si>
   <si>
     <t>The USGS gauges that they list in the paper dont have Q. This is the closest one I could find from their website. F Flathead River Near West Glacier MT - 12358500</t>
+  </si>
+  <si>
+    <t>Fire_name</t>
+  </si>
+  <si>
+    <t>Jesusita Fire</t>
+  </si>
+  <si>
+    <t>Hewlett Gulch_High Park fire</t>
+  </si>
+  <si>
+    <t>Hayman Fire (2002)</t>
+  </si>
+  <si>
+    <t>High Park Fire (2012)</t>
+  </si>
+  <si>
+    <t>Yosemite NP Fire</t>
+  </si>
+  <si>
+    <t>Caldor Fire(2021)_Mosquito Fire (2002)</t>
+  </si>
+  <si>
+    <t>Angora Fire (2007)</t>
+  </si>
+  <si>
+    <t>Anaktuvuk River wildfire (2007)</t>
+  </si>
+  <si>
+    <t>Thompson Ridge Wildfire (2013)</t>
+  </si>
+  <si>
+    <t>Boundary Fire (2004)</t>
+  </si>
+  <si>
+    <t>Lost Creek Wildfire (2003)</t>
+  </si>
+  <si>
+    <t>Camp Branch Fire (2016)_Tellico Fire (2016)</t>
+  </si>
+  <si>
+    <t>Clover-Mist Wildfire (1988)</t>
+  </si>
+  <si>
+    <t>Historic Fires</t>
+  </si>
+  <si>
+    <t>Rampage Fire (2003)_Others in Glacier NP</t>
+  </si>
+  <si>
+    <t>Fern Lake (2012)</t>
+  </si>
+  <si>
+    <t>Fourmile Canyon Fire (2010)</t>
+  </si>
+  <si>
+    <t>Rocky Fire (2015)_Wragg Fire (2015)</t>
+  </si>
+  <si>
+    <t>Hayman Fire (2002)_High Park Fire (2012)</t>
+  </si>
+  <si>
+    <t>No name given (2002)</t>
+  </si>
+  <si>
+    <t>Northwest Territories Fire (2013)</t>
+  </si>
+  <si>
+    <t>Red Bench Fire (1988)</t>
+  </si>
+  <si>
+    <t>No name given (2007)</t>
+  </si>
+  <si>
+    <t>Gaviota Fire (2004)</t>
   </si>
 </sst>
 </file>
@@ -5020,7 +5095,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -5180,6 +5255,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -27617,7 +27693,7 @@
   <dimension ref="A1:AA42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
@@ -30028,24 +30104,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E83DAFB-3D69-1A4C-8997-3EF8B4236F27}">
-  <dimension ref="A1:AC34"/>
+  <dimension ref="A1:AD34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X3" sqref="X3"/>
+      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="21" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="9.6640625" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="37.1640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="10" max="22" width="10.83203125" customWidth="1"/>
+    <col min="23" max="23" width="9.6640625" customWidth="1"/>
+    <col min="24" max="24" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>1379</v>
       </c>
@@ -30074,67 +30151,70 @@
         <v>691</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="74" t="s">
+      <c r="W1" s="74" t="s">
         <v>1380</v>
       </c>
-      <c r="W1" s="105" t="s">
+      <c r="X1" s="105" t="s">
         <v>1421</v>
       </c>
-      <c r="X1" s="105" t="s">
+      <c r="Y1" s="105" t="s">
         <v>1420</v>
       </c>
-      <c r="Y1" s="105" t="s">
+      <c r="Z1" s="105" t="s">
         <v>1457</v>
       </c>
-      <c r="Z1" s="105" t="s">
+      <c r="AA1" s="105" t="s">
         <v>1492</v>
       </c>
-      <c r="AA1" s="105" t="s">
+      <c r="AB1" s="105" t="s">
         <v>1465</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>1480</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>1487</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1243</v>
       </c>
@@ -30163,28 +30243,29 @@
       <c r="L2" s="60"/>
       <c r="M2" s="60"/>
       <c r="N2" s="60"/>
-      <c r="P2" s="60"/>
+      <c r="O2" s="60"/>
       <c r="Q2" s="60"/>
       <c r="R2" s="60"/>
       <c r="S2" s="60"/>
       <c r="T2" s="60"/>
-      <c r="U2" s="60" t="s">
+      <c r="U2" s="60"/>
+      <c r="V2" s="60" t="s">
         <v>682</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>1406</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>1156</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>1156</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1243</v>
       </c>
@@ -30213,58 +30294,61 @@
         <v>693</v>
       </c>
       <c r="J3" t="s">
+        <v>1512</v>
+      </c>
+      <c r="K3" t="s">
         <v>24</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>694</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>19</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>695</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>39.177683000000002</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>-105.26552</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>5</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>690</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>22</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>696</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>1382</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>1439</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>1438</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>1156</v>
       </c>
-      <c r="Z3" s="115" t="s">
+      <c r="AA3" s="115" t="s">
         <v>1494</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>1156</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1243</v>
       </c>
@@ -30293,55 +30377,58 @@
         <v>785</v>
       </c>
       <c r="J4" t="s">
+        <v>1512</v>
+      </c>
+      <c r="K4" t="s">
         <v>24</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>694</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>19</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>721</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>39.177683000000002</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>-105.26552</v>
-      </c>
-      <c r="S4" t="s">
-        <v>22</v>
       </c>
       <c r="T4" t="s">
         <v>22</v>
       </c>
       <c r="U4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" t="s">
         <v>1108</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>1382</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>1440</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>1441</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>1156</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>1495</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>1156</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1243</v>
       </c>
@@ -30370,46 +30457,49 @@
         <v>785</v>
       </c>
       <c r="J5" t="s">
+        <v>1513</v>
+      </c>
+      <c r="K5" t="s">
         <v>24</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>721</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>39.177683000000002</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>-105.26552</v>
-      </c>
-      <c r="S5" t="s">
-        <v>22</v>
       </c>
       <c r="T5" t="s">
         <v>22</v>
       </c>
       <c r="U5" t="s">
+        <v>22</v>
+      </c>
+      <c r="V5" t="s">
         <v>1107</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>1384</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>1426</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>1456</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>1156</v>
       </c>
-      <c r="Z5" s="116" t="s">
+      <c r="AA5" s="116" t="s">
         <v>1493</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1243</v>
       </c>
@@ -30438,52 +30528,55 @@
         <v>785</v>
       </c>
       <c r="J6" t="s">
+        <v>1514</v>
+      </c>
+      <c r="K6" t="s">
         <v>873</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>926</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>927</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>37.534036999999998</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>-119.389139</v>
-      </c>
-      <c r="S6" t="s">
-        <v>22</v>
       </c>
       <c r="T6" t="s">
         <v>22</v>
       </c>
       <c r="U6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V6" t="s">
         <v>925</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>1401</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>1426</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>1427</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>1156</v>
       </c>
-      <c r="Z6" s="116" t="s">
+      <c r="AA6" s="116" t="s">
         <v>1496</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>1156</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>1484</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1243</v>
       </c>
@@ -30508,50 +30601,53 @@
       <c r="I7" t="s">
         <v>785</v>
       </c>
-      <c r="M7" t="s">
+      <c r="J7" t="s">
+        <v>1529</v>
+      </c>
+      <c r="N7" t="s">
         <v>930</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>949</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>44.578524999999999</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>-115.66604</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>4</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>22</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>950</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>1386</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>1426</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>1427</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>1156</v>
       </c>
-      <c r="Z7" s="116" t="s">
+      <c r="AA7" s="116" t="s">
         <v>1497</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>1156</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1243</v>
       </c>
@@ -30579,50 +30675,53 @@
       <c r="I8" t="s">
         <v>785</v>
       </c>
-      <c r="M8">
+      <c r="J8" t="s">
+        <v>1530</v>
+      </c>
+      <c r="N8">
         <v>3</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>836</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>61.4</v>
       </c>
-      <c r="P8">
-        <v>121.433333</v>
-      </c>
       <c r="Q8">
+        <v>-121.433333</v>
+      </c>
+      <c r="R8">
         <v>0.5</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>743</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>22</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>837</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>1382</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>1424</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>1453</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>1156</v>
       </c>
-      <c r="Z8" s="116" t="s">
+      <c r="AA8" s="116" t="s">
         <v>1500</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1243</v>
       </c>
@@ -30651,58 +30750,61 @@
         <v>785</v>
       </c>
       <c r="J9" t="s">
+        <v>1531</v>
+      </c>
+      <c r="K9" t="s">
         <v>24</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>724</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>19</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>725</v>
       </c>
-      <c r="O9" s="99">
+      <c r="P9" s="99">
         <v>48.762999999999998</v>
       </c>
-      <c r="P9" s="99">
+      <c r="Q9" s="99">
         <v>-114.226</v>
       </c>
-      <c r="Q9" s="100">
+      <c r="R9" s="100">
         <v>5</v>
       </c>
-      <c r="R9" s="100" t="s">
+      <c r="S9" s="100" t="s">
         <v>726</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>22</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>1395</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>1401</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>1424</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>1419</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>1156</v>
       </c>
-      <c r="Z9" s="116" t="s">
+      <c r="AA9" s="116" t="s">
         <v>1498</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>1156</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1243</v>
       </c>
@@ -30731,58 +30833,61 @@
         <v>785</v>
       </c>
       <c r="J10" t="s">
+        <v>1515</v>
+      </c>
+      <c r="K10" t="s">
         <v>1168</v>
       </c>
-      <c r="L10" s="46" t="s">
+      <c r="M10" s="46" t="s">
         <v>1166</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>987</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>1167</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>38.916015999999999</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-120.281718</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>2</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>1170</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>22</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>1169</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>1382</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>1424</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>1434</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>1156</v>
       </c>
-      <c r="Z10" s="116" t="s">
+      <c r="AA10" s="116" t="s">
         <v>1500</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>1156</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1243</v>
       </c>
@@ -30811,49 +30916,52 @@
         <v>785</v>
       </c>
       <c r="J11" t="s">
+        <v>1516</v>
+      </c>
+      <c r="K11" t="s">
         <v>882</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>883</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>884</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>38.896382000000003</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>-120.041629</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>2</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>22</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>887</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>1401</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>1424</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>1499</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>1458</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>1156</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1243</v>
       </c>
@@ -30881,50 +30989,53 @@
       <c r="I12" t="s">
         <v>785</v>
       </c>
-      <c r="M12" t="s">
+      <c r="J12" t="s">
+        <v>1517</v>
+      </c>
+      <c r="N12" t="s">
         <v>937</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>938</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>69.166667000000004</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>-150.75</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>2</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>22</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>939</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>1382</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>1432</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>1431</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>1459</v>
       </c>
-      <c r="Z12" s="116" t="s">
+      <c r="AA12" s="116" t="s">
         <v>1500</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>1482</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1243</v>
       </c>
@@ -30939,26 +31050,29 @@
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
-      <c r="V13" t="s">
+      <c r="J13" t="s">
+        <v>1510</v>
+      </c>
+      <c r="W13" t="s">
         <v>1450</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>1455</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>1454</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>1244</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>1156</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1243</v>
       </c>
@@ -30986,56 +31100,59 @@
       <c r="I14" t="s">
         <v>692</v>
       </c>
-      <c r="L14" t="s">
+      <c r="J14" s="106" t="s">
+        <v>1518</v>
+      </c>
+      <c r="M14" t="s">
         <v>1176</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>1177</v>
       </c>
-      <c r="N14" s="106" t="s">
+      <c r="O14" s="106" t="s">
         <v>1175</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>35.890813000000001</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>-106.540854</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>9</v>
-      </c>
-      <c r="S14" t="s">
-        <v>22</v>
       </c>
       <c r="T14" t="s">
         <v>22</v>
       </c>
       <c r="U14" t="s">
+        <v>22</v>
+      </c>
+      <c r="V14" t="s">
         <v>1178</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>1390</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>1422</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>1433</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>1464</v>
       </c>
-      <c r="Z14" s="116" t="s">
+      <c r="AA14" s="116" t="s">
         <v>1500</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>1481</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>1484</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1243</v>
       </c>
@@ -31063,59 +31180,62 @@
       <c r="I15" t="s">
         <v>692</v>
       </c>
-      <c r="J15" s="93" t="s">
+      <c r="J15" t="s">
+        <v>1156</v>
+      </c>
+      <c r="K15" s="93" t="s">
         <v>733</v>
       </c>
-      <c r="K15" s="93" t="s">
+      <c r="L15" s="93" t="s">
         <v>734</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>19</v>
       </c>
-      <c r="N15" s="93" t="s">
+      <c r="O15" s="93" t="s">
         <v>731</v>
       </c>
-      <c r="O15" s="94">
+      <c r="P15" s="94">
         <v>49.667000000000002</v>
       </c>
-      <c r="P15" s="94">
+      <c r="Q15" s="94">
         <v>-93.733000000000004</v>
       </c>
-      <c r="Q15" s="95">
+      <c r="R15" s="95">
         <v>15</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>732</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>22</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>1394</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>1390</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>1422</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>1414</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>1244</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>1500</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>1156</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1243</v>
       </c>
@@ -31143,56 +31263,59 @@
       <c r="I16" t="s">
         <v>693</v>
       </c>
-      <c r="L16" t="s">
+      <c r="J16" t="s">
+        <v>1519</v>
+      </c>
+      <c r="M16" t="s">
         <v>19</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>784</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>783</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>65.150000000000006</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>-147.5</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>3</v>
-      </c>
-      <c r="S16" t="s">
-        <v>22</v>
       </c>
       <c r="T16" t="s">
         <v>22</v>
       </c>
       <c r="U16" t="s">
+        <v>22</v>
+      </c>
+      <c r="V16" t="s">
         <v>782</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>1405</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>1422</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>1415</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>1460</v>
       </c>
-      <c r="Z16" s="116" t="s">
+      <c r="AA16" s="116" t="s">
         <v>1501</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>1156</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>1484</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1243</v>
       </c>
@@ -31221,58 +31344,61 @@
         <v>785</v>
       </c>
       <c r="J17" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K17" t="s">
         <v>24</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>741</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>19</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>742</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>49.616667</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>-114.666667</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>3</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>744</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>22</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>1393</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>1401</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>1422</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>1416</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>1461</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>1502</v>
       </c>
-      <c r="AB17" s="114" t="s">
+      <c r="AC17" s="114" t="s">
         <v>1156</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1243</v>
       </c>
@@ -31298,58 +31424,61 @@
         <v>785</v>
       </c>
       <c r="J18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="K18" t="s">
         <v>1004</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>1002</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>1378</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>35</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>-83</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>2</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>989</v>
-      </c>
-      <c r="S18" t="s">
-        <v>22</v>
       </c>
       <c r="T18" t="s">
         <v>22</v>
       </c>
       <c r="U18" t="s">
+        <v>22</v>
+      </c>
+      <c r="V18" t="s">
         <v>1005</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>1382</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>1422</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>1503</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>1462</v>
       </c>
-      <c r="Z18" s="116" t="s">
+      <c r="AA18" s="116" t="s">
         <v>1504</v>
       </c>
-      <c r="AB18" s="113" t="s">
+      <c r="AC18" s="113" t="s">
         <v>1156</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>1484</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1243</v>
       </c>
@@ -31374,53 +31503,56 @@
       <c r="I19" t="s">
         <v>785</v>
       </c>
-      <c r="M19" t="s">
+      <c r="J19" t="s">
+        <v>1512</v>
+      </c>
+      <c r="N19" t="s">
         <v>985</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>695</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>39.177683000000002</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>-105.26552</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>2</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>984</v>
       </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
         <v>22</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>983</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>1401</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>1422</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>1417</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>1463</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA19" t="s">
         <v>1500</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AC19" t="s">
         <v>1483</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>1484</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1243</v>
       </c>
@@ -31435,32 +31567,35 @@
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
-      <c r="V20" t="s">
+      <c r="J20" t="s">
+        <v>1533</v>
+      </c>
+      <c r="W20" t="s">
         <v>1401</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>1422</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>1445</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>1466</v>
       </c>
-      <c r="Z20" s="116" t="s">
+      <c r="AA20" s="116" t="s">
         <v>1505</v>
       </c>
-      <c r="AA20" s="62" t="s">
+      <c r="AB20" s="62" t="s">
         <v>1467</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AC20" t="s">
         <v>1156</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1243</v>
       </c>
@@ -31489,61 +31624,64 @@
         <v>785</v>
       </c>
       <c r="J21" t="s">
+        <v>1522</v>
+      </c>
+      <c r="K21" t="s">
         <v>24</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>932</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>930</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>931</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>44.512999999999998</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>-109.98</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>4</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>933</v>
-      </c>
-      <c r="S21" t="s">
-        <v>22</v>
       </c>
       <c r="T21" t="s">
         <v>22</v>
       </c>
       <c r="U21" t="s">
+        <v>22</v>
+      </c>
+      <c r="V21" t="s">
         <v>934</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>1382</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>1422</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>1468</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>1469</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AA21" t="s">
         <v>1500</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AC21" t="s">
         <v>1156</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1243</v>
       </c>
@@ -31558,32 +31696,35 @@
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
-      <c r="V22" t="s">
+      <c r="J22" t="s">
+        <v>1523</v>
+      </c>
+      <c r="W22" t="s">
         <v>1381</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>1422</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>1470</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>1471</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
         <v>1506</v>
       </c>
-      <c r="AA22" s="114" t="s">
+      <c r="AB22" s="114" t="s">
         <v>1472</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AC22" t="s">
         <v>1156</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AD22" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1243</v>
       </c>
@@ -31612,50 +31753,53 @@
         <v>785</v>
       </c>
       <c r="J23" t="s">
+        <v>1532</v>
+      </c>
+      <c r="K23" t="s">
         <v>1184</v>
       </c>
-      <c r="K23" s="97"/>
-      <c r="M23">
+      <c r="L23" s="97"/>
+      <c r="N23">
         <v>4</v>
       </c>
-      <c r="N23" s="98" t="s">
+      <c r="O23" s="98" t="s">
         <v>1186</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>44.910800000000002</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>-116.1031</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" t="s">
         <v>22</v>
       </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
         <v>1185</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>1401</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>1422</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>1418</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>1473</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AA23" t="s">
         <v>1507</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AC23" t="s">
         <v>1156</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AD23" t="s">
         <v>1485</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1243</v>
       </c>
@@ -31683,63 +31827,66 @@
       <c r="I24" s="102" t="s">
         <v>785</v>
       </c>
-      <c r="J24" s="93" t="s">
+      <c r="J24" s="117" t="s">
+        <v>1524</v>
+      </c>
+      <c r="K24" s="93" t="s">
         <v>751</v>
       </c>
-      <c r="K24" s="93" t="s">
+      <c r="L24" s="93" t="s">
         <v>752</v>
       </c>
-      <c r="L24" s="93" t="s">
+      <c r="M24" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="M24" s="96"/>
-      <c r="N24" s="93" t="s">
+      <c r="N24" s="96"/>
+      <c r="O24" s="93" t="s">
         <v>753</v>
       </c>
-      <c r="O24" s="94">
+      <c r="P24" s="94">
         <v>48.789253000000002</v>
       </c>
-      <c r="P24" s="94">
+      <c r="Q24" s="94">
         <v>-113.79626500000001</v>
       </c>
-      <c r="Q24" s="95">
+      <c r="R24" s="95">
         <v>4</v>
       </c>
-      <c r="R24" s="95" t="s">
+      <c r="S24" s="95" t="s">
         <v>754</v>
-      </c>
-      <c r="S24" s="96" t="s">
-        <v>22</v>
       </c>
       <c r="T24" s="96" t="s">
         <v>22</v>
       </c>
       <c r="U24" s="96" t="s">
+        <v>22</v>
+      </c>
+      <c r="V24" s="96" t="s">
         <v>1392</v>
       </c>
-      <c r="V24" s="96" t="s">
+      <c r="W24" s="96" t="s">
         <v>1403</v>
       </c>
-      <c r="W24" s="96" t="s">
+      <c r="X24" s="96" t="s">
         <v>1422</v>
       </c>
-      <c r="X24" s="96" t="s">
+      <c r="Y24" s="96" t="s">
         <v>1474</v>
       </c>
-      <c r="Y24" s="96" t="s">
+      <c r="Z24" s="96" t="s">
         <v>1475</v>
       </c>
-      <c r="Z24" s="116" t="s">
+      <c r="AA24" s="116" t="s">
         <v>1508</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AC24" t="s">
         <v>1156</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AD24" t="s">
         <v>1486</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1243</v>
       </c>
@@ -31767,65 +31914,68 @@
       <c r="I25" s="96" t="s">
         <v>693</v>
       </c>
-      <c r="J25" s="93" t="s">
+      <c r="J25" s="96" t="s">
+        <v>1525</v>
+      </c>
+      <c r="K25" s="93" t="s">
         <v>827</v>
       </c>
-      <c r="K25" s="93" t="s">
+      <c r="L25" s="93" t="s">
         <v>828</v>
       </c>
-      <c r="L25" s="93" t="s">
+      <c r="M25" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="M25" s="103" t="s">
+      <c r="N25" s="103" t="s">
         <v>833</v>
       </c>
-      <c r="N25" s="93" t="s">
+      <c r="O25" s="93" t="s">
         <v>829</v>
       </c>
-      <c r="O25" s="94">
+      <c r="P25" s="94">
         <v>40.353888888</v>
       </c>
-      <c r="P25" s="94">
+      <c r="Q25" s="94">
         <v>-105.583611111</v>
       </c>
-      <c r="Q25" s="95">
+      <c r="R25" s="95">
         <v>2</v>
       </c>
-      <c r="R25" s="95" t="s">
+      <c r="S25" s="95" t="s">
         <v>830</v>
-      </c>
-      <c r="S25" s="96" t="s">
-        <v>22</v>
       </c>
       <c r="T25" s="96" t="s">
         <v>22</v>
       </c>
       <c r="U25" s="96" t="s">
+        <v>22</v>
+      </c>
+      <c r="V25" s="96" t="s">
         <v>831</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>1405</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>1422</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>1423</v>
       </c>
-      <c r="Y25" s="96" t="s">
+      <c r="Z25" s="96" t="s">
         <v>1476</v>
       </c>
-      <c r="Z25" s="96" t="s">
+      <c r="AA25" s="96" t="s">
         <v>1500</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AC25" t="s">
         <v>1156</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="AD25" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1243</v>
       </c>
@@ -31853,54 +32003,57 @@
       <c r="I26" t="s">
         <v>785</v>
       </c>
-      <c r="L26" t="s">
+      <c r="J26" s="96" t="s">
+        <v>1526</v>
+      </c>
+      <c r="M26" t="s">
         <v>19</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>708</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>40.033332999999999</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>-105.416667</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>3</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>709</v>
-      </c>
-      <c r="S26" t="s">
-        <v>22</v>
       </c>
       <c r="T26" t="s">
         <v>22</v>
       </c>
       <c r="U26" t="s">
+        <v>22</v>
+      </c>
+      <c r="V26" t="s">
         <v>710</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>1382</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>1422</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>1435</v>
       </c>
-      <c r="Y26" s="96" t="s">
+      <c r="Z26" s="96" t="s">
         <v>1477</v>
       </c>
-      <c r="Z26" s="96"/>
-      <c r="AB26" t="s">
+      <c r="AA26" s="96"/>
+      <c r="AC26" t="s">
         <v>1156</v>
       </c>
-      <c r="AC26" t="s">
+      <c r="AD26" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1243</v>
       </c>
@@ -31922,53 +32075,56 @@
       <c r="G27" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="M27" t="s">
+      <c r="J27" s="96" t="s">
+        <v>1526</v>
+      </c>
+      <c r="N27" t="s">
         <v>849</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>1377</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>40.050263700000002</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>-105.3666599</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>5</v>
-      </c>
-      <c r="S27" t="s">
-        <v>22</v>
       </c>
       <c r="T27" t="s">
         <v>22</v>
       </c>
       <c r="U27" t="s">
+        <v>22</v>
+      </c>
+      <c r="V27" t="s">
         <v>850</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>1401</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>1422</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>1425</v>
       </c>
-      <c r="Y27" s="96" t="s">
+      <c r="Z27" s="96" t="s">
         <v>1477</v>
       </c>
-      <c r="Z27" s="96" t="s">
+      <c r="AA27" s="96" t="s">
         <v>1500</v>
       </c>
-      <c r="AB27" t="s">
+      <c r="AC27" t="s">
         <v>1156</v>
       </c>
-      <c r="AC27" t="s">
+      <c r="AD27" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1243</v>
       </c>
@@ -31996,57 +32152,60 @@
       <c r="I28" t="s">
         <v>785</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="96" t="s">
+        <v>1527</v>
+      </c>
+      <c r="K28" t="s">
         <v>873</v>
       </c>
-      <c r="M28" s="104" t="s">
+      <c r="N28" s="104" t="s">
         <v>874</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>875</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>38.512031</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>-122.097228</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>3</v>
       </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
         <v>876</v>
-      </c>
-      <c r="S28" t="s">
-        <v>22</v>
       </c>
       <c r="T28" t="s">
         <v>22</v>
       </c>
       <c r="U28" t="s">
+        <v>22</v>
+      </c>
+      <c r="V28" t="s">
         <v>872</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>1401</v>
       </c>
-      <c r="W28" t="s">
+      <c r="X28" t="s">
         <v>1422</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>1428</v>
       </c>
-      <c r="Y28" s="96" t="s">
+      <c r="Z28" s="96" t="s">
         <v>1478</v>
       </c>
-      <c r="Z28" s="96"/>
-      <c r="AB28" t="s">
+      <c r="AA28" s="96"/>
+      <c r="AC28" t="s">
         <v>1156</v>
       </c>
-      <c r="AC28" t="s">
+      <c r="AD28" t="s">
         <v>1488</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1243</v>
       </c>
@@ -32059,24 +32218,27 @@
       <c r="D29" t="s">
         <v>1451</v>
       </c>
-      <c r="W29" t="s">
+      <c r="J29" s="96" t="s">
+        <v>1526</v>
+      </c>
+      <c r="X29" t="s">
         <v>1422</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>1452</v>
       </c>
-      <c r="Y29" s="96" t="s">
+      <c r="Z29" s="96" t="s">
         <v>1479</v>
       </c>
-      <c r="Z29" s="96"/>
-      <c r="AB29" t="s">
+      <c r="AA29" s="96"/>
+      <c r="AC29" t="s">
         <v>1156</v>
       </c>
-      <c r="AC29" t="s">
+      <c r="AD29" t="s">
         <v>1489</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" ht="19" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1243</v>
       </c>
@@ -32091,30 +32253,33 @@
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
-      <c r="L30" s="46"/>
-      <c r="V30" t="s">
+      <c r="J30" t="s">
+        <v>1511</v>
+      </c>
+      <c r="M30" s="46"/>
+      <c r="W30" t="s">
         <v>1390</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>1430</v>
       </c>
-      <c r="X30" s="112" t="s">
+      <c r="Y30" s="112" t="s">
         <v>1448</v>
       </c>
-      <c r="Y30" s="96" t="s">
+      <c r="Z30" s="96" t="s">
         <v>1156</v>
       </c>
-      <c r="Z30" s="96" t="s">
+      <c r="AA30" s="96" t="s">
         <v>1493</v>
       </c>
-      <c r="AB30" t="s">
+      <c r="AC30" t="s">
         <v>1156</v>
       </c>
-      <c r="AC30" t="s">
+      <c r="AD30" t="s">
         <v>1490</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1243</v>
       </c>
@@ -32142,62 +32307,65 @@
       <c r="I31" t="s">
         <v>785</v>
       </c>
-      <c r="J31" s="108" t="s">
+      <c r="J31" t="s">
+        <v>1513</v>
+      </c>
+      <c r="K31" s="108" t="s">
         <v>770</v>
       </c>
-      <c r="K31" s="108" t="s">
+      <c r="L31" s="108" t="s">
         <v>771</v>
       </c>
-      <c r="L31" s="108" t="s">
+      <c r="M31" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>1</v>
       </c>
-      <c r="N31" s="108" t="s">
+      <c r="O31" s="108" t="s">
         <v>767</v>
       </c>
-      <c r="O31" s="109">
+      <c r="P31" s="109">
         <v>40.7159999</v>
       </c>
-      <c r="P31" s="109">
+      <c r="Q31" s="109">
         <v>-105.23308400000001</v>
       </c>
-      <c r="Q31" s="110">
+      <c r="R31" s="110">
         <v>0.5</v>
       </c>
-      <c r="R31" s="110" t="s">
+      <c r="S31" s="110" t="s">
         <v>768</v>
       </c>
-      <c r="S31" t="s">
+      <c r="T31" t="s">
         <v>22</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>769</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>1382</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>1430</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>1442</v>
       </c>
-      <c r="Y31" s="96" t="s">
+      <c r="Z31" s="96" t="s">
         <v>1156</v>
       </c>
-      <c r="Z31" s="96" t="s">
+      <c r="AA31" s="96" t="s">
         <v>1493</v>
       </c>
-      <c r="AB31" t="s">
+      <c r="AC31" t="s">
         <v>1156</v>
       </c>
-      <c r="AC31" t="s">
+      <c r="AD31" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1243</v>
       </c>
@@ -32222,63 +32390,66 @@
       <c r="I32" t="s">
         <v>785</v>
       </c>
-      <c r="J32" s="96" t="s">
+      <c r="J32" t="s">
+        <v>1511</v>
+      </c>
+      <c r="K32" s="96" t="s">
         <v>770</v>
       </c>
-      <c r="K32" s="96" t="s">
+      <c r="L32" s="96" t="s">
         <v>771</v>
       </c>
-      <c r="L32" s="96" t="s">
+      <c r="M32" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="M32" s="96"/>
-      <c r="N32" s="96" t="s">
+      <c r="N32" s="96"/>
+      <c r="O32" s="96" t="s">
         <v>767</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>40.702464999999997</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>-105.241646</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>1</v>
       </c>
-      <c r="R32" t="s">
+      <c r="S32" t="s">
         <v>790</v>
-      </c>
-      <c r="S32" t="s">
-        <v>22</v>
       </c>
       <c r="T32" t="s">
         <v>22</v>
       </c>
       <c r="U32" t="s">
+        <v>22</v>
+      </c>
+      <c r="V32" t="s">
         <v>791</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>1401</v>
       </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>1430</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>1429</v>
       </c>
-      <c r="Y32" s="96" t="s">
+      <c r="Z32" s="96" t="s">
         <v>1156</v>
       </c>
-      <c r="Z32" s="96" t="s">
+      <c r="AA32" s="96" t="s">
         <v>1493</v>
       </c>
-      <c r="AB32" t="s">
+      <c r="AC32" t="s">
         <v>1156</v>
       </c>
-      <c r="AC32" t="s">
+      <c r="AD32" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1243</v>
       </c>
@@ -32293,31 +32464,34 @@
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
-      <c r="K33" s="97"/>
-      <c r="N33" s="98"/>
-      <c r="V33" t="s">
+      <c r="J33" t="s">
+        <v>1512</v>
+      </c>
+      <c r="L33" s="97"/>
+      <c r="O33" s="98"/>
+      <c r="W33" t="s">
         <v>1385</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X33" t="s">
         <v>1436</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>1446</v>
       </c>
-      <c r="Y33" s="96" t="s">
+      <c r="Z33" s="96" t="s">
         <v>1156</v>
       </c>
-      <c r="Z33" s="96" t="s">
+      <c r="AA33" s="96" t="s">
         <v>1494</v>
       </c>
-      <c r="AB33" t="s">
+      <c r="AC33" t="s">
         <v>1156</v>
       </c>
-      <c r="AC33" t="s">
+      <c r="AD33" t="s">
         <v>1491</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1243</v>
       </c>
@@ -32346,57 +32520,60 @@
         <v>785</v>
       </c>
       <c r="J34" t="s">
+        <v>1528</v>
+      </c>
+      <c r="K34" t="s">
         <v>24</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>1094</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>1092</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>1093</v>
       </c>
-      <c r="N34" t="s">
+      <c r="O34" t="s">
         <v>1096</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>40.262369999999997</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>-105.59080400000001</v>
       </c>
-      <c r="Q34" s="100">
+      <c r="R34" s="100">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>1095</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>1382</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X34" t="s">
         <v>1436</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>1437</v>
       </c>
-      <c r="Y34" s="96" t="s">
+      <c r="Z34" s="96" t="s">
         <v>1156</v>
       </c>
-      <c r="Z34" s="96" t="s">
+      <c r="AA34" s="96" t="s">
         <v>1494</v>
       </c>
-      <c r="AB34" t="s">
+      <c r="AC34" t="s">
         <v>1156</v>
       </c>
-      <c r="AC34" t="s">
+      <c r="AD34" t="s">
         <v>1491</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X34">
-    <sortCondition ref="W2:W34"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y34">
+    <sortCondition ref="X2:X34"/>
   </sortState>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G7 G19:G25" xr:uid="{8B21EFF3-D61C-024F-A87C-4FC0F83918E4}">

--- a/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
+++ b/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-meta/FireMeta_Rproj/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00337E84-FDA5-7E42-8B09-37769283A9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDDFB94-116C-914B-92E9-B631C3D77709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="23500" activeTab="4" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
+    <workbookView xWindow="30240" yWindow="0" windowWidth="38400" windowHeight="24000" activeTab="5" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
   </bookViews>
   <sheets>
     <sheet name="Study_info" sheetId="2" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="Study_info_filtered_V1" sheetId="8" r:id="rId3"/>
     <sheet name="Study_info_filtered_V2" sheetId="9" r:id="rId4"/>
     <sheet name="Study_info_filtered_V3_Q" sheetId="10" r:id="rId5"/>
-    <sheet name="Original_meta_analysis" sheetId="4" r:id="rId6"/>
-    <sheet name="Exclusion" sheetId="3" r:id="rId7"/>
+    <sheet name="Hampton_cross_reference" sheetId="11" r:id="rId6"/>
+    <sheet name="Original_meta_analysis" sheetId="4" r:id="rId7"/>
+    <sheet name="Exclusion" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6512" uniqueCount="1534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6638" uniqueCount="1597">
   <si>
     <t>Study</t>
   </si>
@@ -4787,6 +4788,195 @@
   </si>
   <si>
     <t>Gaviota Fire (2004)</t>
+  </si>
+  <si>
+    <t>My_Search</t>
+  </si>
+  <si>
+    <t>Hampton_Search</t>
+  </si>
+  <si>
+    <t>Rhoades et al. - 2019</t>
+  </si>
+  <si>
+    <t>Hohner et al. - 2016</t>
+  </si>
+  <si>
+    <t>Mast et al. - 2016</t>
+  </si>
+  <si>
+    <t>Klose et al. - 2015</t>
+  </si>
+  <si>
+    <t>Murphy et al. - 2015</t>
+  </si>
+  <si>
+    <t>Writer et al. - 2014</t>
+  </si>
+  <si>
+    <t>Silins</t>
+  </si>
+  <si>
+    <t>Coombs and Melack - 2013</t>
+  </si>
+  <si>
+    <t>Corbin - 2012</t>
+  </si>
+  <si>
+    <t>Oliver et al. - 2012</t>
+  </si>
+  <si>
+    <t>Fernandez et al. - 2011</t>
+  </si>
+  <si>
+    <t>Loupe et al. - 2009</t>
+  </si>
+  <si>
+    <t>Bladon et al. - 2008</t>
+  </si>
+  <si>
+    <t>Mast and Clow - 2008</t>
+  </si>
+  <si>
+    <t>Wilkinson et al. - 2007</t>
+  </si>
+  <si>
+    <t>Crouch - 2006</t>
+  </si>
+  <si>
+    <t>Stephens et al. - 2004</t>
+  </si>
+  <si>
+    <t>Townsend and Douglas - 2004</t>
+  </si>
+  <si>
+    <t>Earl and Blinn - 2003</t>
+  </si>
+  <si>
+    <t>Prepas et al. - 2003</t>
+  </si>
+  <si>
+    <t>Thomas et al. - 2000</t>
+  </si>
+  <si>
+    <t>Townsend and Douglas - 2000</t>
+  </si>
+  <si>
+    <t>Gerla and Galloway - 1998</t>
+  </si>
+  <si>
+    <t>Hauer and Spencer - 1998</t>
+  </si>
+  <si>
+    <t>Williams and Melack - 1997</t>
+  </si>
+  <si>
+    <t>Bayley et al. - 1992</t>
+  </si>
+  <si>
+    <t>Britton et al. - 1991</t>
+  </si>
+  <si>
+    <t>Davis - 1989</t>
+  </si>
+  <si>
+    <t>Gluns and Toews - 1989</t>
+  </si>
+  <si>
+    <t>MacKay and Robinson - 1987</t>
+  </si>
+  <si>
+    <t>Chessman - 1986</t>
+  </si>
+  <si>
+    <t>Neary and Currier - 1982</t>
+  </si>
+  <si>
+    <t>Wright et al. - 1976</t>
+  </si>
+  <si>
+    <t>Tiedemann et al. - 1973</t>
+  </si>
+  <si>
+    <t>Lotspeich et al. - 1970</t>
+  </si>
+  <si>
+    <t>Match</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 total match </t>
+  </si>
+  <si>
+    <t>23 from Hampton that I could look to add</t>
+  </si>
+  <si>
+    <t>Notes why to not include a Hampton paper</t>
+  </si>
+  <si>
+    <t>In South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Australia </t>
+  </si>
+  <si>
+    <t>Oxidized NO3 - Ask AMP</t>
+  </si>
+  <si>
+    <t>No NO3 or DOC</t>
+  </si>
+  <si>
+    <t>Same paper as row 8</t>
+  </si>
+  <si>
+    <t>Prescribed fire</t>
+  </si>
+  <si>
+    <t>Tossed in V2 filtering Leaning towards tossing due to multiple fire events and not a lot of available data</t>
+  </si>
+  <si>
+    <t>In Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logging/prescribed burn </t>
+  </si>
+  <si>
+    <t>logging and burn</t>
+  </si>
+  <si>
+    <t>In Portugal</t>
+  </si>
+  <si>
+    <t>Want to add, Hampton has NO3 data but I cant find the actually paper. I am putting a request in with the research library</t>
+  </si>
+  <si>
+    <t>Look to add/Need to get access. Has NO3 data, Don’t take Jumping Branch data because its burned and fertilized</t>
+  </si>
+  <si>
+    <t>Tiedemann 1973</t>
+  </si>
+  <si>
+    <t>Stream chemistry following a forest fire and urea fertilization in north-central Washington</t>
+  </si>
+  <si>
+    <t>Safety Harbor Fire (1970)</t>
+  </si>
+  <si>
+    <t>Ponderosa pine, bitterbrush, bluebunch wheatgrass, cheatgrass, arrowleaf balsamroot, Douglas fir, Pinegrass, Ross sedge, alder, willow, subalpine fir, whitebark pine</t>
+  </si>
+  <si>
+    <t>Safety Harbor fire in Washington</t>
+  </si>
+  <si>
+    <t>Bi-monthly seasonal</t>
+  </si>
+  <si>
+    <t>Figure 1 has time series of NO3 data</t>
+  </si>
+  <si>
+    <t>References another paper for Q. Look at that? (Klock's et al. 1971)</t>
+  </si>
+  <si>
+    <t>Added, but doesn’t have Q data</t>
   </si>
 </sst>
 </file>
@@ -5020,7 +5210,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5081,6 +5271,12 @@
         <bgColor rgb="FFC5E0B3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -5095,7 +5291,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -5255,7 +5451,17 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -25068,7 +25274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90229B5-CF41-C440-BFCC-1DBDEC7AB338}">
   <dimension ref="A1:AQ49"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
@@ -27692,9 +27898,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1AC9E00-AE6F-C745-827A-7F2C45C3ED66}">
   <dimension ref="A1:AA42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="Q1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V15" sqref="V15"/>
+      <selection pane="bottomLeft" activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30104,11 +30310,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E83DAFB-3D69-1A4C-8997-3EF8B4236F27}">
-  <dimension ref="A1:AD34"/>
+  <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
+      <selection pane="bottomLeft" activeCell="AC35" sqref="AC35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31827,7 +32033,7 @@
       <c r="I24" s="102" t="s">
         <v>785</v>
       </c>
-      <c r="J24" s="117" t="s">
+      <c r="J24" t="s">
         <v>1524</v>
       </c>
       <c r="K24" s="93" t="s">
@@ -32569,6 +32775,62 @@
       </c>
       <c r="AD34" t="s">
         <v>1491</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B35" s="125" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C35">
+        <v>1973</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1589</v>
+      </c>
+      <c r="J35" t="s">
+        <v>1590</v>
+      </c>
+      <c r="K35" t="s">
+        <v>24</v>
+      </c>
+      <c r="L35" t="s">
+        <v>1591</v>
+      </c>
+      <c r="M35" t="s">
+        <v>19</v>
+      </c>
+      <c r="N35" t="s">
+        <v>883</v>
+      </c>
+      <c r="O35" t="s">
+        <v>1592</v>
+      </c>
+      <c r="P35" s="126">
+        <v>48.102674999999998</v>
+      </c>
+      <c r="Q35" s="126">
+        <v>-120.35232000000001</v>
+      </c>
+      <c r="R35">
+        <v>2</v>
+      </c>
+      <c r="S35" t="s">
+        <v>1593</v>
+      </c>
+      <c r="U35" t="s">
+        <v>22</v>
+      </c>
+      <c r="V35" t="s">
+        <v>1594</v>
+      </c>
+      <c r="W35" t="s">
+        <v>1401</v>
+      </c>
+      <c r="X35" t="s">
+        <v>1426</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>1595</v>
       </c>
     </row>
   </sheetData>
@@ -32592,6 +32854,440 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C183780A-8505-B94B-8F3A-3F461C5D9C3A}">
+  <dimension ref="A1:D37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.1640625" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="4" max="4" width="35.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B1" s="105" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D1" s="105" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>935</v>
+      </c>
+      <c r="B2" s="118" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D2" s="117" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B3" s="118" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D3" s="119" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="69" t="s">
+        <v>681</v>
+      </c>
+      <c r="B4" s="122" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D4" s="120" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>681</v>
+      </c>
+      <c r="B5" s="122" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D5" s="120" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B6" s="118" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D6" s="120" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="29" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B7" s="123" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D7" s="120" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>835</v>
+      </c>
+      <c r="B8" s="122" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D8" s="120" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B9" s="122" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D9" s="120" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>982</v>
+      </c>
+      <c r="B10" s="122" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D10" s="121" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="29" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B11" s="122" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D11" s="121" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="29" t="s">
+        <v>928</v>
+      </c>
+      <c r="B12" s="122" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D12" s="120" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>670</v>
+      </c>
+      <c r="B13" s="118" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D13" s="120" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>909</v>
+      </c>
+      <c r="B14" s="124" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D14" s="120" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="96" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B15" s="118" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D15" s="120" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="29" t="s">
+        <v>727</v>
+      </c>
+      <c r="B16" s="118" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B17" s="118" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="29" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B18" s="122" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C18" t="s">
+        <v>700</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>720</v>
+      </c>
+      <c r="B19" s="122" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="29" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B20" s="122" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="53" t="s">
+        <v>750</v>
+      </c>
+      <c r="B21" s="118" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="53" t="s">
+        <v>826</v>
+      </c>
+      <c r="B22" s="118" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="29" t="s">
+        <v>711</v>
+      </c>
+      <c r="B23" s="118" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>848</v>
+      </c>
+      <c r="B24" s="124" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="29" t="s">
+        <v>881</v>
+      </c>
+      <c r="B25" s="118" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B26" s="122" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>689</v>
+      </c>
+      <c r="B27" s="118" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="29" t="s">
+        <v>762</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>924</v>
+      </c>
+      <c r="B29" s="122" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>948</v>
+      </c>
+      <c r="B30" s="122" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>871</v>
+      </c>
+      <c r="B31" s="127" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>765</v>
+      </c>
+      <c r="B32" s="122" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B33" s="122" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="29" t="s">
+        <v>789</v>
+      </c>
+      <c r="B34" s="122" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B35" s="122" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B36" s="122" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B37" s="118" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B38">
+    <sortCondition ref="B1:B38"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6601E5-1AF6-2742-B70F-8EB10EC414EE}">
   <dimension ref="A1:H32"/>
   <sheetViews>
@@ -33077,7 +33773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4EDC603-3282-6340-BD81-0DFA981250B6}">
   <dimension ref="B2:D8"/>
   <sheetViews>

--- a/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
+++ b/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-meta/FireMeta_Rproj/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDDFB94-116C-914B-92E9-B631C3D77709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C522339-8F7F-D546-BDA0-5C0807CC2E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="0" windowWidth="38400" windowHeight="24000" activeTab="5" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
+    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="23500" activeTab="4" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
   </bookViews>
   <sheets>
     <sheet name="Study_info" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6638" uniqueCount="1597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6650" uniqueCount="1606">
   <si>
     <t>Study</t>
   </si>
@@ -4977,6 +4977,33 @@
   </si>
   <si>
     <t>Added, but doesn’t have Q data</t>
+  </si>
+  <si>
+    <t>Gluns &amp; Toews, 1989</t>
+  </si>
+  <si>
+    <t>Effect of a major wildfire on water quality in southeastern British Columbia</t>
+  </si>
+  <si>
+    <t>Temperate coniferous forest</t>
+  </si>
+  <si>
+    <t>Western larch, Douglas fir, Engelman spruce, subalpine fir</t>
+  </si>
+  <si>
+    <t>Kimberley, BC, Canada</t>
+  </si>
+  <si>
+    <t>0 to 3</t>
+  </si>
+  <si>
+    <t>Figure 2 has a time series of Q for Mather Creek. L/s/km^2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Figure 3 has nitrate-N for East fork (burned) middle fork (burned) and West Fork (unburned). Hampton has already extracted this data and Ill be using that </t>
+  </si>
+  <si>
+    <t>Matt fire, 1985</t>
   </si>
 </sst>
 </file>
@@ -5291,7 +5318,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -5451,17 +5478,14 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -30310,11 +30334,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E83DAFB-3D69-1A4C-8997-3EF8B4236F27}">
-  <dimension ref="A1:AD35"/>
+  <dimension ref="A1:AD36"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC35" sqref="AC35"/>
+      <selection pane="bottomLeft" activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32778,7 +32802,10 @@
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B35" s="125" t="s">
+      <c r="A35" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B35" s="93" t="s">
         <v>1588</v>
       </c>
       <c r="C35">
@@ -32805,10 +32832,10 @@
       <c r="O35" t="s">
         <v>1592</v>
       </c>
-      <c r="P35" s="126">
+      <c r="P35" s="122">
         <v>48.102674999999998</v>
       </c>
-      <c r="Q35" s="126">
+      <c r="Q35" s="122">
         <v>-120.35232000000001</v>
       </c>
       <c r="R35">
@@ -32831,6 +32858,53 @@
       </c>
       <c r="Y35" t="s">
         <v>1595</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C36">
+        <v>1989</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1598</v>
+      </c>
+      <c r="J36" t="s">
+        <v>1605</v>
+      </c>
+      <c r="K36" t="s">
+        <v>1599</v>
+      </c>
+      <c r="L36" t="s">
+        <v>1600</v>
+      </c>
+      <c r="N36" t="s">
+        <v>1602</v>
+      </c>
+      <c r="O36" t="s">
+        <v>1601</v>
+      </c>
+      <c r="P36" s="124">
+        <v>49.704340000000002</v>
+      </c>
+      <c r="Q36" s="124">
+        <v>-116.118877</v>
+      </c>
+      <c r="R36">
+        <v>3</v>
+      </c>
+      <c r="U36" t="s">
+        <v>22</v>
+      </c>
+      <c r="V36" t="s">
+        <v>1604</v>
+      </c>
+      <c r="X36" t="s">
+        <v>1422</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>1603</v>
       </c>
     </row>
   </sheetData>
@@ -32857,7 +32931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C183780A-8505-B94B-8F3A-3F461C5D9C3A}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -32901,7 +32975,7 @@
       <c r="B3" s="118" t="s">
         <v>1548</v>
       </c>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="60" t="s">
         <v>681</v>
       </c>
     </row>
@@ -32909,13 +32983,13 @@
       <c r="A4" s="69" t="s">
         <v>681</v>
       </c>
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="119" t="s">
         <v>1562</v>
       </c>
       <c r="C4" t="s">
         <v>1575</v>
       </c>
-      <c r="D4" s="120" t="s">
+      <c r="D4" t="s">
         <v>1413</v>
       </c>
     </row>
@@ -32923,13 +32997,13 @@
       <c r="A5" t="s">
         <v>681</v>
       </c>
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="119" t="s">
         <v>1566</v>
       </c>
       <c r="C5" t="s">
         <v>1576</v>
       </c>
-      <c r="D5" s="120" t="s">
+      <c r="D5" t="s">
         <v>1443</v>
       </c>
     </row>
@@ -32940,7 +33014,7 @@
       <c r="B6" s="118" t="s">
         <v>1543</v>
       </c>
-      <c r="D6" s="120" t="s">
+      <c r="D6" t="s">
         <v>928</v>
       </c>
     </row>
@@ -32948,13 +33022,13 @@
       <c r="A7" s="29" t="s">
         <v>1413</v>
       </c>
-      <c r="B7" s="123" t="s">
+      <c r="B7" s="120" t="s">
         <v>1544</v>
       </c>
       <c r="C7" t="s">
         <v>1577</v>
       </c>
-      <c r="D7" s="120" t="s">
+      <c r="D7" t="s">
         <v>727</v>
       </c>
     </row>
@@ -32962,13 +33036,13 @@
       <c r="A8" t="s">
         <v>835</v>
       </c>
-      <c r="B8" s="122" t="s">
+      <c r="B8" s="119" t="s">
         <v>1551</v>
       </c>
       <c r="C8" t="s">
         <v>1578</v>
       </c>
-      <c r="D8" s="120" t="s">
+      <c r="D8" t="s">
         <v>1231</v>
       </c>
     </row>
@@ -32976,13 +33050,13 @@
       <c r="A9" t="s">
         <v>1001</v>
       </c>
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="119" t="s">
         <v>1551</v>
       </c>
       <c r="C9" t="s">
         <v>1579</v>
       </c>
-      <c r="D9" s="120" t="s">
+      <c r="D9" t="s">
         <v>1233</v>
       </c>
     </row>
@@ -32990,13 +33064,13 @@
       <c r="A10" t="s">
         <v>982</v>
       </c>
-      <c r="B10" s="122" t="s">
+      <c r="B10" s="119" t="s">
         <v>1563</v>
       </c>
       <c r="C10" t="s">
         <v>1580</v>
       </c>
-      <c r="D10" s="121" t="s">
+      <c r="D10" s="96" t="s">
         <v>750</v>
       </c>
     </row>
@@ -33004,13 +33078,13 @@
       <c r="A11" s="29" t="s">
         <v>1443</v>
       </c>
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="119" t="s">
         <v>1554</v>
       </c>
       <c r="C11" t="s">
         <v>1581</v>
       </c>
-      <c r="D11" s="121" t="s">
+      <c r="D11" s="96" t="s">
         <v>826</v>
       </c>
     </row>
@@ -33018,13 +33092,13 @@
       <c r="A12" s="29" t="s">
         <v>928</v>
       </c>
-      <c r="B12" s="122" t="s">
+      <c r="B12" s="119" t="s">
         <v>1546</v>
       </c>
       <c r="C12" t="s">
         <v>1582</v>
       </c>
-      <c r="D12" s="120" t="s">
+      <c r="D12" t="s">
         <v>711</v>
       </c>
     </row>
@@ -33035,7 +33109,7 @@
       <c r="B13" s="118" t="s">
         <v>1558</v>
       </c>
-      <c r="D13" s="120" t="s">
+      <c r="D13" t="s">
         <v>881</v>
       </c>
     </row>
@@ -33043,13 +33117,13 @@
       <c r="A14" t="s">
         <v>909</v>
       </c>
-      <c r="B14" s="124" t="s">
+      <c r="B14" s="121" t="s">
         <v>1564</v>
       </c>
       <c r="C14" t="s">
         <v>1586</v>
       </c>
-      <c r="D14" s="120" t="s">
+      <c r="D14" t="s">
         <v>762</v>
       </c>
     </row>
@@ -33060,7 +33134,7 @@
       <c r="B15" s="118" t="s">
         <v>1559</v>
       </c>
-      <c r="D15" s="120" t="s">
+      <c r="D15" t="s">
         <v>789</v>
       </c>
     </row>
@@ -33087,7 +33161,7 @@
       <c r="A18" s="29" t="s">
         <v>1231</v>
       </c>
-      <c r="B18" s="122" t="s">
+      <c r="B18" s="119" t="s">
         <v>1570</v>
       </c>
       <c r="C18" t="s">
@@ -33101,7 +33175,7 @@
       <c r="A19" t="s">
         <v>720</v>
       </c>
-      <c r="B19" s="122" t="s">
+      <c r="B19" s="119" t="s">
         <v>1547</v>
       </c>
       <c r="C19" t="s">
@@ -33112,7 +33186,7 @@
       <c r="A20" s="29" t="s">
         <v>1233</v>
       </c>
-      <c r="B20" s="122" t="s">
+      <c r="B20" s="119" t="s">
         <v>1565</v>
       </c>
       <c r="C20" t="s">
@@ -33147,7 +33221,7 @@
       <c r="A24" t="s">
         <v>848</v>
       </c>
-      <c r="B24" s="124" t="s">
+      <c r="B24" s="121" t="s">
         <v>1567</v>
       </c>
       <c r="C24" t="s">
@@ -33166,7 +33240,7 @@
       <c r="A26" t="s">
         <v>1091</v>
       </c>
-      <c r="B26" s="122" t="s">
+      <c r="B26" s="119" t="s">
         <v>1555</v>
       </c>
       <c r="C26" t="s">
@@ -33196,7 +33270,7 @@
       <c r="A29" t="s">
         <v>924</v>
       </c>
-      <c r="B29" s="122" t="s">
+      <c r="B29" s="119" t="s">
         <v>1552</v>
       </c>
       <c r="C29" t="s">
@@ -33207,7 +33281,7 @@
       <c r="A30" t="s">
         <v>948</v>
       </c>
-      <c r="B30" s="122" t="s">
+      <c r="B30" s="119" t="s">
         <v>1556</v>
       </c>
       <c r="C30" t="s">
@@ -33218,7 +33292,7 @@
       <c r="A31" t="s">
         <v>871</v>
       </c>
-      <c r="B31" s="127" t="s">
+      <c r="B31" s="123" t="s">
         <v>1569</v>
       </c>
       <c r="C31" t="s">
@@ -33229,7 +33303,7 @@
       <c r="A32" t="s">
         <v>765</v>
       </c>
-      <c r="B32" s="122" t="s">
+      <c r="B32" s="119" t="s">
         <v>1557</v>
       </c>
       <c r="C32" t="s">
@@ -33240,7 +33314,7 @@
       <c r="A33" t="s">
         <v>1232</v>
       </c>
-      <c r="B33" s="122" t="s">
+      <c r="B33" s="119" t="s">
         <v>1553</v>
       </c>
       <c r="C33" t="s">
@@ -33251,7 +33325,7 @@
       <c r="A34" s="29" t="s">
         <v>789</v>
       </c>
-      <c r="B34" s="122" t="s">
+      <c r="B34" s="119" t="s">
         <v>1550</v>
       </c>
       <c r="C34" t="s">
@@ -33259,7 +33333,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B35" s="122" t="s">
+      <c r="B35" s="119" t="s">
         <v>1560</v>
       </c>
       <c r="C35" t="s">
@@ -33267,7 +33341,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B36" s="122" t="s">
+      <c r="B36" s="119" t="s">
         <v>1568</v>
       </c>
       <c r="C36" t="s">

--- a/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
+++ b/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-meta/FireMeta_Rproj/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C522339-8F7F-D546-BDA0-5C0807CC2E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EC251F-1D0D-F849-8896-1761897F70E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="23500" activeTab="4" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
+    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="23500" activeTab="5" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
   </bookViews>
   <sheets>
     <sheet name="Study_info" sheetId="2" r:id="rId1"/>
@@ -4946,9 +4946,6 @@
     <t>In Portugal</t>
   </si>
   <si>
-    <t>Want to add, Hampton has NO3 data but I cant find the actually paper. I am putting a request in with the research library</t>
-  </si>
-  <si>
     <t>Look to add/Need to get access. Has NO3 data, Don’t take Jumping Branch data because its burned and fertilized</t>
   </si>
   <si>
@@ -5004,6 +5001,9 @@
   </si>
   <si>
     <t>Matt fire, 1985</t>
+  </si>
+  <si>
+    <t>added</t>
   </si>
 </sst>
 </file>
@@ -5318,7 +5318,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -5485,7 +5485,6 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -30336,7 +30335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E83DAFB-3D69-1A4C-8997-3EF8B4236F27}">
   <dimension ref="A1:AD36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J37" sqref="J37"/>
     </sheetView>
@@ -32806,22 +32805,22 @@
         <v>1243</v>
       </c>
       <c r="B35" s="93" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="C35">
         <v>1973</v>
       </c>
       <c r="D35" t="s">
+        <v>1588</v>
+      </c>
+      <c r="J35" t="s">
         <v>1589</v>
-      </c>
-      <c r="J35" t="s">
-        <v>1590</v>
       </c>
       <c r="K35" t="s">
         <v>24</v>
       </c>
       <c r="L35" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="M35" t="s">
         <v>19</v>
@@ -32830,7 +32829,7 @@
         <v>883</v>
       </c>
       <c r="O35" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="P35" s="122">
         <v>48.102674999999998</v>
@@ -32842,13 +32841,13 @@
         <v>2</v>
       </c>
       <c r="S35" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="U35" t="s">
         <v>22</v>
       </c>
       <c r="V35" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="W35" t="s">
         <v>1401</v>
@@ -32857,38 +32856,38 @@
         <v>1426</v>
       </c>
       <c r="Y35" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="C36">
         <v>1989</v>
       </c>
       <c r="D36" t="s">
+        <v>1597</v>
+      </c>
+      <c r="J36" t="s">
+        <v>1604</v>
+      </c>
+      <c r="K36" t="s">
         <v>1598</v>
       </c>
-      <c r="J36" t="s">
-        <v>1605</v>
-      </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>1599</v>
       </c>
-      <c r="L36" t="s">
+      <c r="N36" t="s">
+        <v>1601</v>
+      </c>
+      <c r="O36" t="s">
         <v>1600</v>
       </c>
-      <c r="N36" t="s">
-        <v>1602</v>
-      </c>
-      <c r="O36" t="s">
-        <v>1601</v>
-      </c>
-      <c r="P36" s="124">
+      <c r="P36" s="94">
         <v>49.704340000000002</v>
       </c>
-      <c r="Q36" s="124">
+      <c r="Q36" s="94">
         <v>-116.118877</v>
       </c>
       <c r="R36">
@@ -32898,13 +32897,13 @@
         <v>22</v>
       </c>
       <c r="V36" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="X36" t="s">
         <v>1422</v>
       </c>
       <c r="Y36" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
   </sheetData>
@@ -32931,7 +32930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C183780A-8505-B94B-8F3A-3F461C5D9C3A}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -33117,11 +33116,11 @@
       <c r="A14" t="s">
         <v>909</v>
       </c>
-      <c r="B14" s="121" t="s">
+      <c r="B14" s="123" t="s">
         <v>1564</v>
       </c>
       <c r="C14" t="s">
-        <v>1586</v>
+        <v>1605</v>
       </c>
       <c r="D14" t="s">
         <v>762</v>
@@ -33225,7 +33224,7 @@
         <v>1567</v>
       </c>
       <c r="C24" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -33296,7 +33295,7 @@
         <v>1569</v>
       </c>
       <c r="C31" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">

--- a/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
+++ b/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-meta/FireMeta_Rproj/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EC251F-1D0D-F849-8896-1761897F70E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDA4D67-DD13-9F4B-9010-2DAF2910B7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="23500" activeTab="5" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
+    <workbookView xWindow="30240" yWindow="0" windowWidth="38400" windowHeight="24000" activeTab="4" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
   </bookViews>
   <sheets>
     <sheet name="Study_info" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6650" uniqueCount="1606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6680" uniqueCount="1622">
   <si>
     <t>Study</t>
   </si>
@@ -4554,9 +4554,6 @@
     <t>Upon_request</t>
   </si>
   <si>
-    <t>They have a bunch of seasonal concentrations (rising limb/falling limb/base flow/baseflow and spring snowmelt/post-rainstorm). This is from the Cache la Poudre so I think it is the same sites as other studies that study the same area (PSF, PNF, water intake, etc....?)</t>
-  </si>
-  <si>
     <t>Q_df_in_git</t>
   </si>
   <si>
@@ -5004,6 +5001,57 @@
   </si>
   <si>
     <t>added</t>
+  </si>
+  <si>
+    <t>Neary &amp; Currier, 1982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impact of Wildfire and Watershed Restoration on Water Quality in South Carolina's Blue Ridge Mountains </t>
+  </si>
+  <si>
+    <t>Jumping Branch Wildfire</t>
+  </si>
+  <si>
+    <t>Appalachian Moutains</t>
+  </si>
+  <si>
+    <t>Pine and oak associations</t>
+  </si>
+  <si>
+    <t>Blue Ridge Mountains, South Carolina USA</t>
+  </si>
+  <si>
+    <t>Figure 3 has nitrate-N for Crane Creek (Control), Wash Branch (burned)</t>
+  </si>
+  <si>
+    <t>Yes!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They mention in the text that they generate a monthly Q record for each study watershed using Coweeta LTER . </t>
+  </si>
+  <si>
+    <t>Watershed_Area</t>
+  </si>
+  <si>
+    <t>N_doesnt_report</t>
+  </si>
+  <si>
+    <t>Y_mean_of_burn_reference</t>
+  </si>
+  <si>
+    <t>N_Cache_la_Poudre</t>
+  </si>
+  <si>
+    <t>N_gave_a_range</t>
+  </si>
+  <si>
+    <t>N_mean</t>
+  </si>
+  <si>
+    <t>Y_mean</t>
+  </si>
+  <si>
+    <t>N_Fourmile_Creek</t>
   </si>
 </sst>
 </file>
@@ -30333,2591 +30381,2689 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E83DAFB-3D69-1A4C-8997-3EF8B4236F27}">
-  <dimension ref="A1:AD36"/>
+  <dimension ref="A1:AE36"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD37" sqref="AD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" customWidth="1"/>
     <col min="5" max="9" width="10.83203125" hidden="1" customWidth="1"/>
     <col min="10" max="22" width="10.83203125" customWidth="1"/>
     <col min="23" max="23" width="9.6640625" customWidth="1"/>
     <col min="24" max="24" width="37.1640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.5" customWidth="1"/>
+    <col min="31" max="31" width="4" customWidth="1"/>
+    <col min="32" max="32" width="4.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="74" t="s">
+        <v>1380</v>
+      </c>
+      <c r="W1" s="105" t="s">
+        <v>1421</v>
+      </c>
+      <c r="X1" s="105" t="s">
+        <v>1420</v>
+      </c>
+      <c r="Y1" s="105" t="s">
+        <v>1456</v>
+      </c>
+      <c r="Z1" s="105" t="s">
+        <v>1491</v>
+      </c>
+      <c r="AA1" s="105" t="s">
+        <v>1464</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>1486</v>
+      </c>
+      <c r="AD1" s="105" t="s">
+        <v>1614</v>
+      </c>
+      <c r="AE1" s="6" t="s">
         <v>1379</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>935</v>
+      </c>
+      <c r="B2">
+        <v>2021</v>
+      </c>
+      <c r="C2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>936</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>785</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1516</v>
+      </c>
+      <c r="M2" t="s">
+        <v>937</v>
+      </c>
+      <c r="N2" t="s">
+        <v>938</v>
+      </c>
+      <c r="O2">
+        <v>69.166667000000004</v>
+      </c>
+      <c r="P2">
+        <v>-150.75</v>
+      </c>
+      <c r="Q2">
         <v>2</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1509</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="W1" s="74" t="s">
-        <v>1380</v>
-      </c>
-      <c r="X1" s="105" t="s">
-        <v>1421</v>
-      </c>
-      <c r="Y1" s="105" t="s">
-        <v>1420</v>
-      </c>
-      <c r="Z1" s="105" t="s">
-        <v>1457</v>
-      </c>
-      <c r="AA1" s="105" t="s">
-        <v>1492</v>
-      </c>
-      <c r="AB1" s="105" t="s">
-        <v>1465</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>1480</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>1487</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="S2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" t="s">
+        <v>939</v>
+      </c>
+      <c r="V2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="W2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="X2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>1458</v>
+      </c>
+      <c r="Z2" s="116" t="s">
+        <v>1499</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>1481</v>
+      </c>
+      <c r="AC2" t="s">
         <v>1243</v>
-      </c>
-      <c r="B2" s="60" t="s">
-        <v>681</v>
-      </c>
-      <c r="C2" s="60">
-        <v>1992</v>
-      </c>
-      <c r="D2" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="107" t="s">
-        <v>669</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>1101</v>
-      </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60" t="s">
-        <v>682</v>
-      </c>
-      <c r="W2" t="s">
-        <v>1406</v>
-      </c>
-      <c r="X2" t="s">
-        <v>1156</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>1156</v>
       </c>
       <c r="AD2" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE2" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B3">
+        <v>2023</v>
+      </c>
+      <c r="C3" t="s">
+        <v>476</v>
+      </c>
+      <c r="D3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>692</v>
+      </c>
+      <c r="I3" s="106" t="s">
+        <v>1517</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1177</v>
+      </c>
+      <c r="N3" s="106" t="s">
+        <v>1175</v>
+      </c>
+      <c r="O3">
+        <v>35.890813000000001</v>
+      </c>
+      <c r="P3">
+        <v>-106.540854</v>
+      </c>
+      <c r="Q3">
+        <v>9</v>
+      </c>
+      <c r="S3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" t="s">
+        <v>1178</v>
+      </c>
+      <c r="V3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="W3" t="s">
+        <v>1422</v>
+      </c>
+      <c r="X3" t="s">
+        <v>1433</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="Z3" s="116" t="s">
+        <v>1499</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>1483</v>
+      </c>
+      <c r="AD3" t="s">
         <v>1243</v>
       </c>
-      <c r="B3" t="s">
-        <v>689</v>
-      </c>
-      <c r="C3">
-        <v>2011</v>
-      </c>
-      <c r="D3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="AE3" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A4" s="60" t="s">
+        <v>681</v>
+      </c>
+      <c r="B4" s="60">
+        <v>1992</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="107" t="s">
         <v>669</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>1101</v>
       </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>693</v>
-      </c>
-      <c r="J3" t="s">
-        <v>1512</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" t="s">
-        <v>694</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" t="s">
-        <v>695</v>
-      </c>
-      <c r="P3">
-        <v>39.177683000000002</v>
-      </c>
-      <c r="Q3">
-        <v>-105.26552</v>
-      </c>
-      <c r="R3">
-        <v>5</v>
-      </c>
-      <c r="S3" t="s">
-        <v>690</v>
-      </c>
-      <c r="U3" t="s">
-        <v>22</v>
-      </c>
-      <c r="V3" t="s">
-        <v>696</v>
-      </c>
-      <c r="W3" t="s">
-        <v>1382</v>
-      </c>
-      <c r="X3" t="s">
-        <v>1439</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>1438</v>
-      </c>
-      <c r="Z3" t="s">
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60" t="s">
+        <v>682</v>
+      </c>
+      <c r="V4" t="s">
+        <v>1406</v>
+      </c>
+      <c r="W4" t="s">
         <v>1156</v>
       </c>
-      <c r="AA3" s="115" t="s">
-        <v>1494</v>
-      </c>
-      <c r="AC3" t="s">
+      <c r="AB4" t="s">
         <v>1156</v>
       </c>
-      <c r="AD3" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="AC4" t="s">
         <v>1243</v>
-      </c>
-      <c r="B4" t="s">
-        <v>762</v>
-      </c>
-      <c r="C4">
-        <v>2019</v>
-      </c>
-      <c r="D4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>669</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>1101</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="102" t="s">
-        <v>785</v>
-      </c>
-      <c r="J4" t="s">
-        <v>1512</v>
-      </c>
-      <c r="K4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" t="s">
-        <v>694</v>
-      </c>
-      <c r="M4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" t="s">
-        <v>721</v>
-      </c>
-      <c r="P4">
-        <v>39.177683000000002</v>
-      </c>
-      <c r="Q4">
-        <v>-105.26552</v>
-      </c>
-      <c r="T4" t="s">
-        <v>22</v>
-      </c>
-      <c r="U4" t="s">
-        <v>22</v>
-      </c>
-      <c r="V4" t="s">
-        <v>1108</v>
-      </c>
-      <c r="W4" t="s">
-        <v>1382</v>
-      </c>
-      <c r="X4" t="s">
-        <v>1440</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>1441</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>1156</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>1495</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>1156</v>
       </c>
       <c r="AD4" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE4" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B5" t="s">
-        <v>720</v>
-      </c>
-      <c r="C5">
-        <v>2019</v>
+        <v>681</v>
+      </c>
+      <c r="B5">
+        <v>1992</v>
+      </c>
+      <c r="C5" t="s">
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" t="s">
-        <v>105</v>
+        <v>110</v>
+      </c>
+      <c r="E5" s="11" t="b">
+        <v>1</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>669</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>1101</v>
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>692</v>
       </c>
       <c r="I5" t="s">
-        <v>785</v>
-      </c>
-      <c r="J5" t="s">
-        <v>1513</v>
-      </c>
-      <c r="K5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" t="s">
-        <v>721</v>
-      </c>
-      <c r="P5">
-        <v>39.177683000000002</v>
-      </c>
-      <c r="Q5">
-        <v>-105.26552</v>
+        <v>1156</v>
+      </c>
+      <c r="J5" s="93" t="s">
+        <v>733</v>
+      </c>
+      <c r="K5" s="93" t="s">
+        <v>734</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="93" t="s">
+        <v>731</v>
+      </c>
+      <c r="O5" s="94">
+        <v>49.667000000000002</v>
+      </c>
+      <c r="P5" s="94">
+        <v>-93.733000000000004</v>
+      </c>
+      <c r="Q5" s="95">
+        <v>15</v>
+      </c>
+      <c r="R5" t="s">
+        <v>732</v>
       </c>
       <c r="T5" t="s">
         <v>22</v>
       </c>
       <c r="U5" t="s">
+        <v>1394</v>
+      </c>
+      <c r="V5" t="s">
+        <v>1390</v>
+      </c>
+      <c r="W5" t="s">
+        <v>1422</v>
+      </c>
+      <c r="X5" t="s">
+        <v>1414</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>1244</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>1499</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B6">
+        <v>2009</v>
+      </c>
+      <c r="C6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>693</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1518</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" t="s">
+        <v>784</v>
+      </c>
+      <c r="N6" t="s">
+        <v>783</v>
+      </c>
+      <c r="O6">
+        <v>65.150000000000006</v>
+      </c>
+      <c r="P6">
+        <v>-147.5</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="S6" t="s">
         <v>22</v>
-      </c>
-      <c r="V5" t="s">
-        <v>1107</v>
-      </c>
-      <c r="W5" t="s">
-        <v>1384</v>
-      </c>
-      <c r="X5" t="s">
-        <v>1426</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>1456</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>1156</v>
-      </c>
-      <c r="AA5" s="116" t="s">
-        <v>1493</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B6" t="s">
-        <v>924</v>
-      </c>
-      <c r="C6">
-        <v>2019</v>
-      </c>
-      <c r="D6" t="s">
-        <v>254</v>
-      </c>
-      <c r="E6" t="s">
-        <v>255</v>
-      </c>
-      <c r="F6" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s">
-        <v>785</v>
-      </c>
-      <c r="J6" t="s">
-        <v>1514</v>
-      </c>
-      <c r="K6" t="s">
-        <v>873</v>
-      </c>
-      <c r="N6" t="s">
-        <v>926</v>
-      </c>
-      <c r="O6" t="s">
-        <v>927</v>
-      </c>
-      <c r="P6">
-        <v>37.534036999999998</v>
-      </c>
-      <c r="Q6">
-        <v>-119.389139</v>
       </c>
       <c r="T6" t="s">
         <v>22</v>
       </c>
       <c r="U6" t="s">
+        <v>782</v>
+      </c>
+      <c r="V6" t="s">
+        <v>1405</v>
+      </c>
+      <c r="W6" t="s">
+        <v>1422</v>
+      </c>
+      <c r="X6" t="s">
+        <v>1415</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>1459</v>
+      </c>
+      <c r="Z6" s="116" t="s">
+        <v>1500</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>1483</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B7">
+        <v>2008</v>
+      </c>
+      <c r="C7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E7" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>785</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1519</v>
+      </c>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" t="s">
+        <v>741</v>
+      </c>
+      <c r="L7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" t="s">
+        <v>742</v>
+      </c>
+      <c r="O7">
+        <v>49.616667</v>
+      </c>
+      <c r="P7">
+        <v>-114.666667</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7" t="s">
+        <v>744</v>
+      </c>
+      <c r="T7" t="s">
         <v>22</v>
       </c>
-      <c r="V6" t="s">
-        <v>925</v>
-      </c>
-      <c r="W6" t="s">
+      <c r="U7" t="s">
+        <v>1393</v>
+      </c>
+      <c r="V7" t="s">
         <v>1401</v>
       </c>
-      <c r="X6" t="s">
-        <v>1426</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>1427</v>
-      </c>
-      <c r="Z6" t="s">
+      <c r="W7" t="s">
+        <v>1422</v>
+      </c>
+      <c r="X7" t="s">
+        <v>1416</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>1460</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>1501</v>
+      </c>
+      <c r="AB7" s="114" t="s">
         <v>1156</v>
       </c>
-      <c r="AA6" s="116" t="s">
-        <v>1496</v>
-      </c>
-      <c r="AC6" t="s">
+      <c r="AC7" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>835</v>
+      </c>
+      <c r="B8">
+        <v>2018</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>785</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1529</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>836</v>
+      </c>
+      <c r="O8">
+        <v>61.4</v>
+      </c>
+      <c r="P8">
+        <v>-121.433333</v>
+      </c>
+      <c r="Q8">
+        <v>0.5</v>
+      </c>
+      <c r="R8" t="s">
+        <v>743</v>
+      </c>
+      <c r="S8" t="s">
+        <v>22</v>
+      </c>
+      <c r="U8" t="s">
+        <v>837</v>
+      </c>
+      <c r="V8" t="s">
+        <v>1382</v>
+      </c>
+      <c r="W8" t="s">
+        <v>1424</v>
+      </c>
+      <c r="X8" t="s">
+        <v>1453</v>
+      </c>
+      <c r="Y8" t="s">
         <v>1156</v>
       </c>
-      <c r="AD6" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="Z8" s="116" t="s">
+        <v>1499</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AD8" t="s">
         <v>1243</v>
       </c>
-      <c r="B7" t="s">
-        <v>948</v>
-      </c>
-      <c r="C7">
-        <v>2015</v>
-      </c>
-      <c r="D7" t="s">
-        <v>267</v>
-      </c>
-      <c r="E7" t="s">
-        <v>268</v>
-      </c>
-      <c r="F7" s="11" t="s">
+      <c r="AE8" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B9">
+        <v>2020</v>
+      </c>
+      <c r="C9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D9" t="s">
+        <v>321</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>669</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="F9" s="11" t="s">
         <v>1101</v>
       </c>
-      <c r="I7" t="s">
+      <c r="H9" t="s">
         <v>785</v>
       </c>
-      <c r="J7" t="s">
-        <v>1529</v>
-      </c>
-      <c r="N7" t="s">
-        <v>930</v>
-      </c>
-      <c r="O7" t="s">
-        <v>949</v>
-      </c>
-      <c r="P7">
-        <v>44.578524999999999</v>
-      </c>
-      <c r="Q7">
-        <v>-115.66604</v>
-      </c>
-      <c r="R7">
-        <v>4</v>
-      </c>
-      <c r="U7" t="s">
+      <c r="I9" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1004</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1002</v>
+      </c>
+      <c r="N9" t="s">
+        <v>1378</v>
+      </c>
+      <c r="O9">
+        <v>35</v>
+      </c>
+      <c r="P9">
+        <v>-83</v>
+      </c>
+      <c r="Q9">
+        <v>2</v>
+      </c>
+      <c r="R9" t="s">
+        <v>989</v>
+      </c>
+      <c r="S9" t="s">
         <v>22</v>
       </c>
-      <c r="V7" t="s">
-        <v>950</v>
-      </c>
-      <c r="W7" t="s">
-        <v>1386</v>
-      </c>
-      <c r="X7" t="s">
-        <v>1426</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>1427</v>
-      </c>
-      <c r="Z7" t="s">
+      <c r="T9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U9" t="s">
+        <v>1005</v>
+      </c>
+      <c r="V9" t="s">
+        <v>1382</v>
+      </c>
+      <c r="W9" t="s">
+        <v>1422</v>
+      </c>
+      <c r="X9" t="s">
+        <v>1502</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Z9" s="116" t="s">
+        <v>1503</v>
+      </c>
+      <c r="AB9" s="113" t="s">
         <v>1156</v>
       </c>
-      <c r="AA7" s="116" t="s">
-        <v>1497</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>1156</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B8" t="s">
-        <v>835</v>
-      </c>
-      <c r="C8">
-        <v>2018</v>
-      </c>
-      <c r="D8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" t="s">
-        <v>189</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>669</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>1101</v>
-      </c>
-      <c r="H8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" t="s">
-        <v>785</v>
-      </c>
-      <c r="J8" t="s">
-        <v>1530</v>
-      </c>
-      <c r="N8">
-        <v>3</v>
-      </c>
-      <c r="O8" t="s">
-        <v>836</v>
-      </c>
-      <c r="P8">
-        <v>61.4</v>
-      </c>
-      <c r="Q8">
-        <v>-121.433333</v>
-      </c>
-      <c r="R8">
-        <v>0.5</v>
-      </c>
-      <c r="S8" t="s">
-        <v>743</v>
-      </c>
-      <c r="T8" t="s">
-        <v>22</v>
-      </c>
-      <c r="V8" t="s">
-        <v>837</v>
-      </c>
-      <c r="W8" t="s">
-        <v>1382</v>
-      </c>
-      <c r="X8" t="s">
-        <v>1424</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>1453</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>1156</v>
-      </c>
-      <c r="AA8" s="116" t="s">
-        <v>1500</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B9" t="s">
-        <v>727</v>
-      </c>
-      <c r="C9">
-        <v>1998</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" t="s">
-        <v>785</v>
-      </c>
-      <c r="J9" t="s">
-        <v>1531</v>
-      </c>
-      <c r="K9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" t="s">
-        <v>724</v>
-      </c>
-      <c r="M9" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9" t="s">
-        <v>725</v>
-      </c>
-      <c r="P9" s="99">
-        <v>48.762999999999998</v>
-      </c>
-      <c r="Q9" s="99">
-        <v>-114.226</v>
-      </c>
-      <c r="R9" s="100">
-        <v>5</v>
-      </c>
-      <c r="S9" s="100" t="s">
-        <v>726</v>
-      </c>
-      <c r="U9" t="s">
-        <v>22</v>
-      </c>
-      <c r="V9" t="s">
-        <v>1395</v>
-      </c>
-      <c r="W9" t="s">
-        <v>1401</v>
-      </c>
-      <c r="X9" t="s">
-        <v>1424</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>1419</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>1156</v>
-      </c>
-      <c r="AA9" s="116" t="s">
-        <v>1498</v>
-      </c>
       <c r="AC9" t="s">
-        <v>1156</v>
+        <v>1483</v>
       </c>
       <c r="AD9" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C10">
-        <v>2023</v>
+        <v>982</v>
+      </c>
+      <c r="B10">
+        <v>2019</v>
+      </c>
+      <c r="C10" t="s">
+        <v>304</v>
       </c>
       <c r="D10" t="s">
-        <v>470</v>
-      </c>
-      <c r="E10" t="s">
-        <v>471</v>
+        <v>305</v>
+      </c>
+      <c r="E10" s="11" t="b">
+        <v>1</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>669</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>1101</v>
+        <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>785</v>
       </c>
       <c r="I10" t="s">
-        <v>785</v>
-      </c>
-      <c r="J10" t="s">
-        <v>1515</v>
-      </c>
-      <c r="K10" t="s">
-        <v>1168</v>
-      </c>
-      <c r="M10" s="46" t="s">
-        <v>1166</v>
+        <v>1511</v>
+      </c>
+      <c r="M10" t="s">
+        <v>985</v>
       </c>
       <c r="N10" t="s">
-        <v>987</v>
-      </c>
-      <c r="O10" t="s">
-        <v>1167</v>
+        <v>695</v>
+      </c>
+      <c r="O10">
+        <v>39.177683000000002</v>
       </c>
       <c r="P10">
-        <v>38.916015999999999</v>
+        <v>-105.26552</v>
       </c>
       <c r="Q10">
-        <v>-120.281718</v>
-      </c>
-      <c r="R10">
         <v>2</v>
       </c>
+      <c r="R10" t="s">
+        <v>984</v>
+      </c>
       <c r="S10" t="s">
-        <v>1170</v>
-      </c>
-      <c r="T10" t="s">
         <v>22</v>
       </c>
+      <c r="U10" t="s">
+        <v>983</v>
+      </c>
       <c r="V10" t="s">
-        <v>1169</v>
+        <v>1401</v>
       </c>
       <c r="W10" t="s">
-        <v>1382</v>
+        <v>1422</v>
       </c>
       <c r="X10" t="s">
-        <v>1424</v>
+        <v>1417</v>
       </c>
       <c r="Y10" t="s">
-        <v>1434</v>
+        <v>1462</v>
       </c>
       <c r="Z10" t="s">
-        <v>1156</v>
-      </c>
-      <c r="AA10" s="116" t="s">
-        <v>1500</v>
+        <v>1499</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>1482</v>
       </c>
       <c r="AC10" t="s">
-        <v>1156</v>
+        <v>1483</v>
       </c>
       <c r="AD10" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B11">
+        <v>2013</v>
+      </c>
+      <c r="C11" s="111" t="s">
+        <v>1444</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="I11" t="s">
+        <v>1532</v>
+      </c>
+      <c r="V11" t="s">
+        <v>1401</v>
+      </c>
+      <c r="W11" t="s">
+        <v>1422</v>
+      </c>
+      <c r="X11" t="s">
+        <v>1445</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>1465</v>
+      </c>
+      <c r="Z11" s="116" t="s">
+        <v>1504</v>
+      </c>
+      <c r="AA11" s="62" t="s">
+        <v>1466</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AC11" t="s">
         <v>1243</v>
-      </c>
-      <c r="B11" t="s">
-        <v>881</v>
-      </c>
-      <c r="C11">
-        <v>2012</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>223</v>
-      </c>
-      <c r="F11" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" t="s">
-        <v>785</v>
-      </c>
-      <c r="J11" t="s">
-        <v>1516</v>
-      </c>
-      <c r="K11" t="s">
-        <v>882</v>
-      </c>
-      <c r="N11" t="s">
-        <v>883</v>
-      </c>
-      <c r="O11" t="s">
-        <v>884</v>
-      </c>
-      <c r="P11">
-        <v>38.896382000000003</v>
-      </c>
-      <c r="Q11">
-        <v>-120.041629</v>
-      </c>
-      <c r="R11">
-        <v>2</v>
-      </c>
-      <c r="U11" t="s">
-        <v>22</v>
-      </c>
-      <c r="V11" t="s">
-        <v>887</v>
-      </c>
-      <c r="W11" t="s">
-        <v>1401</v>
-      </c>
-      <c r="X11" t="s">
-        <v>1424</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>1499</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>1458</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>1156</v>
       </c>
       <c r="AD11" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B12" t="s">
-        <v>935</v>
-      </c>
-      <c r="C12">
-        <v>2021</v>
+        <v>928</v>
+      </c>
+      <c r="B12">
+        <v>1998</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>257</v>
-      </c>
-      <c r="E12" t="s">
-        <v>258</v>
+        <v>256</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>669</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>936</v>
-      </c>
-      <c r="G12" s="11" t="s">
         <v>1101</v>
       </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>785</v>
       </c>
       <c r="I12" t="s">
-        <v>785</v>
+        <v>1521</v>
       </c>
       <c r="J12" t="s">
-        <v>1517</v>
+        <v>24</v>
+      </c>
+      <c r="K12" t="s">
+        <v>932</v>
+      </c>
+      <c r="M12" t="s">
+        <v>930</v>
       </c>
       <c r="N12" t="s">
-        <v>937</v>
-      </c>
-      <c r="O12" t="s">
-        <v>938</v>
+        <v>931</v>
+      </c>
+      <c r="O12">
+        <v>44.512999999999998</v>
       </c>
       <c r="P12">
-        <v>69.166667000000004</v>
+        <v>-109.98</v>
       </c>
       <c r="Q12">
-        <v>-150.75</v>
-      </c>
-      <c r="R12">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="R12" t="s">
+        <v>933</v>
+      </c>
+      <c r="S12" t="s">
+        <v>22</v>
       </c>
       <c r="T12" t="s">
         <v>22</v>
       </c>
+      <c r="U12" t="s">
+        <v>934</v>
+      </c>
       <c r="V12" t="s">
-        <v>939</v>
+        <v>1382</v>
       </c>
       <c r="W12" t="s">
-        <v>1382</v>
+        <v>1422</v>
       </c>
       <c r="X12" t="s">
-        <v>1432</v>
+        <v>1467</v>
       </c>
       <c r="Y12" t="s">
-        <v>1431</v>
+        <v>1468</v>
       </c>
       <c r="Z12" t="s">
-        <v>1459</v>
-      </c>
-      <c r="AA12" s="116" t="s">
-        <v>1500</v>
+        <v>1499</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>1156</v>
       </c>
       <c r="AC12" t="s">
-        <v>1482</v>
+        <v>1243</v>
       </c>
       <c r="AD12" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1233</v>
-      </c>
-      <c r="C13">
-        <v>2015</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1449</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
+        <v>1595</v>
+      </c>
+      <c r="B13">
+        <v>1989</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1596</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1603</v>
+      </c>
       <c r="J13" t="s">
-        <v>1510</v>
+        <v>1597</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1598</v>
+      </c>
+      <c r="M13" t="s">
+        <v>1600</v>
+      </c>
+      <c r="N13" t="s">
+        <v>1599</v>
+      </c>
+      <c r="O13" s="94">
+        <v>49.704340000000002</v>
+      </c>
+      <c r="P13" s="94">
+        <v>-116.118877</v>
+      </c>
+      <c r="Q13">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s">
+        <v>22</v>
+      </c>
+      <c r="U13" t="s">
+        <v>1602</v>
+      </c>
+      <c r="V13" t="s">
+        <v>1401</v>
       </c>
       <c r="W13" t="s">
-        <v>1450</v>
+        <v>1422</v>
       </c>
       <c r="X13" t="s">
-        <v>1455</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>1454</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>1244</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>1156</v>
+        <v>1601</v>
       </c>
       <c r="AD13" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>670</v>
+      </c>
+      <c r="B14">
+        <v>2000</v>
+      </c>
+      <c r="C14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="I14" t="s">
+        <v>1522</v>
+      </c>
+      <c r="V14" t="s">
+        <v>1381</v>
+      </c>
+      <c r="W14" t="s">
+        <v>1422</v>
+      </c>
+      <c r="X14" t="s">
+        <v>1469</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>1470</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>1505</v>
+      </c>
+      <c r="AA14" s="114" t="s">
+        <v>1471</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AC14" t="s">
         <v>1243</v>
       </c>
-      <c r="B14" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C14">
-        <v>2023</v>
-      </c>
-      <c r="D14" t="s">
-        <v>476</v>
-      </c>
-      <c r="E14" t="s">
-        <v>477</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>669</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>1106</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="AD14" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>909</v>
+      </c>
+      <c r="B15">
+        <v>2008</v>
+      </c>
+      <c r="C15" t="s">
+        <v>246</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="I15" t="s">
+        <v>1511</v>
+      </c>
+      <c r="K15" s="97"/>
+      <c r="N15" s="98"/>
+      <c r="V15" t="s">
+        <v>1385</v>
+      </c>
+      <c r="W15" t="s">
+        <v>1436</v>
+      </c>
+      <c r="X15" t="s">
+        <v>1446</v>
+      </c>
+      <c r="Y15" s="96" t="s">
+        <v>1156</v>
+      </c>
+      <c r="Z15" s="96" t="s">
+        <v>1493</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>1490</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>1615</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="96" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B16">
+        <v>2015</v>
+      </c>
+      <c r="C16" t="s">
+        <v>481</v>
+      </c>
+      <c r="D16" t="s">
+        <v>482</v>
+      </c>
+      <c r="E16" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
         <v>17</v>
       </c>
-      <c r="I14" t="s">
-        <v>692</v>
-      </c>
-      <c r="J14" s="106" t="s">
-        <v>1518</v>
-      </c>
-      <c r="M14" t="s">
-        <v>1176</v>
-      </c>
-      <c r="N14" t="s">
-        <v>1177</v>
-      </c>
-      <c r="O14" s="106" t="s">
-        <v>1175</v>
-      </c>
-      <c r="P14">
-        <v>35.890813000000001</v>
-      </c>
-      <c r="Q14">
-        <v>-106.540854</v>
-      </c>
-      <c r="R14">
-        <v>9</v>
-      </c>
-      <c r="T14" t="s">
+      <c r="H16" t="s">
+        <v>785</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1531</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1184</v>
+      </c>
+      <c r="K16" s="97"/>
+      <c r="M16">
+        <v>4</v>
+      </c>
+      <c r="N16" s="98" t="s">
+        <v>1186</v>
+      </c>
+      <c r="O16">
+        <v>44.910800000000002</v>
+      </c>
+      <c r="P16">
+        <v>-116.1031</v>
+      </c>
+      <c r="S16" t="s">
         <v>22</v>
       </c>
-      <c r="U14" t="s">
+      <c r="U16" t="s">
+        <v>1185</v>
+      </c>
+      <c r="V16" t="s">
+        <v>1401</v>
+      </c>
+      <c r="W16" t="s">
+        <v>1422</v>
+      </c>
+      <c r="X16" t="s">
+        <v>1418</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>1472</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>1506</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>1484</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>727</v>
+      </c>
+      <c r="B17">
+        <v>1998</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s">
+        <v>785</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1530</v>
+      </c>
+      <c r="J17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" t="s">
+        <v>724</v>
+      </c>
+      <c r="L17" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" t="s">
+        <v>725</v>
+      </c>
+      <c r="O17" s="99">
+        <v>48.762999999999998</v>
+      </c>
+      <c r="P17" s="99">
+        <v>-114.226</v>
+      </c>
+      <c r="Q17" s="100">
+        <v>5</v>
+      </c>
+      <c r="R17" s="100" t="s">
+        <v>726</v>
+      </c>
+      <c r="T17" t="s">
         <v>22</v>
       </c>
-      <c r="V14" t="s">
-        <v>1178</v>
-      </c>
-      <c r="W14" t="s">
-        <v>1390</v>
-      </c>
-      <c r="X14" t="s">
-        <v>1422</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>1433</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>1464</v>
-      </c>
-      <c r="AA14" s="116" t="s">
-        <v>1500</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>1481</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="U17" t="s">
+        <v>1395</v>
+      </c>
+      <c r="V17" t="s">
+        <v>1401</v>
+      </c>
+      <c r="W17" t="s">
+        <v>1424</v>
+      </c>
+      <c r="X17" t="s">
+        <v>1419</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>1156</v>
+      </c>
+      <c r="Z17" s="116" t="s">
+        <v>1497</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AC17" t="s">
         <v>1243</v>
-      </c>
-      <c r="B15" t="s">
-        <v>681</v>
-      </c>
-      <c r="C15">
-        <v>1992</v>
-      </c>
-      <c r="D15" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" t="s">
-        <v>110</v>
-      </c>
-      <c r="F15" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" t="s">
-        <v>692</v>
-      </c>
-      <c r="J15" t="s">
-        <v>1156</v>
-      </c>
-      <c r="K15" s="93" t="s">
-        <v>733</v>
-      </c>
-      <c r="L15" s="93" t="s">
-        <v>734</v>
-      </c>
-      <c r="M15" t="s">
-        <v>19</v>
-      </c>
-      <c r="O15" s="93" t="s">
-        <v>731</v>
-      </c>
-      <c r="P15" s="94">
-        <v>49.667000000000002</v>
-      </c>
-      <c r="Q15" s="94">
-        <v>-93.733000000000004</v>
-      </c>
-      <c r="R15" s="95">
-        <v>15</v>
-      </c>
-      <c r="S15" t="s">
-        <v>732</v>
-      </c>
-      <c r="U15" t="s">
-        <v>22</v>
-      </c>
-      <c r="V15" t="s">
-        <v>1394</v>
-      </c>
-      <c r="W15" t="s">
-        <v>1390</v>
-      </c>
-      <c r="X15" t="s">
-        <v>1422</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>1414</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>1244</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>1500</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>1156</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1404</v>
-      </c>
-      <c r="C16">
-        <v>2009</v>
-      </c>
-      <c r="D16" t="s">
-        <v>136</v>
-      </c>
-      <c r="E16" t="s">
-        <v>137</v>
-      </c>
-      <c r="F16" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" t="s">
-        <v>693</v>
-      </c>
-      <c r="J16" t="s">
-        <v>1519</v>
-      </c>
-      <c r="M16" t="s">
-        <v>19</v>
-      </c>
-      <c r="N16" t="s">
-        <v>784</v>
-      </c>
-      <c r="O16" t="s">
-        <v>783</v>
-      </c>
-      <c r="P16">
-        <v>65.150000000000006</v>
-      </c>
-      <c r="Q16">
-        <v>-147.5</v>
-      </c>
-      <c r="R16">
-        <v>3</v>
-      </c>
-      <c r="T16" t="s">
-        <v>22</v>
-      </c>
-      <c r="U16" t="s">
-        <v>22</v>
-      </c>
-      <c r="V16" t="s">
-        <v>782</v>
-      </c>
-      <c r="W16" t="s">
-        <v>1405</v>
-      </c>
-      <c r="X16" t="s">
-        <v>1422</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>1415</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>1460</v>
-      </c>
-      <c r="AA16" s="116" t="s">
-        <v>1501</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>1156</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1413</v>
-      </c>
-      <c r="C17">
-        <v>2008</v>
-      </c>
-      <c r="D17" t="s">
-        <v>114</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1402</v>
-      </c>
-      <c r="F17" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" t="s">
-        <v>785</v>
-      </c>
-      <c r="J17" t="s">
-        <v>1520</v>
-      </c>
-      <c r="K17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17" t="s">
-        <v>741</v>
-      </c>
-      <c r="M17" t="s">
-        <v>19</v>
-      </c>
-      <c r="O17" t="s">
-        <v>742</v>
-      </c>
-      <c r="P17">
-        <v>49.616667</v>
-      </c>
-      <c r="Q17">
-        <v>-114.666667</v>
-      </c>
-      <c r="R17">
-        <v>3</v>
-      </c>
-      <c r="S17" t="s">
-        <v>744</v>
-      </c>
-      <c r="U17" t="s">
-        <v>22</v>
-      </c>
-      <c r="V17" t="s">
-        <v>1393</v>
-      </c>
-      <c r="W17" t="s">
-        <v>1401</v>
-      </c>
-      <c r="X17" t="s">
-        <v>1422</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>1416</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>1461</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>1502</v>
-      </c>
-      <c r="AC17" s="114" t="s">
-        <v>1156</v>
       </c>
       <c r="AD17" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="18" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+      <c r="AE17" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B18">
+        <v>2023</v>
+      </c>
+      <c r="C18" t="s">
+        <v>470</v>
+      </c>
+      <c r="D18" t="s">
+        <v>471</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>785</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1514</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1168</v>
+      </c>
+      <c r="L18" s="46" t="s">
+        <v>1166</v>
+      </c>
+      <c r="M18" t="s">
+        <v>987</v>
+      </c>
+      <c r="N18" t="s">
+        <v>1167</v>
+      </c>
+      <c r="O18">
+        <v>38.916015999999999</v>
+      </c>
+      <c r="P18">
+        <v>-120.281718</v>
+      </c>
+      <c r="Q18">
+        <v>2</v>
+      </c>
+      <c r="R18" t="s">
+        <v>1170</v>
+      </c>
+      <c r="S18" t="s">
+        <v>22</v>
+      </c>
+      <c r="U18" t="s">
+        <v>1169</v>
+      </c>
+      <c r="V18" t="s">
+        <v>1382</v>
+      </c>
+      <c r="W18" t="s">
+        <v>1424</v>
+      </c>
+      <c r="X18" t="s">
+        <v>1434</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>1156</v>
+      </c>
+      <c r="Z18" s="116" t="s">
+        <v>1499</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AC18" t="s">
         <v>1243</v>
       </c>
-      <c r="B18" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C18">
-        <v>2020</v>
-      </c>
-      <c r="D18" t="s">
-        <v>320</v>
-      </c>
-      <c r="E18" t="s">
-        <v>321</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>669</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>1101</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="AD18" t="s">
+        <v>1615</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" ht="19" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B19">
+        <v>2016</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="I19" t="s">
+        <v>1510</v>
+      </c>
+      <c r="L19" s="46"/>
+      <c r="V19" t="s">
+        <v>1390</v>
+      </c>
+      <c r="W19" t="s">
+        <v>1430</v>
+      </c>
+      <c r="X19" s="112" t="s">
+        <v>1448</v>
+      </c>
+      <c r="Y19" s="96" t="s">
+        <v>1156</v>
+      </c>
+      <c r="Z19" s="96" t="s">
+        <v>1492</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>1489</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>1617</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B20">
+        <v>2015</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="I20" t="s">
+        <v>1509</v>
+      </c>
+      <c r="V20" t="s">
+        <v>1450</v>
+      </c>
+      <c r="W20" t="s">
+        <v>1455</v>
+      </c>
+      <c r="X20" t="s">
+        <v>1454</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>1244</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>1618</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A21" s="96" t="s">
+        <v>750</v>
+      </c>
+      <c r="B21" s="96">
+        <v>2008</v>
+      </c>
+      <c r="C21" s="96" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="101" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="93" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="102" t="s">
         <v>785</v>
       </c>
-      <c r="J18" t="s">
-        <v>1521</v>
-      </c>
-      <c r="K18" t="s">
-        <v>1004</v>
-      </c>
-      <c r="N18" t="s">
-        <v>1002</v>
-      </c>
-      <c r="O18" t="s">
-        <v>1378</v>
-      </c>
-      <c r="P18">
-        <v>35</v>
-      </c>
-      <c r="Q18">
-        <v>-83</v>
-      </c>
-      <c r="R18">
-        <v>2</v>
-      </c>
-      <c r="S18" t="s">
-        <v>989</v>
-      </c>
-      <c r="T18" t="s">
+      <c r="I21" t="s">
+        <v>1523</v>
+      </c>
+      <c r="J21" s="93" t="s">
+        <v>751</v>
+      </c>
+      <c r="K21" s="93" t="s">
+        <v>752</v>
+      </c>
+      <c r="L21" s="93" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" s="96"/>
+      <c r="N21" s="93" t="s">
+        <v>753</v>
+      </c>
+      <c r="O21" s="94">
+        <v>48.789253000000002</v>
+      </c>
+      <c r="P21" s="94">
+        <v>-113.79626500000001</v>
+      </c>
+      <c r="Q21" s="95">
+        <v>4</v>
+      </c>
+      <c r="R21" s="95" t="s">
+        <v>754</v>
+      </c>
+      <c r="S21" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="U18" t="s">
+      <c r="T21" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="V18" t="s">
-        <v>1005</v>
-      </c>
-      <c r="W18" t="s">
-        <v>1382</v>
-      </c>
-      <c r="X18" t="s">
+      <c r="U21" s="96" t="s">
+        <v>1392</v>
+      </c>
+      <c r="V21" s="96" t="s">
+        <v>1403</v>
+      </c>
+      <c r="W21" s="96" t="s">
         <v>1422</v>
       </c>
-      <c r="Y18" t="s">
-        <v>1503</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>1462</v>
-      </c>
-      <c r="AA18" s="116" t="s">
-        <v>1504</v>
-      </c>
-      <c r="AC18" s="113" t="s">
+      <c r="X21" s="96" t="s">
+        <v>1473</v>
+      </c>
+      <c r="Y21" s="96" t="s">
+        <v>1474</v>
+      </c>
+      <c r="Z21" s="116" t="s">
+        <v>1507</v>
+      </c>
+      <c r="AB21" t="s">
         <v>1156</v>
       </c>
-      <c r="AD18" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B19" t="s">
-        <v>982</v>
-      </c>
-      <c r="C19">
-        <v>2019</v>
-      </c>
-      <c r="D19" t="s">
-        <v>304</v>
-      </c>
-      <c r="E19" t="s">
-        <v>305</v>
-      </c>
-      <c r="F19" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I19" t="s">
-        <v>785</v>
-      </c>
-      <c r="J19" t="s">
-        <v>1512</v>
-      </c>
-      <c r="N19" t="s">
-        <v>985</v>
-      </c>
-      <c r="O19" t="s">
-        <v>695</v>
-      </c>
-      <c r="P19">
-        <v>39.177683000000002</v>
-      </c>
-      <c r="Q19">
-        <v>-105.26552</v>
-      </c>
-      <c r="R19">
-        <v>2</v>
-      </c>
-      <c r="S19" t="s">
-        <v>984</v>
-      </c>
-      <c r="T19" t="s">
-        <v>22</v>
-      </c>
-      <c r="V19" t="s">
-        <v>983</v>
-      </c>
-      <c r="W19" t="s">
-        <v>1401</v>
-      </c>
-      <c r="X19" t="s">
-        <v>1422</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>1417</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>1463</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>1500</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>1483</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1443</v>
-      </c>
-      <c r="C20">
-        <v>2013</v>
-      </c>
-      <c r="D20" s="111" t="s">
-        <v>1444</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="J20" t="s">
-        <v>1533</v>
-      </c>
-      <c r="W20" t="s">
-        <v>1401</v>
-      </c>
-      <c r="X20" t="s">
-        <v>1422</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>1445</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>1466</v>
-      </c>
-      <c r="AA20" s="116" t="s">
-        <v>1505</v>
-      </c>
-      <c r="AB20" s="62" t="s">
-        <v>1467</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>1156</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B21" t="s">
-        <v>928</v>
-      </c>
-      <c r="C21">
-        <v>1998</v>
-      </c>
-      <c r="D21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" t="s">
-        <v>256</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>669</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>1101</v>
-      </c>
-      <c r="H21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" t="s">
-        <v>785</v>
-      </c>
-      <c r="J21" t="s">
-        <v>1522</v>
-      </c>
-      <c r="K21" t="s">
-        <v>24</v>
-      </c>
-      <c r="L21" t="s">
-        <v>932</v>
-      </c>
-      <c r="N21" t="s">
-        <v>930</v>
-      </c>
-      <c r="O21" t="s">
-        <v>931</v>
-      </c>
-      <c r="P21">
-        <v>44.512999999999998</v>
-      </c>
-      <c r="Q21">
-        <v>-109.98</v>
-      </c>
-      <c r="R21">
-        <v>4</v>
-      </c>
-      <c r="S21" t="s">
-        <v>933</v>
-      </c>
-      <c r="T21" t="s">
-        <v>22</v>
-      </c>
-      <c r="U21" t="s">
-        <v>22</v>
-      </c>
-      <c r="V21" t="s">
-        <v>934</v>
-      </c>
-      <c r="W21" t="s">
-        <v>1382</v>
-      </c>
-      <c r="X21" t="s">
-        <v>1422</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>1468</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>1469</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>1500</v>
-      </c>
       <c r="AC21" t="s">
-        <v>1156</v>
+        <v>1485</v>
       </c>
       <c r="AD21" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="AE21" t="s">
         <v>1243</v>
       </c>
-      <c r="B22" t="s">
-        <v>670</v>
-      </c>
-      <c r="C22">
-        <v>2000</v>
-      </c>
-      <c r="D22" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="J22" t="s">
-        <v>1523</v>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A22" s="96" t="s">
+        <v>826</v>
+      </c>
+      <c r="B22" s="96">
+        <v>2016</v>
+      </c>
+      <c r="C22" s="96" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="96" t="s">
+        <v>184</v>
+      </c>
+      <c r="E22" s="101" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="96" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="96" t="s">
+        <v>693</v>
+      </c>
+      <c r="I22" s="96" t="s">
+        <v>1524</v>
+      </c>
+      <c r="J22" s="93" t="s">
+        <v>827</v>
+      </c>
+      <c r="K22" s="93" t="s">
+        <v>828</v>
+      </c>
+      <c r="L22" s="93" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" s="103" t="s">
+        <v>833</v>
+      </c>
+      <c r="N22" s="93" t="s">
+        <v>829</v>
+      </c>
+      <c r="O22" s="94">
+        <v>40.353888888</v>
+      </c>
+      <c r="P22" s="94">
+        <v>-105.583611111</v>
+      </c>
+      <c r="Q22" s="95">
+        <v>2</v>
+      </c>
+      <c r="R22" s="95" t="s">
+        <v>830</v>
+      </c>
+      <c r="S22" s="96" t="s">
+        <v>22</v>
+      </c>
+      <c r="T22" s="96" t="s">
+        <v>22</v>
+      </c>
+      <c r="U22" s="96" t="s">
+        <v>831</v>
+      </c>
+      <c r="V22" t="s">
+        <v>1405</v>
       </c>
       <c r="W22" t="s">
-        <v>1381</v>
+        <v>1422</v>
       </c>
       <c r="X22" t="s">
-        <v>1422</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>1470</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>1471</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>1506</v>
-      </c>
-      <c r="AB22" s="114" t="s">
-        <v>1472</v>
+        <v>1423</v>
+      </c>
+      <c r="Y22" s="96" t="s">
+        <v>1475</v>
+      </c>
+      <c r="Z22" s="96" t="s">
+        <v>1499</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>1156</v>
       </c>
       <c r="AC22" t="s">
-        <v>1156</v>
+        <v>1243</v>
       </c>
       <c r="AD22" t="s">
+        <v>1485</v>
+      </c>
+      <c r="AE22" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B23" s="96" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C23">
+        <v>711</v>
+      </c>
+      <c r="B23">
         <v>2015</v>
       </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
       <c r="D23" t="s">
-        <v>481</v>
-      </c>
-      <c r="E23" t="s">
-        <v>482</v>
-      </c>
-      <c r="F23" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" t="s">
+        <v>785</v>
+      </c>
+      <c r="I23" s="96" t="s">
+        <v>1525</v>
+      </c>
+      <c r="L23" t="s">
+        <v>19</v>
+      </c>
+      <c r="N23" t="s">
+        <v>708</v>
+      </c>
+      <c r="O23">
+        <v>40.033332999999999</v>
+      </c>
+      <c r="P23">
+        <v>-105.416667</v>
+      </c>
+      <c r="Q23">
         <v>3</v>
       </c>
-      <c r="H23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" t="s">
-        <v>785</v>
-      </c>
-      <c r="J23" t="s">
-        <v>1532</v>
-      </c>
-      <c r="K23" t="s">
-        <v>1184</v>
-      </c>
-      <c r="L23" s="97"/>
-      <c r="N23">
-        <v>4</v>
-      </c>
-      <c r="O23" s="98" t="s">
-        <v>1186</v>
-      </c>
-      <c r="P23">
-        <v>44.910800000000002</v>
-      </c>
-      <c r="Q23">
-        <v>-116.1031</v>
+      <c r="R23" t="s">
+        <v>709</v>
+      </c>
+      <c r="S23" t="s">
+        <v>22</v>
       </c>
       <c r="T23" t="s">
         <v>22</v>
       </c>
+      <c r="U23" t="s">
+        <v>710</v>
+      </c>
       <c r="V23" t="s">
-        <v>1185</v>
+        <v>1382</v>
       </c>
       <c r="W23" t="s">
+        <v>1422</v>
+      </c>
+      <c r="X23" t="s">
+        <v>1435</v>
+      </c>
+      <c r="Y23" s="96" t="s">
+        <v>1476</v>
+      </c>
+      <c r="Z23" s="96"/>
+      <c r="AB23" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>848</v>
+      </c>
+      <c r="B24">
+        <v>2018</v>
+      </c>
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" t="s">
+        <v>198</v>
+      </c>
+      <c r="E24" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="96" t="s">
+        <v>1525</v>
+      </c>
+      <c r="M24" t="s">
+        <v>849</v>
+      </c>
+      <c r="N24" t="s">
+        <v>1377</v>
+      </c>
+      <c r="O24">
+        <v>40.050263700000002</v>
+      </c>
+      <c r="P24">
+        <v>-105.3666599</v>
+      </c>
+      <c r="Q24">
+        <v>5</v>
+      </c>
+      <c r="S24" t="s">
+        <v>22</v>
+      </c>
+      <c r="T24" t="s">
+        <v>22</v>
+      </c>
+      <c r="U24" t="s">
+        <v>850</v>
+      </c>
+      <c r="V24" t="s">
         <v>1401</v>
       </c>
-      <c r="X23" t="s">
+      <c r="W24" t="s">
         <v>1422</v>
       </c>
-      <c r="Y23" t="s">
-        <v>1418</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>1473</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>1507</v>
-      </c>
-      <c r="AC23" t="s">
+      <c r="X24" t="s">
+        <v>1425</v>
+      </c>
+      <c r="Y24" s="96" t="s">
+        <v>1476</v>
+      </c>
+      <c r="Z24" s="96" t="s">
+        <v>1499</v>
+      </c>
+      <c r="AB24" t="s">
         <v>1156</v>
       </c>
-      <c r="AD23" t="s">
-        <v>1485</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="AC24" t="s">
         <v>1243</v>
       </c>
-      <c r="B24" s="96" t="s">
-        <v>750</v>
-      </c>
-      <c r="C24" s="96">
-        <v>2008</v>
-      </c>
-      <c r="D24" s="96" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="96" t="s">
-        <v>125</v>
-      </c>
-      <c r="F24" s="101" t="b">
+      <c r="AD24" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B25">
+        <v>1982</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1606</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1607</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1608</v>
+      </c>
+      <c r="K25" t="s">
+        <v>1609</v>
+      </c>
+      <c r="M25">
         <v>1</v>
       </c>
-      <c r="G24" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="93" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="102" t="s">
-        <v>785</v>
-      </c>
-      <c r="J24" t="s">
-        <v>1524</v>
-      </c>
-      <c r="K24" s="93" t="s">
-        <v>751</v>
-      </c>
-      <c r="L24" s="93" t="s">
-        <v>752</v>
-      </c>
-      <c r="M24" s="93" t="s">
-        <v>19</v>
-      </c>
-      <c r="N24" s="96"/>
-      <c r="O24" s="93" t="s">
-        <v>753</v>
-      </c>
-      <c r="P24" s="94">
-        <v>48.789253000000002</v>
-      </c>
-      <c r="Q24" s="94">
-        <v>-113.79626500000001</v>
-      </c>
-      <c r="R24" s="95">
-        <v>4</v>
-      </c>
-      <c r="S24" s="95" t="s">
-        <v>754</v>
-      </c>
-      <c r="T24" s="96" t="s">
+      <c r="N25" t="s">
+        <v>1610</v>
+      </c>
+      <c r="O25">
+        <v>36.095348999999999</v>
+      </c>
+      <c r="P25">
+        <v>-82.265000000000001</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25" t="s">
+        <v>989</v>
+      </c>
+      <c r="T25" t="s">
         <v>22</v>
       </c>
-      <c r="U24" s="96" t="s">
-        <v>22</v>
-      </c>
-      <c r="V24" s="96" t="s">
-        <v>1392</v>
-      </c>
-      <c r="W24" s="96" t="s">
-        <v>1403</v>
-      </c>
-      <c r="X24" s="96" t="s">
-        <v>1422</v>
-      </c>
-      <c r="Y24" s="96" t="s">
-        <v>1474</v>
-      </c>
-      <c r="Z24" s="96" t="s">
-        <v>1475</v>
-      </c>
-      <c r="AA24" s="116" t="s">
-        <v>1508</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>1156</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B25" s="96" t="s">
-        <v>826</v>
-      </c>
-      <c r="C25" s="96">
-        <v>2016</v>
-      </c>
-      <c r="D25" s="96" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="96" t="s">
-        <v>184</v>
-      </c>
-      <c r="F25" s="101" t="b">
-        <v>1</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H25" s="96" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="96" t="s">
-        <v>693</v>
-      </c>
-      <c r="J25" s="96" t="s">
-        <v>1525</v>
-      </c>
-      <c r="K25" s="93" t="s">
-        <v>827</v>
-      </c>
-      <c r="L25" s="93" t="s">
-        <v>828</v>
-      </c>
-      <c r="M25" s="93" t="s">
-        <v>19</v>
-      </c>
-      <c r="N25" s="103" t="s">
-        <v>833</v>
-      </c>
-      <c r="O25" s="93" t="s">
-        <v>829</v>
-      </c>
-      <c r="P25" s="94">
-        <v>40.353888888</v>
-      </c>
-      <c r="Q25" s="94">
-        <v>-105.583611111</v>
-      </c>
-      <c r="R25" s="95">
-        <v>2</v>
-      </c>
-      <c r="S25" s="95" t="s">
-        <v>830</v>
-      </c>
-      <c r="T25" s="96" t="s">
-        <v>22</v>
-      </c>
-      <c r="U25" s="96" t="s">
-        <v>22</v>
-      </c>
-      <c r="V25" s="96" t="s">
-        <v>831</v>
+      <c r="U25" t="s">
+        <v>1611</v>
+      </c>
+      <c r="V25" t="s">
+        <v>1612</v>
       </c>
       <c r="W25" t="s">
-        <v>1405</v>
+        <v>1426</v>
       </c>
       <c r="X25" t="s">
-        <v>1422</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>1423</v>
-      </c>
-      <c r="Z25" s="96" t="s">
-        <v>1476</v>
-      </c>
-      <c r="AA25" s="96" t="s">
-        <v>1500</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>1156</v>
+        <v>1613</v>
       </c>
       <c r="AD25" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B26" t="s">
-        <v>711</v>
-      </c>
-      <c r="C26">
-        <v>2015</v>
+        <v>881</v>
+      </c>
+      <c r="B26">
+        <v>2012</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" t="s">
-        <v>96</v>
+        <v>223</v>
+      </c>
+      <c r="E26" s="11" t="b">
+        <v>1</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>669</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>1101</v>
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
       </c>
       <c r="H26" t="s">
-        <v>17</v>
+        <v>785</v>
       </c>
       <c r="I26" t="s">
-        <v>785</v>
-      </c>
-      <c r="J26" s="96" t="s">
-        <v>1526</v>
+        <v>1515</v>
+      </c>
+      <c r="J26" t="s">
+        <v>882</v>
       </c>
       <c r="M26" t="s">
-        <v>19</v>
-      </c>
-      <c r="O26" t="s">
-        <v>708</v>
+        <v>883</v>
+      </c>
+      <c r="N26" t="s">
+        <v>884</v>
+      </c>
+      <c r="O26">
+        <v>38.896382000000003</v>
       </c>
       <c r="P26">
-        <v>40.033332999999999</v>
+        <v>-120.041629</v>
       </c>
       <c r="Q26">
-        <v>-105.416667</v>
-      </c>
-      <c r="R26">
-        <v>3</v>
-      </c>
-      <c r="S26" t="s">
-        <v>709</v>
+        <v>2</v>
       </c>
       <c r="T26" t="s">
         <v>22</v>
       </c>
       <c r="U26" t="s">
-        <v>22</v>
+        <v>887</v>
       </c>
       <c r="V26" t="s">
-        <v>710</v>
+        <v>1401</v>
       </c>
       <c r="W26" t="s">
-        <v>1382</v>
+        <v>1424</v>
       </c>
       <c r="X26" t="s">
-        <v>1422</v>
+        <v>1498</v>
       </c>
       <c r="Y26" t="s">
-        <v>1435</v>
-      </c>
-      <c r="Z26" s="96" t="s">
-        <v>1477</v>
-      </c>
-      <c r="AA26" s="96"/>
+        <v>1457</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>1156</v>
+      </c>
       <c r="AC26" t="s">
-        <v>1156</v>
+        <v>1243</v>
       </c>
       <c r="AD26" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE26" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B27" t="s">
-        <v>848</v>
-      </c>
-      <c r="C27">
-        <v>2018</v>
+        <v>1091</v>
+      </c>
+      <c r="B27">
+        <v>2021</v>
+      </c>
+      <c r="C27" t="s">
+        <v>412</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" t="s">
-        <v>198</v>
-      </c>
-      <c r="F27" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="96" t="s">
-        <v>1526</v>
+        <v>413</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" t="s">
+        <v>785</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1527</v>
+      </c>
+      <c r="J27" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" t="s">
+        <v>1094</v>
+      </c>
+      <c r="L27" t="s">
+        <v>1092</v>
+      </c>
+      <c r="M27" t="s">
+        <v>1093</v>
       </c>
       <c r="N27" t="s">
-        <v>849</v>
-      </c>
-      <c r="O27" t="s">
-        <v>1377</v>
+        <v>1096</v>
+      </c>
+      <c r="O27">
+        <v>40.262369999999997</v>
       </c>
       <c r="P27">
-        <v>40.050263700000002</v>
-      </c>
-      <c r="Q27">
-        <v>-105.3666599</v>
-      </c>
-      <c r="R27">
-        <v>5</v>
-      </c>
-      <c r="T27" t="s">
-        <v>22</v>
+        <v>-105.59080400000001</v>
+      </c>
+      <c r="Q27" s="100">
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="U27" t="s">
-        <v>22</v>
+        <v>1095</v>
       </c>
       <c r="V27" t="s">
-        <v>850</v>
+        <v>1382</v>
       </c>
       <c r="W27" t="s">
-        <v>1401</v>
+        <v>1436</v>
       </c>
       <c r="X27" t="s">
-        <v>1422</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>1425</v>
+        <v>1437</v>
+      </c>
+      <c r="Y27" s="96" t="s">
+        <v>1156</v>
       </c>
       <c r="Z27" s="96" t="s">
-        <v>1477</v>
-      </c>
-      <c r="AA27" s="96" t="s">
-        <v>1500</v>
+        <v>1493</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>1156</v>
       </c>
       <c r="AC27" t="s">
-        <v>1156</v>
+        <v>1490</v>
       </c>
       <c r="AD27" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE27" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B28" t="s">
-        <v>871</v>
-      </c>
-      <c r="C28">
-        <v>2020</v>
+        <v>689</v>
+      </c>
+      <c r="B28">
+        <v>2011</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" t="s">
-        <v>219</v>
-      </c>
-      <c r="F28" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>3</v>
+        <v>85</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
       </c>
       <c r="H28" t="s">
-        <v>17</v>
+        <v>693</v>
       </c>
       <c r="I28" t="s">
-        <v>785</v>
-      </c>
-      <c r="J28" s="96" t="s">
-        <v>1527</v>
+        <v>1511</v>
+      </c>
+      <c r="J28" t="s">
+        <v>24</v>
       </c>
       <c r="K28" t="s">
-        <v>873</v>
-      </c>
-      <c r="N28" s="104" t="s">
-        <v>874</v>
-      </c>
-      <c r="O28" t="s">
-        <v>875</v>
+        <v>694</v>
+      </c>
+      <c r="L28" t="s">
+        <v>19</v>
+      </c>
+      <c r="N28" t="s">
+        <v>695</v>
+      </c>
+      <c r="O28">
+        <v>39.177683000000002</v>
       </c>
       <c r="P28">
-        <v>38.512031</v>
+        <v>-105.26552</v>
       </c>
       <c r="Q28">
-        <v>-122.097228</v>
-      </c>
-      <c r="R28">
-        <v>3</v>
-      </c>
-      <c r="S28" t="s">
-        <v>876</v>
+        <v>5</v>
+      </c>
+      <c r="R28" t="s">
+        <v>690</v>
       </c>
       <c r="T28" t="s">
         <v>22</v>
       </c>
       <c r="U28" t="s">
+        <v>696</v>
+      </c>
+      <c r="V28" t="s">
+        <v>1382</v>
+      </c>
+      <c r="W28" t="s">
+        <v>1439</v>
+      </c>
+      <c r="X28" t="s">
+        <v>1438</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>1156</v>
+      </c>
+      <c r="Z28" s="115" t="s">
+        <v>1493</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>1244</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>1619</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>762</v>
+      </c>
+      <c r="B29">
+        <v>2019</v>
+      </c>
+      <c r="C29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="102" t="s">
+        <v>785</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1511</v>
+      </c>
+      <c r="J29" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" t="s">
+        <v>694</v>
+      </c>
+      <c r="L29" t="s">
+        <v>19</v>
+      </c>
+      <c r="N29" t="s">
+        <v>721</v>
+      </c>
+      <c r="O29">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="P29">
+        <v>-105.26552</v>
+      </c>
+      <c r="S29" t="s">
         <v>22</v>
       </c>
-      <c r="V28" t="s">
-        <v>872</v>
-      </c>
-      <c r="W28" t="s">
+      <c r="T29" t="s">
+        <v>22</v>
+      </c>
+      <c r="U29" t="s">
+        <v>1108</v>
+      </c>
+      <c r="V29" t="s">
+        <v>1382</v>
+      </c>
+      <c r="W29" t="s">
+        <v>1440</v>
+      </c>
+      <c r="X29" t="s">
+        <v>1441</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>1156</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>1494</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>924</v>
+      </c>
+      <c r="B30">
+        <v>2019</v>
+      </c>
+      <c r="C30" t="s">
+        <v>254</v>
+      </c>
+      <c r="D30" t="s">
+        <v>255</v>
+      </c>
+      <c r="E30" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" t="s">
+        <v>785</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1513</v>
+      </c>
+      <c r="J30" t="s">
+        <v>873</v>
+      </c>
+      <c r="M30" t="s">
+        <v>926</v>
+      </c>
+      <c r="N30" t="s">
+        <v>927</v>
+      </c>
+      <c r="O30">
+        <v>37.534036999999998</v>
+      </c>
+      <c r="P30">
+        <v>-119.389139</v>
+      </c>
+      <c r="S30" t="s">
+        <v>22</v>
+      </c>
+      <c r="T30" t="s">
+        <v>22</v>
+      </c>
+      <c r="U30" t="s">
+        <v>925</v>
+      </c>
+      <c r="V30" t="s">
         <v>1401</v>
       </c>
-      <c r="X28" t="s">
-        <v>1422</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>1428</v>
-      </c>
-      <c r="Z28" s="96" t="s">
-        <v>1478</v>
-      </c>
-      <c r="AA28" s="96"/>
-      <c r="AC28" t="s">
+      <c r="W30" t="s">
+        <v>1426</v>
+      </c>
+      <c r="X30" t="s">
+        <v>1427</v>
+      </c>
+      <c r="Y30" t="s">
         <v>1156</v>
       </c>
-      <c r="AD28" t="s">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="Z30" s="116" t="s">
+        <v>1495</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>1483</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>1620</v>
+      </c>
+      <c r="AE30" t="s">
         <v>1243</v>
       </c>
-      <c r="B29" t="s">
-        <v>1232</v>
-      </c>
-      <c r="C29">
-        <v>2012</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1451</v>
-      </c>
-      <c r="J29" s="96" t="s">
-        <v>1526</v>
-      </c>
-      <c r="X29" t="s">
-        <v>1422</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>1452</v>
-      </c>
-      <c r="Z29" s="96" t="s">
-        <v>1479</v>
-      </c>
-      <c r="AA29" s="96"/>
-      <c r="AC29" t="s">
-        <v>1156</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" ht="19" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C30">
-        <v>2016</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1447</v>
-      </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="J30" t="s">
-        <v>1511</v>
-      </c>
-      <c r="M30" s="46"/>
-      <c r="W30" t="s">
-        <v>1390</v>
-      </c>
-      <c r="X30" t="s">
-        <v>1430</v>
-      </c>
-      <c r="Y30" s="112" t="s">
-        <v>1448</v>
-      </c>
-      <c r="Z30" s="96" t="s">
-        <v>1156</v>
-      </c>
-      <c r="AA30" s="96" t="s">
-        <v>1493</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>1156</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B31" t="s">
-        <v>765</v>
-      </c>
-      <c r="C31">
+        <v>948</v>
+      </c>
+      <c r="B31">
         <v>2015</v>
       </c>
+      <c r="C31" t="s">
+        <v>267</v>
+      </c>
       <c r="D31" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" t="s">
-        <v>130</v>
+        <v>268</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>669</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>669</v>
-      </c>
-      <c r="G31" s="11" t="s">
         <v>1101</v>
       </c>
       <c r="H31" t="s">
-        <v>17</v>
+        <v>785</v>
       </c>
       <c r="I31" t="s">
-        <v>785</v>
-      </c>
-      <c r="J31" t="s">
-        <v>1513</v>
-      </c>
-      <c r="K31" s="108" t="s">
-        <v>770</v>
-      </c>
-      <c r="L31" s="108" t="s">
-        <v>771</v>
-      </c>
-      <c r="M31" s="108" t="s">
-        <v>19</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31" s="108" t="s">
-        <v>767</v>
-      </c>
-      <c r="P31" s="109">
-        <v>40.7159999</v>
-      </c>
-      <c r="Q31" s="109">
-        <v>-105.23308400000001</v>
-      </c>
-      <c r="R31" s="110">
-        <v>0.5</v>
-      </c>
-      <c r="S31" s="110" t="s">
-        <v>768</v>
+        <v>1528</v>
+      </c>
+      <c r="M31" t="s">
+        <v>930</v>
+      </c>
+      <c r="N31" t="s">
+        <v>949</v>
+      </c>
+      <c r="O31">
+        <v>44.578524999999999</v>
+      </c>
+      <c r="P31">
+        <v>-115.66604</v>
+      </c>
+      <c r="Q31">
+        <v>4</v>
       </c>
       <c r="T31" t="s">
         <v>22</v>
       </c>
+      <c r="U31" t="s">
+        <v>950</v>
+      </c>
       <c r="V31" t="s">
-        <v>769</v>
+        <v>1386</v>
       </c>
       <c r="W31" t="s">
-        <v>1382</v>
+        <v>1426</v>
       </c>
       <c r="X31" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="Y31" t="s">
-        <v>1442</v>
-      </c>
-      <c r="Z31" s="96" t="s">
         <v>1156</v>
       </c>
-      <c r="AA31" s="96" t="s">
-        <v>1493</v>
+      <c r="Z31" s="116" t="s">
+        <v>1496</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>1156</v>
       </c>
       <c r="AC31" t="s">
-        <v>1156</v>
+        <v>1244</v>
       </c>
       <c r="AD31" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="AE31" t="s">
         <v>1243</v>
       </c>
-      <c r="B32" t="s">
-        <v>789</v>
-      </c>
-      <c r="C32">
-        <v>2014</v>
-      </c>
-      <c r="D32" t="s">
-        <v>142</v>
-      </c>
-      <c r="E32" t="s">
-        <v>143</v>
-      </c>
-      <c r="F32" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>3</v>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A32" s="93" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B32">
+        <v>1973</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1587</v>
       </c>
       <c r="I32" t="s">
-        <v>785</v>
+        <v>1588</v>
       </c>
       <c r="J32" t="s">
-        <v>1511</v>
-      </c>
-      <c r="K32" s="96" t="s">
-        <v>770</v>
-      </c>
-      <c r="L32" s="96" t="s">
-        <v>771</v>
-      </c>
-      <c r="M32" s="96" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" t="s">
+        <v>1589</v>
+      </c>
+      <c r="L32" t="s">
         <v>19</v>
       </c>
-      <c r="N32" s="96"/>
-      <c r="O32" s="96" t="s">
-        <v>767</v>
-      </c>
-      <c r="P32">
-        <v>40.702464999999997</v>
+      <c r="M32" t="s">
+        <v>883</v>
+      </c>
+      <c r="N32" t="s">
+        <v>1590</v>
+      </c>
+      <c r="O32" s="122">
+        <v>48.102674999999998</v>
+      </c>
+      <c r="P32" s="122">
+        <v>-120.35232000000001</v>
       </c>
       <c r="Q32">
-        <v>-105.241646</v>
-      </c>
-      <c r="R32">
-        <v>1</v>
-      </c>
-      <c r="S32" t="s">
-        <v>790</v>
+        <v>2</v>
+      </c>
+      <c r="R32" t="s">
+        <v>1591</v>
       </c>
       <c r="T32" t="s">
         <v>22</v>
       </c>
       <c r="U32" t="s">
-        <v>22</v>
+        <v>1592</v>
       </c>
       <c r="V32" t="s">
-        <v>791</v>
+        <v>1401</v>
       </c>
       <c r="W32" t="s">
-        <v>1401</v>
+        <v>1426</v>
       </c>
       <c r="X32" t="s">
-        <v>1430</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>1429</v>
-      </c>
-      <c r="Z32" s="96" t="s">
-        <v>1156</v>
-      </c>
-      <c r="AA32" s="96" t="s">
-        <v>1493</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>1156</v>
+        <v>1593</v>
       </c>
       <c r="AD32" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="33" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+      <c r="AE32" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>871</v>
+      </c>
+      <c r="B33">
+        <v>2020</v>
+      </c>
+      <c r="C33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" t="s">
+        <v>219</v>
+      </c>
+      <c r="E33" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" t="s">
+        <v>785</v>
+      </c>
+      <c r="I33" s="96" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J33" t="s">
+        <v>873</v>
+      </c>
+      <c r="M33" s="104" t="s">
+        <v>874</v>
+      </c>
+      <c r="N33" t="s">
+        <v>875</v>
+      </c>
+      <c r="O33">
+        <v>38.512031</v>
+      </c>
+      <c r="P33">
+        <v>-122.097228</v>
+      </c>
+      <c r="Q33">
+        <v>3</v>
+      </c>
+      <c r="R33" t="s">
+        <v>876</v>
+      </c>
+      <c r="S33" t="s">
+        <v>22</v>
+      </c>
+      <c r="T33" t="s">
+        <v>22</v>
+      </c>
+      <c r="U33" t="s">
+        <v>872</v>
+      </c>
+      <c r="V33" t="s">
+        <v>1401</v>
+      </c>
+      <c r="W33" t="s">
+        <v>1422</v>
+      </c>
+      <c r="X33" t="s">
+        <v>1428</v>
+      </c>
+      <c r="Y33" s="96" t="s">
+        <v>1477</v>
+      </c>
+      <c r="Z33" s="96"/>
+      <c r="AB33" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>1487</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>1485</v>
+      </c>
+      <c r="AE33" t="s">
         <v>1243</v>
       </c>
-      <c r="B33" t="s">
-        <v>909</v>
-      </c>
-      <c r="C33">
-        <v>2008</v>
-      </c>
-      <c r="D33" t="s">
-        <v>246</v>
-      </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="J33" t="s">
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>765</v>
+      </c>
+      <c r="B34">
+        <v>2015</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" t="s">
+        <v>785</v>
+      </c>
+      <c r="I34" t="s">
         <v>1512</v>
       </c>
-      <c r="L33" s="97"/>
-      <c r="O33" s="98"/>
-      <c r="W33" t="s">
-        <v>1385</v>
-      </c>
-      <c r="X33" t="s">
-        <v>1436</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>1446</v>
-      </c>
-      <c r="Z33" s="96" t="s">
+      <c r="J34" s="108" t="s">
+        <v>770</v>
+      </c>
+      <c r="K34" s="108" t="s">
+        <v>771</v>
+      </c>
+      <c r="L34" s="108" t="s">
+        <v>19</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34" s="108" t="s">
+        <v>767</v>
+      </c>
+      <c r="O34" s="109">
+        <v>40.7159999</v>
+      </c>
+      <c r="P34" s="109">
+        <v>-105.23308400000001</v>
+      </c>
+      <c r="Q34" s="110">
+        <v>0.5</v>
+      </c>
+      <c r="R34" s="110" t="s">
+        <v>768</v>
+      </c>
+      <c r="S34" t="s">
+        <v>22</v>
+      </c>
+      <c r="U34" t="s">
+        <v>769</v>
+      </c>
+      <c r="V34" t="s">
+        <v>1382</v>
+      </c>
+      <c r="W34" t="s">
+        <v>1430</v>
+      </c>
+      <c r="X34" t="s">
+        <v>1442</v>
+      </c>
+      <c r="Y34" s="96" t="s">
         <v>1156</v>
       </c>
-      <c r="AA33" s="96" t="s">
-        <v>1494</v>
-      </c>
-      <c r="AC33" t="s">
+      <c r="Z34" s="96" t="s">
+        <v>1492</v>
+      </c>
+      <c r="AB34" t="s">
         <v>1156</v>
       </c>
-      <c r="AD33" t="s">
-        <v>1491</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="AC34" t="s">
         <v>1243</v>
       </c>
-      <c r="B34" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C34">
-        <v>2021</v>
-      </c>
-      <c r="D34" t="s">
-        <v>412</v>
-      </c>
-      <c r="E34" t="s">
-        <v>413</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>669</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>1101</v>
-      </c>
-      <c r="H34" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="AD34" t="s">
+        <v>1617</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B35">
+        <v>2012</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1451</v>
+      </c>
+      <c r="I35" s="96" t="s">
+        <v>1525</v>
+      </c>
+      <c r="W35" t="s">
+        <v>1422</v>
+      </c>
+      <c r="X35" t="s">
+        <v>1452</v>
+      </c>
+      <c r="Y35" s="96" t="s">
+        <v>1478</v>
+      </c>
+      <c r="Z35" s="96"/>
+      <c r="AB35" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>1488</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>1621</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>789</v>
+      </c>
+      <c r="B36">
+        <v>2014</v>
+      </c>
+      <c r="C36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H36" t="s">
         <v>785</v>
       </c>
-      <c r="J34" t="s">
-        <v>1528</v>
-      </c>
-      <c r="K34" t="s">
-        <v>24</v>
-      </c>
-      <c r="L34" t="s">
-        <v>1094</v>
-      </c>
-      <c r="M34" t="s">
-        <v>1092</v>
-      </c>
-      <c r="N34" t="s">
-        <v>1093</v>
-      </c>
-      <c r="O34" t="s">
-        <v>1096</v>
-      </c>
-      <c r="P34">
-        <v>40.262369999999997</v>
-      </c>
-      <c r="Q34">
-        <v>-105.59080400000001</v>
-      </c>
-      <c r="R34" s="100">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="V34" t="s">
-        <v>1095</v>
-      </c>
-      <c r="W34" t="s">
-        <v>1382</v>
-      </c>
-      <c r="X34" t="s">
-        <v>1436</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>1437</v>
-      </c>
-      <c r="Z34" s="96" t="s">
+      <c r="I36" t="s">
+        <v>1510</v>
+      </c>
+      <c r="J36" s="96" t="s">
+        <v>770</v>
+      </c>
+      <c r="K36" s="96" t="s">
+        <v>771</v>
+      </c>
+      <c r="L36" s="96" t="s">
+        <v>19</v>
+      </c>
+      <c r="M36" s="96"/>
+      <c r="N36" s="96" t="s">
+        <v>767</v>
+      </c>
+      <c r="O36">
+        <v>40.702464999999997</v>
+      </c>
+      <c r="P36">
+        <v>-105.241646</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36" t="s">
+        <v>790</v>
+      </c>
+      <c r="S36" t="s">
+        <v>22</v>
+      </c>
+      <c r="T36" t="s">
+        <v>22</v>
+      </c>
+      <c r="U36" t="s">
+        <v>791</v>
+      </c>
+      <c r="V36" t="s">
+        <v>1401</v>
+      </c>
+      <c r="W36" t="s">
+        <v>1430</v>
+      </c>
+      <c r="X36" t="s">
+        <v>1429</v>
+      </c>
+      <c r="Y36" s="96" t="s">
         <v>1156</v>
       </c>
-      <c r="AA34" s="96" t="s">
-        <v>1494</v>
-      </c>
-      <c r="AC34" t="s">
+      <c r="Z36" s="96" t="s">
+        <v>1492</v>
+      </c>
+      <c r="AB36" t="s">
         <v>1156</v>
       </c>
-      <c r="AD34" t="s">
-        <v>1491</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="AC36" t="s">
         <v>1243</v>
       </c>
-      <c r="B35" s="93" t="s">
-        <v>1587</v>
-      </c>
-      <c r="C35">
-        <v>1973</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1588</v>
-      </c>
-      <c r="J35" t="s">
-        <v>1589</v>
-      </c>
-      <c r="K35" t="s">
-        <v>24</v>
-      </c>
-      <c r="L35" t="s">
-        <v>1590</v>
-      </c>
-      <c r="M35" t="s">
-        <v>19</v>
-      </c>
-      <c r="N35" t="s">
-        <v>883</v>
-      </c>
-      <c r="O35" t="s">
-        <v>1591</v>
-      </c>
-      <c r="P35" s="122">
-        <v>48.102674999999998</v>
-      </c>
-      <c r="Q35" s="122">
-        <v>-120.35232000000001</v>
-      </c>
-      <c r="R35">
-        <v>2</v>
-      </c>
-      <c r="S35" t="s">
-        <v>1592</v>
-      </c>
-      <c r="U35" t="s">
-        <v>22</v>
-      </c>
-      <c r="V35" t="s">
-        <v>1593</v>
-      </c>
-      <c r="W35" t="s">
-        <v>1401</v>
-      </c>
-      <c r="X35" t="s">
-        <v>1426</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>1596</v>
-      </c>
-      <c r="C36">
-        <v>1989</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1597</v>
-      </c>
-      <c r="J36" t="s">
-        <v>1604</v>
-      </c>
-      <c r="K36" t="s">
-        <v>1598</v>
-      </c>
-      <c r="L36" t="s">
-        <v>1599</v>
-      </c>
-      <c r="N36" t="s">
-        <v>1601</v>
-      </c>
-      <c r="O36" t="s">
-        <v>1600</v>
-      </c>
-      <c r="P36" s="94">
-        <v>49.704340000000002</v>
-      </c>
-      <c r="Q36" s="94">
-        <v>-116.118877</v>
-      </c>
-      <c r="R36">
-        <v>3</v>
-      </c>
-      <c r="U36" t="s">
-        <v>22</v>
-      </c>
-      <c r="V36" t="s">
-        <v>1603</v>
-      </c>
-      <c r="X36" t="s">
-        <v>1422</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>1602</v>
+      <c r="AD36" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>1243</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y34">
-    <sortCondition ref="X2:X34"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AD36">
+    <sortCondition ref="B2:B36"/>
   </sortState>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G7 G19:G25" xr:uid="{8B21EFF3-D61C-024F-A87C-4FC0F83918E4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F7 F19:F24" xr:uid="{8B21EFF3-D61C-024F-A87C-4FC0F83918E4}">
       <formula1>"No fire event, no DOC/NO3, No river, Prescribed Burn, Maybe"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G28:G33 G8:G18" xr:uid="{0E623121-76BB-5545-A51E-3CA5AE425338}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F27:F32 F8:F18" xr:uid="{0E623121-76BB-5545-A51E-3CA5AE425338}">
       <formula1>"Included, No fire event, no DOC/NO3, No river, Prescribed Burn, Wrong study design, Maybe"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G26:G27" xr:uid="{6293A447-FF72-D446-A29F-02B4F97196AE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F25:F26" xr:uid="{6293A447-FF72-D446-A29F-02B4F97196AE}">
       <formula1>"No fire event, no DOC/NO3, No river, Prescribed Burn, Wrong study design, Maybe"</formula1>
     </dataValidation>
   </dataValidations>
@@ -32930,7 +33076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C183780A-8505-B94B-8F3A-3F461C5D9C3A}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -32944,16 +33090,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B1" s="105" t="s">
         <v>1534</v>
       </c>
-      <c r="B1" s="105" t="s">
-        <v>1535</v>
-      </c>
       <c r="C1" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="D1" s="105" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -32961,10 +33107,10 @@
         <v>935</v>
       </c>
       <c r="B2" s="118" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="D2" s="117" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -32972,7 +33118,7 @@
         <v>1174</v>
       </c>
       <c r="B3" s="118" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="D3" s="60" t="s">
         <v>681</v>
@@ -32983,10 +33129,10 @@
         <v>681</v>
       </c>
       <c r="B4" s="119" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="C4" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="D4" t="s">
         <v>1413</v>
@@ -32997,10 +33143,10 @@
         <v>681</v>
       </c>
       <c r="B5" s="119" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="C5" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="D5" t="s">
         <v>1443</v>
@@ -33011,7 +33157,7 @@
         <v>1404</v>
       </c>
       <c r="B6" s="118" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="D6" t="s">
         <v>928</v>
@@ -33022,10 +33168,10 @@
         <v>1413</v>
       </c>
       <c r="B7" s="120" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="C7" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="D7" t="s">
         <v>727</v>
@@ -33036,10 +33182,10 @@
         <v>835</v>
       </c>
       <c r="B8" s="119" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="C8" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="D8" t="s">
         <v>1231</v>
@@ -33050,10 +33196,10 @@
         <v>1001</v>
       </c>
       <c r="B9" s="119" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="C9" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="D9" t="s">
         <v>1233</v>
@@ -33064,10 +33210,10 @@
         <v>982</v>
       </c>
       <c r="B10" s="119" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="C10" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="D10" s="96" t="s">
         <v>750</v>
@@ -33078,10 +33224,10 @@
         <v>1443</v>
       </c>
       <c r="B11" s="119" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="C11" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="D11" s="96" t="s">
         <v>826</v>
@@ -33092,10 +33238,10 @@
         <v>928</v>
       </c>
       <c r="B12" s="119" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="C12" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="D12" t="s">
         <v>711</v>
@@ -33106,7 +33252,7 @@
         <v>670</v>
       </c>
       <c r="B13" s="118" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="D13" t="s">
         <v>881</v>
@@ -33117,10 +33263,10 @@
         <v>909</v>
       </c>
       <c r="B14" s="123" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="C14" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="D14" t="s">
         <v>762</v>
@@ -33131,7 +33277,7 @@
         <v>1183</v>
       </c>
       <c r="B15" s="118" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="D15" t="s">
         <v>789</v>
@@ -33142,7 +33288,7 @@
         <v>727</v>
       </c>
       <c r="B16" s="118" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -33150,10 +33296,10 @@
         <v>1165</v>
       </c>
       <c r="B17" s="118" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="D17" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -33161,13 +33307,13 @@
         <v>1231</v>
       </c>
       <c r="B18" s="119" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="C18" t="s">
         <v>700</v>
       </c>
       <c r="D18" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -33175,10 +33321,10 @@
         <v>720</v>
       </c>
       <c r="B19" s="119" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="C19" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -33186,10 +33332,10 @@
         <v>1233</v>
       </c>
       <c r="B20" s="119" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="C20" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -33197,7 +33343,7 @@
         <v>750</v>
       </c>
       <c r="B21" s="118" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -33205,7 +33351,7 @@
         <v>826</v>
       </c>
       <c r="B22" s="118" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -33213,7 +33359,7 @@
         <v>711</v>
       </c>
       <c r="B23" s="118" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -33221,10 +33367,10 @@
         <v>848</v>
       </c>
       <c r="B24" s="121" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="C24" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -33232,7 +33378,7 @@
         <v>881</v>
       </c>
       <c r="B25" s="118" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -33240,10 +33386,10 @@
         <v>1091</v>
       </c>
       <c r="B26" s="119" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="C26" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -33251,7 +33397,7 @@
         <v>689</v>
       </c>
       <c r="B27" s="118" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -33259,10 +33405,10 @@
         <v>762</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="C28" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -33270,10 +33416,10 @@
         <v>924</v>
       </c>
       <c r="B29" s="119" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="C29" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -33281,10 +33427,10 @@
         <v>948</v>
       </c>
       <c r="B30" s="119" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="C30" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -33292,10 +33438,10 @@
         <v>871</v>
       </c>
       <c r="B31" s="123" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C31" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -33303,10 +33449,10 @@
         <v>765</v>
       </c>
       <c r="B32" s="119" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="C32" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -33314,10 +33460,10 @@
         <v>1232</v>
       </c>
       <c r="B33" s="119" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="C33" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -33325,31 +33471,31 @@
         <v>789</v>
       </c>
       <c r="B34" s="119" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="C34" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B35" s="119" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="C35" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B36" s="119" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="C36" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B37" s="118" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
   </sheetData>

--- a/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
+++ b/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-meta/FireMeta_Rproj/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDA4D67-DD13-9F4B-9010-2DAF2910B7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E2221C-FBEF-F948-BDF3-567204A82F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="0" windowWidth="38400" windowHeight="24000" activeTab="4" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6680" uniqueCount="1622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6680" uniqueCount="1621">
   <si>
     <t>Study</t>
   </si>
@@ -5037,9 +5037,6 @@
   </si>
   <si>
     <t>Y_mean_of_burn_reference</t>
-  </si>
-  <si>
-    <t>N_Cache_la_Poudre</t>
   </si>
   <si>
     <t>N_gave_a_range</t>
@@ -30383,9 +30380,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E83DAFB-3D69-1A4C-8997-3EF8B4236F27}">
   <dimension ref="A1:AE36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD37" sqref="AD37"/>
+      <selection pane="topRight" activeCell="AD35" sqref="AD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31772,7 +31769,7 @@
         <v>1489</v>
       </c>
       <c r="AD19" t="s">
-        <v>1617</v>
+        <v>1243</v>
       </c>
       <c r="AE19" t="s">
         <v>1243</v>
@@ -31812,7 +31809,7 @@
         <v>1243</v>
       </c>
       <c r="AD20" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="AE20" t="s">
         <v>1243</v>
@@ -32451,7 +32448,7 @@
         <v>1244</v>
       </c>
       <c r="AD28" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="AE28" t="s">
         <v>1243</v>
@@ -32614,7 +32611,7 @@
         <v>1483</v>
       </c>
       <c r="AD30" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="AE30" t="s">
         <v>1243</v>
@@ -32923,7 +32920,7 @@
         <v>1243</v>
       </c>
       <c r="AD34" t="s">
-        <v>1617</v>
+        <v>1243</v>
       </c>
       <c r="AE34" t="s">
         <v>1243</v>
@@ -32959,7 +32956,7 @@
         <v>1488</v>
       </c>
       <c r="AD35" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="AE35" t="s">
         <v>1243</v>

--- a/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
+++ b/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-meta/FireMeta_Rproj/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E2221C-FBEF-F948-BDF3-567204A82F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6088A1-1B05-B84F-ABF4-7A19CE6BCDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="0" windowWidth="38400" windowHeight="24000" activeTab="4" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="4" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
   </bookViews>
   <sheets>
     <sheet name="Study_info" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6680" uniqueCount="1621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6733" uniqueCount="1627">
   <si>
     <t>Study</t>
   </si>
@@ -5049,6 +5049,24 @@
   </si>
   <si>
     <t>N_Fourmile_Creek</t>
+  </si>
+  <si>
+    <t>Sampling_Resolution</t>
+  </si>
+  <si>
+    <t>Sampling_exact_days</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>N_pre_post</t>
+  </si>
+  <si>
+    <t>N_Hampton_Has</t>
+  </si>
+  <si>
+    <t>N_but_can_extract</t>
   </si>
 </sst>
 </file>
@@ -5282,7 +5300,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5349,6 +5367,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -5363,7 +5387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -5530,6 +5554,9 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -30378,11 +30405,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E83DAFB-3D69-1A4C-8997-3EF8B4236F27}">
-  <dimension ref="A1:AE36"/>
+  <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD35" sqref="AD35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="X1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AF35" sqref="AF35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30395,10 +30422,10 @@
     <col min="24" max="24" width="37.1640625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="20.5" customWidth="1"/>
     <col min="31" max="31" width="4" customWidth="1"/>
-    <col min="32" max="32" width="4.5" customWidth="1"/>
+    <col min="32" max="32" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -30492,8 +30519,14 @@
       <c r="AE1" s="6" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF1" s="6" t="s">
+        <v>1621</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>935</v>
       </c>
@@ -30569,8 +30602,11 @@
       <c r="AE2" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AG2" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1174</v>
       </c>
@@ -30652,8 +30688,14 @@
       <c r="AE3" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF3" t="s">
+        <v>1488</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="60" t="s">
         <v>681</v>
       </c>
@@ -30706,8 +30748,11 @@
       <c r="AE4" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AG4" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>681</v>
       </c>
@@ -30792,8 +30837,14 @@
       <c r="AE5" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF5" s="124" t="s">
+        <v>1488</v>
+      </c>
+      <c r="AG5" s="124" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1404</v>
       </c>
@@ -30875,8 +30926,14 @@
       <c r="AE6" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF6" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1413</v>
       </c>
@@ -30961,8 +31018,11 @@
       <c r="AE7" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AG7" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>835</v>
       </c>
@@ -31038,8 +31098,14 @@
       <c r="AE8" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="AF8" t="s">
+        <v>1487</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1001</v>
       </c>
@@ -31121,8 +31187,14 @@
       <c r="AE9" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="124" t="s">
+        <v>1488</v>
+      </c>
+      <c r="AG9" s="124" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>982</v>
       </c>
@@ -31198,8 +31270,14 @@
       <c r="AE10" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1443</v>
       </c>
@@ -31244,8 +31322,11 @@
       <c r="AE11" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AG11" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>928</v>
       </c>
@@ -31333,8 +31414,11 @@
       <c r="AE12" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AG12" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1595</v>
       </c>
@@ -31389,8 +31473,11 @@
       <c r="AE13" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AG13" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>670</v>
       </c>
@@ -31435,8 +31522,11 @@
       <c r="AE14" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="AG14" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>909</v>
       </c>
@@ -31480,8 +31570,14 @@
       <c r="AE15" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="AF15" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="96" t="s">
         <v>1183</v>
       </c>
@@ -31558,8 +31654,14 @@
       <c r="AE16" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF16" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>727</v>
       </c>
@@ -31644,8 +31746,11 @@
       <c r="AE17" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AG17" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1165</v>
       </c>
@@ -31730,8 +31835,11 @@
       <c r="AE18" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="19" spans="1:31" ht="19" x14ac:dyDescent="0.2">
+      <c r="AG18" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1231</v>
       </c>
@@ -31774,8 +31882,14 @@
       <c r="AE19" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF19" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1233</v>
       </c>
@@ -31814,8 +31928,11 @@
       <c r="AE20" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AG20" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="96" t="s">
         <v>750</v>
       </c>
@@ -31904,8 +32021,14 @@
       <c r="AE21" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="124" t="s">
+        <v>1488</v>
+      </c>
+      <c r="AG21" s="124" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" s="96" t="s">
         <v>826</v>
       </c>
@@ -31996,8 +32119,11 @@
       <c r="AE22" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AG22" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>711</v>
       </c>
@@ -32077,8 +32203,11 @@
       <c r="AE23" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AG23" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>848</v>
       </c>
@@ -32151,8 +32280,11 @@
       <c r="AE24" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AG24" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1605</v>
       </c>
@@ -32207,8 +32339,11 @@
       <c r="AD25" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AG25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>881</v>
       </c>
@@ -32284,8 +32419,11 @@
       <c r="AE26" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AG26" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1091</v>
       </c>
@@ -32367,8 +32505,14 @@
       <c r="AE27" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF27" s="124" t="s">
+        <v>1488</v>
+      </c>
+      <c r="AG27" s="124" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>689</v>
       </c>
@@ -32453,8 +32597,14 @@
       <c r="AE28" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="124" t="s">
+        <v>1488</v>
+      </c>
+      <c r="AG28" s="124" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>762</v>
       </c>
@@ -32536,8 +32686,11 @@
       <c r="AE29" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AG29" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>924</v>
       </c>
@@ -32616,8 +32769,14 @@
       <c r="AE30" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF30" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>948</v>
       </c>
@@ -32690,8 +32849,14 @@
       <c r="AE31" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="124" t="s">
+        <v>1488</v>
+      </c>
+      <c r="AG31" s="124" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="93" t="s">
         <v>1586</v>
       </c>
@@ -32752,8 +32917,11 @@
       <c r="AE32" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AG32" s="125" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>871</v>
       </c>
@@ -32836,8 +33004,14 @@
       <c r="AE33" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF33" s="126" t="s">
+        <v>1488</v>
+      </c>
+      <c r="AG33" s="126" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>765</v>
       </c>
@@ -32925,8 +33099,11 @@
       <c r="AE34" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AG34" s="125" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1232</v>
       </c>
@@ -32961,8 +33138,14 @@
       <c r="AE35" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF35" s="126" t="s">
+        <v>1488</v>
+      </c>
+      <c r="AG35" s="126" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>789</v>
       </c>
@@ -33046,6 +33229,9 @@
         <v>1243</v>
       </c>
       <c r="AE36" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AG36" t="s">
         <v>1243</v>
       </c>
     </row>

--- a/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
+++ b/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-meta/FireMeta_Rproj/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6088A1-1B05-B84F-ABF4-7A19CE6BCDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72574A51-8A47-B14B-AE33-1BFB2956E610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="4" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" activeTab="4" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
   </bookViews>
   <sheets>
     <sheet name="Study_info" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6733" uniqueCount="1627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6729" uniqueCount="1625">
   <si>
     <t>Study</t>
   </si>
@@ -5061,12 +5061,6 @@
   </si>
   <si>
     <t>N_pre_post</t>
-  </si>
-  <si>
-    <t>N_Hampton_Has</t>
-  </si>
-  <si>
-    <t>N_but_can_extract</t>
   </si>
 </sst>
 </file>
@@ -5387,7 +5381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -5556,7 +5550,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -30407,9 +30400,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E83DAFB-3D69-1A4C-8997-3EF8B4236F27}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="X1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF35" sqref="AF35"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31187,10 +31180,10 @@
       <c r="AE9" t="s">
         <v>1243</v>
       </c>
-      <c r="AF9" s="124" t="s">
+      <c r="AF9" s="8" t="s">
         <v>1488</v>
       </c>
-      <c r="AG9" s="124" t="s">
+      <c r="AG9" s="8" t="s">
         <v>1244</v>
       </c>
     </row>
@@ -32021,11 +32014,9 @@
       <c r="AE21" t="s">
         <v>1243</v>
       </c>
-      <c r="AF21" s="124" t="s">
-        <v>1488</v>
-      </c>
-      <c r="AG21" s="124" t="s">
-        <v>1625</v>
+      <c r="AF21" s="125"/>
+      <c r="AG21" s="125" t="s">
+        <v>1243</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.2">
@@ -32505,11 +32496,9 @@
       <c r="AE27" t="s">
         <v>1243</v>
       </c>
-      <c r="AF27" s="124" t="s">
-        <v>1488</v>
-      </c>
-      <c r="AG27" s="124" t="s">
-        <v>1626</v>
+      <c r="AF27" s="125"/>
+      <c r="AG27" s="125" t="s">
+        <v>1243</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.2">
@@ -32597,11 +32586,9 @@
       <c r="AE28" t="s">
         <v>1243</v>
       </c>
-      <c r="AF28" s="124" t="s">
-        <v>1488</v>
-      </c>
-      <c r="AG28" s="124" t="s">
-        <v>1244</v>
+      <c r="AF28" s="125"/>
+      <c r="AG28" s="125" t="s">
+        <v>1243</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.2">
@@ -32849,10 +32836,10 @@
       <c r="AE31" t="s">
         <v>1243</v>
       </c>
-      <c r="AF31" s="124" t="s">
+      <c r="AF31" s="8" t="s">
         <v>1488</v>
       </c>
-      <c r="AG31" s="124" t="s">
+      <c r="AG31" s="8" t="s">
         <v>1244</v>
       </c>
     </row>
@@ -32917,7 +32904,7 @@
       <c r="AE32" t="s">
         <v>1243</v>
       </c>
-      <c r="AG32" s="125" t="s">
+      <c r="AG32" t="s">
         <v>1243</v>
       </c>
     </row>
@@ -33004,11 +32991,9 @@
       <c r="AE33" t="s">
         <v>1243</v>
       </c>
-      <c r="AF33" s="126" t="s">
-        <v>1488</v>
-      </c>
-      <c r="AG33" s="126" t="s">
-        <v>1244</v>
+      <c r="AF33" s="125"/>
+      <c r="AG33" s="125" t="s">
+        <v>1243</v>
       </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.2">
@@ -33099,7 +33084,7 @@
       <c r="AE34" t="s">
         <v>1243</v>
       </c>
-      <c r="AG34" s="125" t="s">
+      <c r="AG34" t="s">
         <v>1243</v>
       </c>
     </row>
@@ -33138,10 +33123,10 @@
       <c r="AE35" t="s">
         <v>1243</v>
       </c>
-      <c r="AF35" s="126" t="s">
+      <c r="AF35" s="8" t="s">
         <v>1488</v>
       </c>
-      <c r="AG35" s="126" t="s">
+      <c r="AG35" s="8" t="s">
         <v>1244</v>
       </c>
     </row>

--- a/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
+++ b/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-meta/FireMeta_Rproj/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72574A51-8A47-B14B-AE33-1BFB2956E610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26464C0-C9A9-814C-8FA2-3ACADE87BB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" activeTab="4" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
+    <workbookView xWindow="30240" yWindow="0" windowWidth="38400" windowHeight="24000" activeTab="4" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
   </bookViews>
   <sheets>
     <sheet name="Study_info" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6729" uniqueCount="1625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6741" uniqueCount="1630">
   <si>
     <t>Study</t>
   </si>
@@ -5062,6 +5062,21 @@
   <si>
     <t>N_pre_post</t>
   </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0257733</t>
+  </si>
+  <si>
+    <t>Utah Lake</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>Can only find TOC data to extract or take from the supplemental</t>
+  </si>
+  <si>
+    <t>Pole Creek Fire Complex</t>
+  </si>
 </sst>
 </file>
 
@@ -5070,7 +5085,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5292,6 +5307,11 @@
       <color rgb="FF1B1B1B"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="13">
@@ -5549,7 +5569,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5868,8 +5888,8 @@
   <dimension ref="A1:AQ321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30398,19 +30418,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E83DAFB-3D69-1A4C-8997-3EF8B4236F27}">
-  <dimension ref="A1:AG36"/>
+  <dimension ref="A1:AG37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X8" sqref="X8"/>
+      <pane xSplit="1" topLeftCell="X1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" customWidth="1"/>
-    <col min="5" max="9" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="10" max="22" width="10.83203125" customWidth="1"/>
+    <col min="5" max="8" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="9" max="22" width="10.83203125" customWidth="1"/>
     <col min="23" max="23" width="9.6640625" customWidth="1"/>
     <col min="24" max="24" width="37.1640625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="20.5" customWidth="1"/>
@@ -30520,7 +30540,7 @@
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="125" t="s">
         <v>935</v>
       </c>
       <c r="B2">
@@ -30600,7 +30620,7 @@
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="125" t="s">
         <v>1174</v>
       </c>
       <c r="B3">
@@ -30689,7 +30709,7 @@
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="125" t="s">
         <v>681</v>
       </c>
       <c r="B4" s="60">
@@ -30746,7 +30766,7 @@
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="125" t="s">
         <v>681</v>
       </c>
       <c r="B5">
@@ -30838,7 +30858,7 @@
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="125" t="s">
         <v>1404</v>
       </c>
       <c r="B6">
@@ -30927,7 +30947,7 @@
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="125" t="s">
         <v>1413</v>
       </c>
       <c r="B7">
@@ -31016,7 +31036,7 @@
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="125" t="s">
         <v>835</v>
       </c>
       <c r="B8">
@@ -31099,7 +31119,7 @@
       </c>
     </row>
     <row r="9" spans="1:33" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="125" t="s">
         <v>1001</v>
       </c>
       <c r="B9">
@@ -31188,7 +31208,7 @@
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="125" t="s">
         <v>982</v>
       </c>
       <c r="B10">
@@ -31271,7 +31291,7 @@
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="125" t="s">
         <v>1443</v>
       </c>
       <c r="B11">
@@ -31320,56 +31340,40 @@
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>928</v>
+      <c r="A12" s="125" t="s">
+        <v>1115</v>
       </c>
       <c r="B12">
-        <v>1998</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>256</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>669</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>1101</v>
-      </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" t="s">
-        <v>785</v>
-      </c>
+        <v>2021</v>
+      </c>
+      <c r="C12" s="96" t="s">
+        <v>422</v>
+      </c>
+      <c r="D12" s="62" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
       <c r="I12" t="s">
-        <v>1521</v>
-      </c>
-      <c r="J12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" t="s">
-        <v>932</v>
-      </c>
-      <c r="M12" t="s">
-        <v>930</v>
+        <v>1629</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>931</v>
-      </c>
-      <c r="O12">
-        <v>44.512999999999998</v>
-      </c>
-      <c r="P12">
-        <v>-109.98</v>
-      </c>
-      <c r="Q12">
-        <v>4</v>
+        <v>1626</v>
+      </c>
+      <c r="O12" s="96">
+        <v>40.133513999999998</v>
+      </c>
+      <c r="P12" s="96">
+        <v>-111.771241</v>
+      </c>
+      <c r="Q12" s="96">
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="R12" t="s">
-        <v>933</v>
+        <v>1627</v>
       </c>
       <c r="S12" t="s">
         <v>22</v>
@@ -31378,32 +31382,13 @@
         <v>22</v>
       </c>
       <c r="U12" t="s">
-        <v>934</v>
+        <v>1628</v>
       </c>
       <c r="V12" t="s">
-        <v>1382</v>
-      </c>
-      <c r="W12" t="s">
-        <v>1422</v>
-      </c>
-      <c r="X12" t="s">
-        <v>1467</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>1468</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>1499</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>1156</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>1243</v>
-      </c>
+        <v>1401</v>
+      </c>
+      <c r="Z12" s="116"/>
+      <c r="AA12" s="62"/>
       <c r="AE12" t="s">
         <v>1243</v>
       </c>
@@ -31412,53 +31397,86 @@
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>1595</v>
+      <c r="A13" s="125" t="s">
+        <v>928</v>
       </c>
       <c r="B13">
-        <v>1989</v>
+        <v>1998</v>
       </c>
       <c r="C13" t="s">
-        <v>1596</v>
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>256</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>785</v>
       </c>
       <c r="I13" t="s">
-        <v>1603</v>
+        <v>1521</v>
       </c>
       <c r="J13" t="s">
-        <v>1597</v>
+        <v>24</v>
       </c>
       <c r="K13" t="s">
-        <v>1598</v>
+        <v>932</v>
       </c>
       <c r="M13" t="s">
-        <v>1600</v>
+        <v>930</v>
       </c>
       <c r="N13" t="s">
-        <v>1599</v>
-      </c>
-      <c r="O13" s="94">
-        <v>49.704340000000002</v>
-      </c>
-      <c r="P13" s="94">
-        <v>-116.118877</v>
+        <v>931</v>
+      </c>
+      <c r="O13">
+        <v>44.512999999999998</v>
+      </c>
+      <c r="P13">
+        <v>-109.98</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="R13" t="s">
+        <v>933</v>
+      </c>
+      <c r="S13" t="s">
+        <v>22</v>
       </c>
       <c r="T13" t="s">
         <v>22</v>
       </c>
       <c r="U13" t="s">
-        <v>1602</v>
+        <v>934</v>
       </c>
       <c r="V13" t="s">
-        <v>1401</v>
+        <v>1382</v>
       </c>
       <c r="W13" t="s">
         <v>1422</v>
       </c>
       <c r="X13" t="s">
-        <v>1601</v>
+        <v>1467</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>1468</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>1499</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>1243</v>
       </c>
       <c r="AD13" t="s">
         <v>1243</v>
@@ -31471,43 +31489,53 @@
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>670</v>
+      <c r="A14" s="125" t="s">
+        <v>1595</v>
       </c>
       <c r="B14">
-        <v>2000</v>
+        <v>1989</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+        <v>1596</v>
+      </c>
       <c r="I14" t="s">
-        <v>1522</v>
+        <v>1603</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1597</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1598</v>
+      </c>
+      <c r="M14" t="s">
+        <v>1600</v>
+      </c>
+      <c r="N14" t="s">
+        <v>1599</v>
+      </c>
+      <c r="O14" s="94">
+        <v>49.704340000000002</v>
+      </c>
+      <c r="P14" s="94">
+        <v>-116.118877</v>
+      </c>
+      <c r="Q14">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s">
+        <v>22</v>
+      </c>
+      <c r="U14" t="s">
+        <v>1602</v>
       </c>
       <c r="V14" t="s">
-        <v>1381</v>
+        <v>1401</v>
       </c>
       <c r="W14" t="s">
         <v>1422</v>
       </c>
       <c r="X14" t="s">
-        <v>1469</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>1470</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>1505</v>
-      </c>
-      <c r="AA14" s="114" t="s">
-        <v>1471</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>1156</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>1243</v>
+        <v>1601</v>
       </c>
       <c r="AD14" t="s">
         <v>1243</v>
@@ -31519,130 +31547,95 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>909</v>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A15" s="125" t="s">
+        <v>670</v>
       </c>
       <c r="B15">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="C15" t="s">
-        <v>246</v>
+        <v>73</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="I15" t="s">
-        <v>1511</v>
-      </c>
-      <c r="K15" s="97"/>
-      <c r="N15" s="98"/>
+        <v>1522</v>
+      </c>
       <c r="V15" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="W15" t="s">
-        <v>1436</v>
+        <v>1422</v>
       </c>
       <c r="X15" t="s">
-        <v>1446</v>
-      </c>
-      <c r="Y15" s="96" t="s">
-        <v>1156</v>
-      </c>
-      <c r="Z15" s="96" t="s">
-        <v>1493</v>
+        <v>1469</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>1470</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>1505</v>
+      </c>
+      <c r="AA15" s="114" t="s">
+        <v>1471</v>
       </c>
       <c r="AB15" t="s">
         <v>1156</v>
       </c>
       <c r="AC15" t="s">
-        <v>1490</v>
+        <v>1243</v>
       </c>
       <c r="AD15" t="s">
-        <v>1615</v>
+        <v>1243</v>
       </c>
       <c r="AE15" t="s">
         <v>1243</v>
       </c>
-      <c r="AF15" t="s">
-        <v>1623</v>
-      </c>
       <c r="AG15" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="16" spans="1:33" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="96" t="s">
-        <v>1183</v>
+      <c r="A16" s="125" t="s">
+        <v>909</v>
       </c>
       <c r="B16">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="C16" t="s">
-        <v>481</v>
-      </c>
-      <c r="D16" t="s">
-        <v>482</v>
-      </c>
-      <c r="E16" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" t="s">
-        <v>785</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
       <c r="I16" t="s">
-        <v>1531</v>
-      </c>
-      <c r="J16" t="s">
-        <v>1184</v>
+        <v>1511</v>
       </c>
       <c r="K16" s="97"/>
-      <c r="M16">
-        <v>4</v>
-      </c>
-      <c r="N16" s="98" t="s">
-        <v>1186</v>
-      </c>
-      <c r="O16">
-        <v>44.910800000000002</v>
-      </c>
-      <c r="P16">
-        <v>-116.1031</v>
-      </c>
-      <c r="S16" t="s">
-        <v>22</v>
-      </c>
-      <c r="U16" t="s">
-        <v>1185</v>
-      </c>
+      <c r="N16" s="98"/>
       <c r="V16" t="s">
-        <v>1401</v>
+        <v>1385</v>
       </c>
       <c r="W16" t="s">
-        <v>1422</v>
+        <v>1436</v>
       </c>
       <c r="X16" t="s">
-        <v>1418</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>1472</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>1506</v>
+        <v>1446</v>
+      </c>
+      <c r="Y16" s="96" t="s">
+        <v>1156</v>
+      </c>
+      <c r="Z16" s="96" t="s">
+        <v>1493</v>
       </c>
       <c r="AB16" t="s">
         <v>1156</v>
       </c>
       <c r="AC16" t="s">
-        <v>1484</v>
+        <v>1490</v>
       </c>
       <c r="AD16" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="AE16" t="s">
         <v>1243</v>
@@ -31654,18 +31647,18 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>727</v>
+    <row r="17" spans="1:33" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="125" t="s">
+        <v>1183</v>
       </c>
       <c r="B17">
-        <v>1998</v>
+        <v>2015</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>481</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>482</v>
       </c>
       <c r="E17" s="11" t="b">
         <v>1</v>
@@ -31680,87 +31673,82 @@
         <v>785</v>
       </c>
       <c r="I17" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="J17" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" t="s">
-        <v>724</v>
-      </c>
-      <c r="L17" t="s">
-        <v>19</v>
-      </c>
-      <c r="N17" t="s">
-        <v>725</v>
-      </c>
-      <c r="O17" s="99">
-        <v>48.762999999999998</v>
-      </c>
-      <c r="P17" s="99">
-        <v>-114.226</v>
-      </c>
-      <c r="Q17" s="100">
-        <v>5</v>
-      </c>
-      <c r="R17" s="100" t="s">
-        <v>726</v>
-      </c>
-      <c r="T17" t="s">
+        <v>1184</v>
+      </c>
+      <c r="K17" s="97"/>
+      <c r="M17">
+        <v>4</v>
+      </c>
+      <c r="N17" s="98" t="s">
+        <v>1186</v>
+      </c>
+      <c r="O17">
+        <v>44.910800000000002</v>
+      </c>
+      <c r="P17">
+        <v>-116.1031</v>
+      </c>
+      <c r="S17" t="s">
         <v>22</v>
       </c>
       <c r="U17" t="s">
-        <v>1395</v>
+        <v>1185</v>
       </c>
       <c r="V17" t="s">
         <v>1401</v>
       </c>
       <c r="W17" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="X17" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="Y17" t="s">
-        <v>1156</v>
-      </c>
-      <c r="Z17" s="116" t="s">
-        <v>1497</v>
+        <v>1472</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>1506</v>
       </c>
       <c r="AB17" t="s">
         <v>1156</v>
       </c>
       <c r="AC17" t="s">
-        <v>1243</v>
+        <v>1484</v>
       </c>
       <c r="AD17" t="s">
-        <v>1243</v>
+        <v>1616</v>
       </c>
       <c r="AE17" t="s">
         <v>1243</v>
       </c>
+      <c r="AF17" t="s">
+        <v>1623</v>
+      </c>
       <c r="AG17" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>1165</v>
+      <c r="A18" s="125" t="s">
+        <v>727</v>
       </c>
       <c r="B18">
-        <v>2023</v>
+        <v>1998</v>
       </c>
       <c r="C18" t="s">
-        <v>470</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>471</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>669</v>
+        <v>108</v>
+      </c>
+      <c r="E18" s="11" t="b">
+        <v>1</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>1101</v>
+        <v>3</v>
       </c>
       <c r="G18" t="s">
         <v>17</v>
@@ -31769,52 +31757,52 @@
         <v>785</v>
       </c>
       <c r="I18" t="s">
-        <v>1514</v>
+        <v>1530</v>
       </c>
       <c r="J18" t="s">
-        <v>1168</v>
-      </c>
-      <c r="L18" s="46" t="s">
-        <v>1166</v>
-      </c>
-      <c r="M18" t="s">
-        <v>987</v>
+        <v>24</v>
+      </c>
+      <c r="K18" t="s">
+        <v>724</v>
+      </c>
+      <c r="L18" t="s">
+        <v>19</v>
       </c>
       <c r="N18" t="s">
-        <v>1167</v>
-      </c>
-      <c r="O18">
-        <v>38.916015999999999</v>
-      </c>
-      <c r="P18">
-        <v>-120.281718</v>
-      </c>
-      <c r="Q18">
-        <v>2</v>
-      </c>
-      <c r="R18" t="s">
-        <v>1170</v>
-      </c>
-      <c r="S18" t="s">
+        <v>725</v>
+      </c>
+      <c r="O18" s="99">
+        <v>48.762999999999998</v>
+      </c>
+      <c r="P18" s="99">
+        <v>-114.226</v>
+      </c>
+      <c r="Q18" s="100">
+        <v>5</v>
+      </c>
+      <c r="R18" s="100" t="s">
+        <v>726</v>
+      </c>
+      <c r="T18" t="s">
         <v>22</v>
       </c>
       <c r="U18" t="s">
-        <v>1169</v>
+        <v>1395</v>
       </c>
       <c r="V18" t="s">
-        <v>1382</v>
+        <v>1401</v>
       </c>
       <c r="W18" t="s">
         <v>1424</v>
       </c>
       <c r="X18" t="s">
-        <v>1434</v>
+        <v>1419</v>
       </c>
       <c r="Y18" t="s">
         <v>1156</v>
       </c>
       <c r="Z18" s="116" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="AB18" t="s">
         <v>1156</v>
@@ -31823,7 +31811,7 @@
         <v>1243</v>
       </c>
       <c r="AD18" t="s">
-        <v>1615</v>
+        <v>1243</v>
       </c>
       <c r="AE18" t="s">
         <v>1243</v>
@@ -31832,205 +31820,200 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="19" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>1231</v>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A19" s="125" t="s">
+        <v>1165</v>
       </c>
       <c r="B19">
-        <v>2016</v>
+        <v>2023</v>
       </c>
       <c r="C19" t="s">
-        <v>1447</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
+        <v>470</v>
+      </c>
+      <c r="D19" t="s">
+        <v>471</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" t="s">
+        <v>785</v>
+      </c>
       <c r="I19" t="s">
-        <v>1510</v>
-      </c>
-      <c r="L19" s="46"/>
+        <v>1514</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1168</v>
+      </c>
+      <c r="L19" s="46" t="s">
+        <v>1166</v>
+      </c>
+      <c r="M19" t="s">
+        <v>987</v>
+      </c>
+      <c r="N19" t="s">
+        <v>1167</v>
+      </c>
+      <c r="O19">
+        <v>38.916015999999999</v>
+      </c>
+      <c r="P19">
+        <v>-120.281718</v>
+      </c>
+      <c r="Q19">
+        <v>2</v>
+      </c>
+      <c r="R19" t="s">
+        <v>1170</v>
+      </c>
+      <c r="S19" t="s">
+        <v>22</v>
+      </c>
+      <c r="U19" t="s">
+        <v>1169</v>
+      </c>
       <c r="V19" t="s">
-        <v>1390</v>
+        <v>1382</v>
       </c>
       <c r="W19" t="s">
-        <v>1430</v>
-      </c>
-      <c r="X19" s="112" t="s">
-        <v>1448</v>
-      </c>
-      <c r="Y19" s="96" t="s">
+        <v>1424</v>
+      </c>
+      <c r="X19" t="s">
+        <v>1434</v>
+      </c>
+      <c r="Y19" t="s">
         <v>1156</v>
       </c>
-      <c r="Z19" s="96" t="s">
-        <v>1492</v>
+      <c r="Z19" s="116" t="s">
+        <v>1499</v>
       </c>
       <c r="AB19" t="s">
         <v>1156</v>
       </c>
       <c r="AC19" t="s">
-        <v>1489</v>
+        <v>1243</v>
       </c>
       <c r="AD19" t="s">
-        <v>1243</v>
+        <v>1615</v>
       </c>
       <c r="AE19" t="s">
         <v>1243</v>
       </c>
-      <c r="AF19" t="s">
-        <v>1623</v>
-      </c>
       <c r="AG19" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>1233</v>
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+      <c r="A20" s="125" t="s">
+        <v>1231</v>
       </c>
       <c r="B20">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C20" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="I20" t="s">
-        <v>1509</v>
-      </c>
+        <v>1510</v>
+      </c>
+      <c r="L20" s="46"/>
       <c r="V20" t="s">
-        <v>1450</v>
+        <v>1390</v>
       </c>
       <c r="W20" t="s">
-        <v>1455</v>
-      </c>
-      <c r="X20" t="s">
-        <v>1454</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>1244</v>
+        <v>1430</v>
+      </c>
+      <c r="X20" s="112" t="s">
+        <v>1448</v>
+      </c>
+      <c r="Y20" s="96" t="s">
+        <v>1156</v>
+      </c>
+      <c r="Z20" s="96" t="s">
+        <v>1492</v>
       </c>
       <c r="AB20" t="s">
         <v>1156</v>
       </c>
       <c r="AC20" t="s">
+        <v>1489</v>
+      </c>
+      <c r="AD20" t="s">
         <v>1243</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>1617</v>
       </c>
       <c r="AE20" t="s">
         <v>1243</v>
       </c>
+      <c r="AF20" t="s">
+        <v>1623</v>
+      </c>
       <c r="AG20" t="s">
-        <v>1243</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A21" s="96" t="s">
-        <v>750</v>
-      </c>
-      <c r="B21" s="96">
-        <v>2008</v>
-      </c>
-      <c r="C21" s="96" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="96" t="s">
-        <v>125</v>
-      </c>
-      <c r="E21" s="101" t="b">
-        <v>1</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="93" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="102" t="s">
-        <v>785</v>
-      </c>
+      <c r="A21" s="125" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B21">
+        <v>2015</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
       <c r="I21" t="s">
-        <v>1523</v>
-      </c>
-      <c r="J21" s="93" t="s">
-        <v>751</v>
-      </c>
-      <c r="K21" s="93" t="s">
-        <v>752</v>
-      </c>
-      <c r="L21" s="93" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="96"/>
-      <c r="N21" s="93" t="s">
-        <v>753</v>
-      </c>
-      <c r="O21" s="94">
-        <v>48.789253000000002</v>
-      </c>
-      <c r="P21" s="94">
-        <v>-113.79626500000001</v>
-      </c>
-      <c r="Q21" s="95">
-        <v>4</v>
-      </c>
-      <c r="R21" s="95" t="s">
-        <v>754</v>
-      </c>
-      <c r="S21" s="96" t="s">
-        <v>22</v>
-      </c>
-      <c r="T21" s="96" t="s">
-        <v>22</v>
-      </c>
-      <c r="U21" s="96" t="s">
-        <v>1392</v>
-      </c>
-      <c r="V21" s="96" t="s">
-        <v>1403</v>
-      </c>
-      <c r="W21" s="96" t="s">
-        <v>1422</v>
-      </c>
-      <c r="X21" s="96" t="s">
-        <v>1473</v>
-      </c>
-      <c r="Y21" s="96" t="s">
-        <v>1474</v>
-      </c>
-      <c r="Z21" s="116" t="s">
-        <v>1507</v>
+        <v>1509</v>
+      </c>
+      <c r="V21" t="s">
+        <v>1450</v>
+      </c>
+      <c r="W21" t="s">
+        <v>1455</v>
+      </c>
+      <c r="X21" t="s">
+        <v>1454</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>1244</v>
       </c>
       <c r="AB21" t="s">
         <v>1156</v>
       </c>
       <c r="AC21" t="s">
-        <v>1485</v>
+        <v>1243</v>
       </c>
       <c r="AD21" t="s">
-        <v>1243</v>
+        <v>1617</v>
       </c>
       <c r="AE21" t="s">
         <v>1243</v>
       </c>
-      <c r="AF21" s="125"/>
-      <c r="AG21" s="125" t="s">
+      <c r="AG21" t="s">
         <v>1243</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A22" s="96" t="s">
-        <v>826</v>
+      <c r="A22" s="125" t="s">
+        <v>750</v>
       </c>
       <c r="B22" s="96">
-        <v>2016</v>
+        <v>2008</v>
       </c>
       <c r="C22" s="96" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" s="96" t="s">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="E22" s="101" t="b">
         <v>1</v>
@@ -32038,41 +32021,39 @@
       <c r="F22" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="96" t="s">
+      <c r="G22" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="96" t="s">
-        <v>693</v>
-      </c>
-      <c r="I22" s="96" t="s">
-        <v>1524</v>
+      <c r="H22" s="102" t="s">
+        <v>785</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1523</v>
       </c>
       <c r="J22" s="93" t="s">
-        <v>827</v>
+        <v>751</v>
       </c>
       <c r="K22" s="93" t="s">
-        <v>828</v>
+        <v>752</v>
       </c>
       <c r="L22" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="M22" s="103" t="s">
-        <v>833</v>
-      </c>
+      <c r="M22" s="96"/>
       <c r="N22" s="93" t="s">
-        <v>829</v>
+        <v>753</v>
       </c>
       <c r="O22" s="94">
-        <v>40.353888888</v>
+        <v>48.789253000000002</v>
       </c>
       <c r="P22" s="94">
-        <v>-105.583611111</v>
+        <v>-113.79626500000001</v>
       </c>
       <c r="Q22" s="95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R22" s="95" t="s">
-        <v>830</v>
+        <v>754</v>
       </c>
       <c r="S22" s="96" t="s">
         <v>22</v>
@@ -32081,31 +32062,31 @@
         <v>22</v>
       </c>
       <c r="U22" s="96" t="s">
-        <v>831</v>
-      </c>
-      <c r="V22" t="s">
-        <v>1405</v>
-      </c>
-      <c r="W22" t="s">
+        <v>1392</v>
+      </c>
+      <c r="V22" s="96" t="s">
+        <v>1403</v>
+      </c>
+      <c r="W22" s="96" t="s">
         <v>1422</v>
       </c>
-      <c r="X22" t="s">
-        <v>1423</v>
+      <c r="X22" s="96" t="s">
+        <v>1473</v>
       </c>
       <c r="Y22" s="96" t="s">
-        <v>1475</v>
-      </c>
-      <c r="Z22" s="96" t="s">
-        <v>1499</v>
+        <v>1474</v>
+      </c>
+      <c r="Z22" s="116" t="s">
+        <v>1507</v>
       </c>
       <c r="AB22" t="s">
         <v>1156</v>
       </c>
       <c r="AC22" t="s">
+        <v>1485</v>
+      </c>
+      <c r="AD22" t="s">
         <v>1243</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>1485</v>
       </c>
       <c r="AE22" t="s">
         <v>1243</v>
@@ -32115,73 +32096,84 @@
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>711</v>
-      </c>
-      <c r="B23">
-        <v>2015</v>
-      </c>
-      <c r="C23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>669</v>
+      <c r="A23" s="125" t="s">
+        <v>826</v>
+      </c>
+      <c r="B23" s="96">
+        <v>2016</v>
+      </c>
+      <c r="C23" s="96" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="96" t="s">
+        <v>184</v>
+      </c>
+      <c r="E23" s="101" t="b">
+        <v>1</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>1101</v>
-      </c>
-      <c r="G23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="H23" t="s">
-        <v>785</v>
+      <c r="H23" s="96" t="s">
+        <v>693</v>
       </c>
       <c r="I23" s="96" t="s">
-        <v>1525</v>
-      </c>
-      <c r="L23" t="s">
+        <v>1524</v>
+      </c>
+      <c r="J23" s="93" t="s">
+        <v>827</v>
+      </c>
+      <c r="K23" s="93" t="s">
+        <v>828</v>
+      </c>
+      <c r="L23" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="N23" t="s">
-        <v>708</v>
-      </c>
-      <c r="O23">
-        <v>40.033332999999999</v>
-      </c>
-      <c r="P23">
-        <v>-105.416667</v>
-      </c>
-      <c r="Q23">
-        <v>3</v>
-      </c>
-      <c r="R23" t="s">
-        <v>709</v>
-      </c>
-      <c r="S23" t="s">
+      <c r="M23" s="103" t="s">
+        <v>833</v>
+      </c>
+      <c r="N23" s="93" t="s">
+        <v>829</v>
+      </c>
+      <c r="O23" s="94">
+        <v>40.353888888</v>
+      </c>
+      <c r="P23" s="94">
+        <v>-105.583611111</v>
+      </c>
+      <c r="Q23" s="95">
+        <v>2</v>
+      </c>
+      <c r="R23" s="95" t="s">
+        <v>830</v>
+      </c>
+      <c r="S23" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="T23" t="s">
+      <c r="T23" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="U23" t="s">
-        <v>710</v>
+      <c r="U23" s="96" t="s">
+        <v>831</v>
       </c>
       <c r="V23" t="s">
-        <v>1382</v>
+        <v>1405</v>
       </c>
       <c r="W23" t="s">
         <v>1422</v>
       </c>
       <c r="X23" t="s">
-        <v>1435</v>
+        <v>1423</v>
       </c>
       <c r="Y23" s="96" t="s">
-        <v>1476</v>
-      </c>
-      <c r="Z23" s="96"/>
+        <v>1475</v>
+      </c>
+      <c r="Z23" s="96" t="s">
+        <v>1499</v>
+      </c>
       <c r="AB23" t="s">
         <v>1156</v>
       </c>
@@ -32189,7 +32181,7 @@
         <v>1243</v>
       </c>
       <c r="AD23" t="s">
-        <v>1243</v>
+        <v>1485</v>
       </c>
       <c r="AE23" t="s">
         <v>1243</v>
@@ -32199,41 +32191,50 @@
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>848</v>
+      <c r="A24" s="125" t="s">
+        <v>711</v>
       </c>
       <c r="B24">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>198</v>
-      </c>
-      <c r="E24" s="11" t="b">
-        <v>1</v>
+        <v>96</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>669</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>3</v>
+        <v>1101</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" t="s">
+        <v>785</v>
       </c>
       <c r="I24" s="96" t="s">
         <v>1525</v>
       </c>
-      <c r="M24" t="s">
-        <v>849</v>
+      <c r="L24" t="s">
+        <v>19</v>
       </c>
       <c r="N24" t="s">
-        <v>1377</v>
+        <v>708</v>
       </c>
       <c r="O24">
-        <v>40.050263700000002</v>
+        <v>40.033332999999999</v>
       </c>
       <c r="P24">
-        <v>-105.3666599</v>
+        <v>-105.416667</v>
       </c>
       <c r="Q24">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="R24" t="s">
+        <v>709</v>
       </c>
       <c r="S24" t="s">
         <v>22</v>
@@ -32242,23 +32243,21 @@
         <v>22</v>
       </c>
       <c r="U24" t="s">
-        <v>850</v>
+        <v>710</v>
       </c>
       <c r="V24" t="s">
-        <v>1401</v>
+        <v>1382</v>
       </c>
       <c r="W24" t="s">
         <v>1422</v>
       </c>
       <c r="X24" t="s">
-        <v>1425</v>
+        <v>1435</v>
       </c>
       <c r="Y24" s="96" t="s">
         <v>1476</v>
       </c>
-      <c r="Z24" s="96" t="s">
-        <v>1499</v>
-      </c>
+      <c r="Z24" s="96"/>
       <c r="AB24" t="s">
         <v>1156</v>
       </c>
@@ -32276,162 +32275,159 @@
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>1605</v>
+      <c r="A25" s="125" t="s">
+        <v>848</v>
       </c>
       <c r="B25">
-        <v>1982</v>
+        <v>2018</v>
       </c>
       <c r="C25" t="s">
-        <v>1606</v>
-      </c>
-      <c r="I25" t="s">
-        <v>1607</v>
-      </c>
-      <c r="J25" t="s">
-        <v>1608</v>
-      </c>
-      <c r="K25" t="s">
-        <v>1609</v>
-      </c>
-      <c r="M25">
+        <v>64</v>
+      </c>
+      <c r="D25" t="s">
+        <v>198</v>
+      </c>
+      <c r="E25" s="11" t="b">
         <v>1</v>
       </c>
+      <c r="F25" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" s="96" t="s">
+        <v>1525</v>
+      </c>
+      <c r="M25" t="s">
+        <v>849</v>
+      </c>
       <c r="N25" t="s">
-        <v>1610</v>
+        <v>1377</v>
       </c>
       <c r="O25">
-        <v>36.095348999999999</v>
+        <v>40.050263700000002</v>
       </c>
       <c r="P25">
-        <v>-82.265000000000001</v>
+        <v>-105.3666599</v>
       </c>
       <c r="Q25">
-        <v>1</v>
-      </c>
-      <c r="R25" t="s">
-        <v>989</v>
+        <v>5</v>
+      </c>
+      <c r="S25" t="s">
+        <v>22</v>
       </c>
       <c r="T25" t="s">
         <v>22</v>
       </c>
       <c r="U25" t="s">
-        <v>1611</v>
+        <v>850</v>
       </c>
       <c r="V25" t="s">
-        <v>1612</v>
+        <v>1401</v>
       </c>
       <c r="W25" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="X25" t="s">
-        <v>1613</v>
+        <v>1425</v>
+      </c>
+      <c r="Y25" s="96" t="s">
+        <v>1476</v>
+      </c>
+      <c r="Z25" s="96" t="s">
+        <v>1499</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>1243</v>
       </c>
       <c r="AD25" t="s">
         <v>1243</v>
       </c>
+      <c r="AE25" t="s">
+        <v>1243</v>
+      </c>
       <c r="AG25" t="s">
         <v>1243</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>881</v>
+      <c r="A26" s="125" t="s">
+        <v>1605</v>
       </c>
       <c r="B26">
-        <v>2012</v>
+        <v>1982</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" t="s">
-        <v>223</v>
-      </c>
-      <c r="E26" s="11" t="b">
+        <v>1606</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1607</v>
+      </c>
+      <c r="J26" t="s">
+        <v>1608</v>
+      </c>
+      <c r="K26" t="s">
+        <v>1609</v>
+      </c>
+      <c r="M26">
         <v>1</v>
       </c>
-      <c r="F26" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" t="s">
-        <v>785</v>
-      </c>
-      <c r="I26" t="s">
-        <v>1515</v>
-      </c>
-      <c r="J26" t="s">
-        <v>882</v>
-      </c>
-      <c r="M26" t="s">
-        <v>883</v>
-      </c>
       <c r="N26" t="s">
-        <v>884</v>
+        <v>1610</v>
       </c>
       <c r="O26">
-        <v>38.896382000000003</v>
+        <v>36.095348999999999</v>
       </c>
       <c r="P26">
-        <v>-120.041629</v>
+        <v>-82.265000000000001</v>
       </c>
       <c r="Q26">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="R26" t="s">
+        <v>989</v>
       </c>
       <c r="T26" t="s">
         <v>22</v>
       </c>
       <c r="U26" t="s">
-        <v>887</v>
+        <v>1611</v>
       </c>
       <c r="V26" t="s">
-        <v>1401</v>
+        <v>1612</v>
       </c>
       <c r="W26" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="X26" t="s">
-        <v>1498</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>1457</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>1156</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>1243</v>
+        <v>1613</v>
       </c>
       <c r="AD26" t="s">
         <v>1243</v>
       </c>
-      <c r="AE26" t="s">
-        <v>1243</v>
-      </c>
       <c r="AG26" t="s">
         <v>1243</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>1091</v>
+      <c r="A27" s="125" t="s">
+        <v>881</v>
       </c>
       <c r="B27">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="C27" t="s">
-        <v>412</v>
+        <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>413</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>669</v>
+        <v>223</v>
+      </c>
+      <c r="E27" s="11" t="b">
+        <v>1</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>1101</v>
+        <v>3</v>
       </c>
       <c r="G27" t="s">
         <v>17</v>
@@ -32440,55 +32436,49 @@
         <v>785</v>
       </c>
       <c r="I27" t="s">
-        <v>1527</v>
+        <v>1515</v>
       </c>
       <c r="J27" t="s">
-        <v>24</v>
-      </c>
-      <c r="K27" t="s">
-        <v>1094</v>
-      </c>
-      <c r="L27" t="s">
-        <v>1092</v>
+        <v>882</v>
       </c>
       <c r="M27" t="s">
-        <v>1093</v>
+        <v>883</v>
       </c>
       <c r="N27" t="s">
-        <v>1096</v>
+        <v>884</v>
       </c>
       <c r="O27">
-        <v>40.262369999999997</v>
+        <v>38.896382000000003</v>
       </c>
       <c r="P27">
-        <v>-105.59080400000001</v>
-      </c>
-      <c r="Q27" s="100">
-        <v>8.3000000000000004E-2</v>
+        <v>-120.041629</v>
+      </c>
+      <c r="Q27">
+        <v>2</v>
+      </c>
+      <c r="T27" t="s">
+        <v>22</v>
       </c>
       <c r="U27" t="s">
-        <v>1095</v>
+        <v>887</v>
       </c>
       <c r="V27" t="s">
-        <v>1382</v>
+        <v>1401</v>
       </c>
       <c r="W27" t="s">
-        <v>1436</v>
+        <v>1424</v>
       </c>
       <c r="X27" t="s">
-        <v>1437</v>
-      </c>
-      <c r="Y27" s="96" t="s">
-        <v>1156</v>
-      </c>
-      <c r="Z27" s="96" t="s">
-        <v>1493</v>
+        <v>1498</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>1457</v>
       </c>
       <c r="AB27" t="s">
         <v>1156</v>
       </c>
       <c r="AC27" t="s">
-        <v>1490</v>
+        <v>1243</v>
       </c>
       <c r="AD27" t="s">
         <v>1243</v>
@@ -32496,23 +32486,22 @@
       <c r="AE27" t="s">
         <v>1243</v>
       </c>
-      <c r="AF27" s="125"/>
-      <c r="AG27" s="125" t="s">
+      <c r="AG27" t="s">
         <v>1243</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>689</v>
+      <c r="A28" s="125" t="s">
+        <v>1091</v>
       </c>
       <c r="B28">
-        <v>2011</v>
+        <v>2021</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>412</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
+        <v>413</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>669</v>
@@ -32524,85 +32513,81 @@
         <v>17</v>
       </c>
       <c r="H28" t="s">
-        <v>693</v>
+        <v>785</v>
       </c>
       <c r="I28" t="s">
-        <v>1511</v>
+        <v>1527</v>
       </c>
       <c r="J28" t="s">
         <v>24</v>
       </c>
       <c r="K28" t="s">
-        <v>694</v>
+        <v>1094</v>
       </c>
       <c r="L28" t="s">
-        <v>19</v>
+        <v>1092</v>
+      </c>
+      <c r="M28" t="s">
+        <v>1093</v>
       </c>
       <c r="N28" t="s">
-        <v>695</v>
+        <v>1096</v>
       </c>
       <c r="O28">
-        <v>39.177683000000002</v>
+        <v>40.262369999999997</v>
       </c>
       <c r="P28">
-        <v>-105.26552</v>
-      </c>
-      <c r="Q28">
-        <v>5</v>
-      </c>
-      <c r="R28" t="s">
-        <v>690</v>
-      </c>
-      <c r="T28" t="s">
-        <v>22</v>
+        <v>-105.59080400000001</v>
+      </c>
+      <c r="Q28" s="100">
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="U28" t="s">
-        <v>696</v>
+        <v>1095</v>
       </c>
       <c r="V28" t="s">
         <v>1382</v>
       </c>
       <c r="W28" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="X28" t="s">
-        <v>1438</v>
-      </c>
-      <c r="Y28" t="s">
+        <v>1437</v>
+      </c>
+      <c r="Y28" s="96" t="s">
         <v>1156</v>
       </c>
-      <c r="Z28" s="115" t="s">
+      <c r="Z28" s="96" t="s">
         <v>1493</v>
       </c>
       <c r="AB28" t="s">
         <v>1156</v>
       </c>
       <c r="AC28" t="s">
-        <v>1244</v>
+        <v>1490</v>
       </c>
       <c r="AD28" t="s">
-        <v>1618</v>
+        <v>1243</v>
       </c>
       <c r="AE28" t="s">
         <v>1243</v>
       </c>
-      <c r="AF28" s="125"/>
-      <c r="AG28" s="125" t="s">
+      <c r="AG28" t="s">
         <v>1243</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>762</v>
+      <c r="A29" s="125" t="s">
+        <v>689</v>
       </c>
       <c r="B29">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="C29" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="D29" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>669</v>
@@ -32613,8 +32598,8 @@
       <c r="G29" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="102" t="s">
-        <v>785</v>
+      <c r="H29" t="s">
+        <v>693</v>
       </c>
       <c r="I29" t="s">
         <v>1511</v>
@@ -32629,7 +32614,7 @@
         <v>19</v>
       </c>
       <c r="N29" t="s">
-        <v>721</v>
+        <v>695</v>
       </c>
       <c r="O29">
         <v>39.177683000000002</v>
@@ -32637,38 +32622,41 @@
       <c r="P29">
         <v>-105.26552</v>
       </c>
-      <c r="S29" t="s">
-        <v>22</v>
+      <c r="Q29">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s">
+        <v>690</v>
       </c>
       <c r="T29" t="s">
         <v>22</v>
       </c>
       <c r="U29" t="s">
-        <v>1108</v>
+        <v>696</v>
       </c>
       <c r="V29" t="s">
         <v>1382</v>
       </c>
       <c r="W29" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="X29" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="Y29" t="s">
         <v>1156</v>
       </c>
-      <c r="Z29" t="s">
-        <v>1494</v>
+      <c r="Z29" s="115" t="s">
+        <v>1493</v>
       </c>
       <c r="AB29" t="s">
         <v>1156</v>
       </c>
       <c r="AC29" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="AD29" t="s">
-        <v>1243</v>
+        <v>1618</v>
       </c>
       <c r="AE29" t="s">
         <v>1243</v>
@@ -32678,47 +32666,50 @@
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>924</v>
+      <c r="A30" s="125" t="s">
+        <v>762</v>
       </c>
       <c r="B30">
         <v>2019</v>
       </c>
       <c r="C30" t="s">
-        <v>254</v>
+        <v>126</v>
       </c>
       <c r="D30" t="s">
-        <v>255</v>
-      </c>
-      <c r="E30" s="11" t="b">
-        <v>1</v>
+        <v>127</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>669</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>3</v>
+        <v>1101</v>
       </c>
       <c r="G30" t="s">
         <v>17</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="102" t="s">
         <v>785</v>
       </c>
       <c r="I30" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="J30" t="s">
-        <v>873</v>
-      </c>
-      <c r="M30" t="s">
-        <v>926</v>
+        <v>24</v>
+      </c>
+      <c r="K30" t="s">
+        <v>694</v>
+      </c>
+      <c r="L30" t="s">
+        <v>19</v>
       </c>
       <c r="N30" t="s">
-        <v>927</v>
+        <v>721</v>
       </c>
       <c r="O30">
-        <v>37.534036999999998</v>
+        <v>39.177683000000002</v>
       </c>
       <c r="P30">
-        <v>-119.389139</v>
+        <v>-105.26552</v>
       </c>
       <c r="S30" t="s">
         <v>22</v>
@@ -32727,90 +32718,93 @@
         <v>22</v>
       </c>
       <c r="U30" t="s">
-        <v>925</v>
+        <v>1108</v>
       </c>
       <c r="V30" t="s">
-        <v>1401</v>
+        <v>1382</v>
       </c>
       <c r="W30" t="s">
-        <v>1426</v>
+        <v>1440</v>
       </c>
       <c r="X30" t="s">
-        <v>1427</v>
+        <v>1441</v>
       </c>
       <c r="Y30" t="s">
         <v>1156</v>
       </c>
-      <c r="Z30" s="116" t="s">
-        <v>1495</v>
+      <c r="Z30" t="s">
+        <v>1494</v>
       </c>
       <c r="AB30" t="s">
         <v>1156</v>
       </c>
       <c r="AC30" t="s">
-        <v>1483</v>
+        <v>1243</v>
       </c>
       <c r="AD30" t="s">
-        <v>1619</v>
+        <v>1243</v>
       </c>
       <c r="AE30" t="s">
         <v>1243</v>
       </c>
-      <c r="AF30" t="s">
-        <v>1623</v>
-      </c>
       <c r="AG30" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>948</v>
+      <c r="A31" s="125" t="s">
+        <v>924</v>
       </c>
       <c r="B31">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C31" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="D31" t="s">
-        <v>268</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>669</v>
+        <v>255</v>
+      </c>
+      <c r="E31" s="11" t="b">
+        <v>1</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>1101</v>
+        <v>3</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
       </c>
       <c r="H31" t="s">
         <v>785</v>
       </c>
       <c r="I31" t="s">
-        <v>1528</v>
+        <v>1513</v>
+      </c>
+      <c r="J31" t="s">
+        <v>873</v>
       </c>
       <c r="M31" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="N31" t="s">
-        <v>949</v>
+        <v>927</v>
       </c>
       <c r="O31">
-        <v>44.578524999999999</v>
+        <v>37.534036999999998</v>
       </c>
       <c r="P31">
-        <v>-115.66604</v>
-      </c>
-      <c r="Q31">
-        <v>4</v>
+        <v>-119.389139</v>
+      </c>
+      <c r="S31" t="s">
+        <v>22</v>
       </c>
       <c r="T31" t="s">
         <v>22</v>
       </c>
       <c r="U31" t="s">
-        <v>950</v>
+        <v>925</v>
       </c>
       <c r="V31" t="s">
-        <v>1386</v>
+        <v>1401</v>
       </c>
       <c r="W31" t="s">
         <v>1426</v>
@@ -32822,81 +32816,93 @@
         <v>1156</v>
       </c>
       <c r="Z31" s="116" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="AB31" t="s">
         <v>1156</v>
       </c>
       <c r="AC31" t="s">
-        <v>1244</v>
+        <v>1483</v>
       </c>
       <c r="AD31" t="s">
-        <v>1243</v>
+        <v>1619</v>
       </c>
       <c r="AE31" t="s">
         <v>1243</v>
       </c>
-      <c r="AF31" s="8" t="s">
-        <v>1488</v>
-      </c>
-      <c r="AG31" s="8" t="s">
+      <c r="AF31" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AG31" t="s">
         <v>1244</v>
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A32" s="93" t="s">
-        <v>1586</v>
+      <c r="A32" s="125" t="s">
+        <v>948</v>
       </c>
       <c r="B32">
-        <v>1973</v>
+        <v>2015</v>
       </c>
       <c r="C32" t="s">
-        <v>1587</v>
+        <v>267</v>
+      </c>
+      <c r="D32" t="s">
+        <v>268</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H32" t="s">
+        <v>785</v>
       </c>
       <c r="I32" t="s">
-        <v>1588</v>
-      </c>
-      <c r="J32" t="s">
-        <v>24</v>
-      </c>
-      <c r="K32" t="s">
-        <v>1589</v>
-      </c>
-      <c r="L32" t="s">
-        <v>19</v>
+        <v>1528</v>
       </c>
       <c r="M32" t="s">
-        <v>883</v>
+        <v>930</v>
       </c>
       <c r="N32" t="s">
-        <v>1590</v>
-      </c>
-      <c r="O32" s="122">
-        <v>48.102674999999998</v>
-      </c>
-      <c r="P32" s="122">
-        <v>-120.35232000000001</v>
+        <v>949</v>
+      </c>
+      <c r="O32">
+        <v>44.578524999999999</v>
+      </c>
+      <c r="P32">
+        <v>-115.66604</v>
       </c>
       <c r="Q32">
-        <v>2</v>
-      </c>
-      <c r="R32" t="s">
-        <v>1591</v>
+        <v>4</v>
       </c>
       <c r="T32" t="s">
         <v>22</v>
       </c>
       <c r="U32" t="s">
-        <v>1592</v>
+        <v>950</v>
       </c>
       <c r="V32" t="s">
-        <v>1401</v>
+        <v>1386</v>
       </c>
       <c r="W32" t="s">
         <v>1426</v>
       </c>
       <c r="X32" t="s">
-        <v>1593</v>
+        <v>1427</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>1156</v>
+      </c>
+      <c r="Z32" s="116" t="s">
+        <v>1496</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>1244</v>
       </c>
       <c r="AD32" t="s">
         <v>1243</v>
@@ -32904,116 +32910,96 @@
       <c r="AE32" t="s">
         <v>1243</v>
       </c>
-      <c r="AG32" t="s">
-        <v>1243</v>
+      <c r="AF32" s="8" t="s">
+        <v>1488</v>
+      </c>
+      <c r="AG32" s="8" t="s">
+        <v>1244</v>
       </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>871</v>
+      <c r="A33" s="125" t="s">
+        <v>1586</v>
       </c>
       <c r="B33">
-        <v>2020</v>
+        <v>1973</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" t="s">
-        <v>219</v>
-      </c>
-      <c r="E33" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" t="s">
-        <v>785</v>
-      </c>
-      <c r="I33" s="96" t="s">
-        <v>1526</v>
+        <v>1587</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1588</v>
       </c>
       <c r="J33" t="s">
-        <v>873</v>
-      </c>
-      <c r="M33" s="104" t="s">
-        <v>874</v>
+        <v>24</v>
+      </c>
+      <c r="K33" t="s">
+        <v>1589</v>
+      </c>
+      <c r="L33" t="s">
+        <v>19</v>
+      </c>
+      <c r="M33" t="s">
+        <v>883</v>
       </c>
       <c r="N33" t="s">
-        <v>875</v>
-      </c>
-      <c r="O33">
-        <v>38.512031</v>
-      </c>
-      <c r="P33">
-        <v>-122.097228</v>
+        <v>1590</v>
+      </c>
+      <c r="O33" s="122">
+        <v>48.102674999999998</v>
+      </c>
+      <c r="P33" s="122">
+        <v>-120.35232000000001</v>
       </c>
       <c r="Q33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R33" t="s">
-        <v>876</v>
-      </c>
-      <c r="S33" t="s">
-        <v>22</v>
+        <v>1591</v>
       </c>
       <c r="T33" t="s">
         <v>22</v>
       </c>
       <c r="U33" t="s">
-        <v>872</v>
+        <v>1592</v>
       </c>
       <c r="V33" t="s">
         <v>1401</v>
       </c>
       <c r="W33" t="s">
-        <v>1422</v>
+        <v>1426</v>
       </c>
       <c r="X33" t="s">
-        <v>1428</v>
-      </c>
-      <c r="Y33" s="96" t="s">
-        <v>1477</v>
-      </c>
-      <c r="Z33" s="96"/>
-      <c r="AB33" t="s">
-        <v>1156</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>1487</v>
+        <v>1593</v>
       </c>
       <c r="AD33" t="s">
-        <v>1485</v>
+        <v>1243</v>
       </c>
       <c r="AE33" t="s">
         <v>1243</v>
       </c>
-      <c r="AF33" s="125"/>
-      <c r="AG33" s="125" t="s">
+      <c r="AG33" t="s">
         <v>1243</v>
       </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>765</v>
+      <c r="A34" s="125" t="s">
+        <v>871</v>
       </c>
       <c r="B34">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="D34" t="s">
-        <v>130</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>669</v>
+        <v>219</v>
+      </c>
+      <c r="E34" s="11" t="b">
+        <v>1</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>1101</v>
+        <v>3</v>
       </c>
       <c r="G34" t="s">
         <v>17</v>
@@ -33021,65 +33007,60 @@
       <c r="H34" t="s">
         <v>785</v>
       </c>
-      <c r="I34" t="s">
-        <v>1512</v>
-      </c>
-      <c r="J34" s="108" t="s">
-        <v>770</v>
-      </c>
-      <c r="K34" s="108" t="s">
-        <v>771</v>
-      </c>
-      <c r="L34" s="108" t="s">
-        <v>19</v>
-      </c>
-      <c r="M34">
-        <v>1</v>
-      </c>
-      <c r="N34" s="108" t="s">
-        <v>767</v>
-      </c>
-      <c r="O34" s="109">
-        <v>40.7159999</v>
-      </c>
-      <c r="P34" s="109">
-        <v>-105.23308400000001</v>
-      </c>
-      <c r="Q34" s="110">
-        <v>0.5</v>
-      </c>
-      <c r="R34" s="110" t="s">
-        <v>768</v>
+      <c r="I34" s="96" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J34" t="s">
+        <v>873</v>
+      </c>
+      <c r="M34" s="104" t="s">
+        <v>874</v>
+      </c>
+      <c r="N34" t="s">
+        <v>875</v>
+      </c>
+      <c r="O34">
+        <v>38.512031</v>
+      </c>
+      <c r="P34">
+        <v>-122.097228</v>
+      </c>
+      <c r="Q34">
+        <v>3</v>
+      </c>
+      <c r="R34" t="s">
+        <v>876</v>
       </c>
       <c r="S34" t="s">
         <v>22</v>
       </c>
+      <c r="T34" t="s">
+        <v>22</v>
+      </c>
       <c r="U34" t="s">
-        <v>769</v>
+        <v>872</v>
       </c>
       <c r="V34" t="s">
-        <v>1382</v>
+        <v>1401</v>
       </c>
       <c r="W34" t="s">
-        <v>1430</v>
+        <v>1422</v>
       </c>
       <c r="X34" t="s">
-        <v>1442</v>
+        <v>1428</v>
       </c>
       <c r="Y34" s="96" t="s">
-        <v>1156</v>
-      </c>
-      <c r="Z34" s="96" t="s">
-        <v>1492</v>
-      </c>
+        <v>1477</v>
+      </c>
+      <c r="Z34" s="96"/>
       <c r="AB34" t="s">
         <v>1156</v>
       </c>
       <c r="AC34" t="s">
-        <v>1243</v>
+        <v>1487</v>
       </c>
       <c r="AD34" t="s">
-        <v>1243</v>
+        <v>1485</v>
       </c>
       <c r="AE34" t="s">
         <v>1243</v>
@@ -33089,152 +33070,247 @@
       </c>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>1232</v>
+      <c r="A35" s="125" t="s">
+        <v>765</v>
       </c>
       <c r="B35">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="C35" t="s">
-        <v>1451</v>
-      </c>
-      <c r="I35" s="96" t="s">
-        <v>1525</v>
+        <v>37</v>
+      </c>
+      <c r="D35" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" t="s">
+        <v>785</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1512</v>
+      </c>
+      <c r="J35" s="108" t="s">
+        <v>770</v>
+      </c>
+      <c r="K35" s="108" t="s">
+        <v>771</v>
+      </c>
+      <c r="L35" s="108" t="s">
+        <v>19</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35" s="108" t="s">
+        <v>767</v>
+      </c>
+      <c r="O35" s="109">
+        <v>40.7159999</v>
+      </c>
+      <c r="P35" s="109">
+        <v>-105.23308400000001</v>
+      </c>
+      <c r="Q35" s="110">
+        <v>0.5</v>
+      </c>
+      <c r="R35" s="110" t="s">
+        <v>768</v>
+      </c>
+      <c r="S35" t="s">
+        <v>22</v>
+      </c>
+      <c r="U35" t="s">
+        <v>769</v>
+      </c>
+      <c r="V35" t="s">
+        <v>1382</v>
       </c>
       <c r="W35" t="s">
-        <v>1422</v>
+        <v>1430</v>
       </c>
       <c r="X35" t="s">
-        <v>1452</v>
+        <v>1442</v>
       </c>
       <c r="Y35" s="96" t="s">
-        <v>1478</v>
-      </c>
-      <c r="Z35" s="96"/>
+        <v>1156</v>
+      </c>
+      <c r="Z35" s="96" t="s">
+        <v>1492</v>
+      </c>
       <c r="AB35" t="s">
         <v>1156</v>
       </c>
       <c r="AC35" t="s">
-        <v>1488</v>
+        <v>1243</v>
       </c>
       <c r="AD35" t="s">
-        <v>1620</v>
+        <v>1243</v>
       </c>
       <c r="AE35" t="s">
         <v>1243</v>
       </c>
-      <c r="AF35" s="8" t="s">
-        <v>1488</v>
-      </c>
-      <c r="AG35" s="8" t="s">
-        <v>1244</v>
+      <c r="AG35" t="s">
+        <v>1243</v>
       </c>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>789</v>
+      <c r="A36" s="125" t="s">
+        <v>1232</v>
       </c>
       <c r="B36">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C36" t="s">
-        <v>142</v>
-      </c>
-      <c r="D36" t="s">
-        <v>143</v>
-      </c>
-      <c r="E36" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H36" t="s">
-        <v>785</v>
-      </c>
-      <c r="I36" t="s">
-        <v>1510</v>
-      </c>
-      <c r="J36" s="96" t="s">
-        <v>770</v>
-      </c>
-      <c r="K36" s="96" t="s">
-        <v>771</v>
-      </c>
-      <c r="L36" s="96" t="s">
-        <v>19</v>
-      </c>
-      <c r="M36" s="96"/>
-      <c r="N36" s="96" t="s">
-        <v>767</v>
-      </c>
-      <c r="O36">
-        <v>40.702464999999997</v>
-      </c>
-      <c r="P36">
-        <v>-105.241646</v>
-      </c>
-      <c r="Q36">
-        <v>1</v>
-      </c>
-      <c r="R36" t="s">
-        <v>790</v>
-      </c>
-      <c r="S36" t="s">
-        <v>22</v>
-      </c>
-      <c r="T36" t="s">
-        <v>22</v>
-      </c>
-      <c r="U36" t="s">
-        <v>791</v>
-      </c>
-      <c r="V36" t="s">
-        <v>1401</v>
+        <v>1451</v>
+      </c>
+      <c r="I36" s="96" t="s">
+        <v>1525</v>
       </c>
       <c r="W36" t="s">
-        <v>1430</v>
+        <v>1422</v>
       </c>
       <c r="X36" t="s">
-        <v>1429</v>
+        <v>1452</v>
       </c>
       <c r="Y36" s="96" t="s">
-        <v>1156</v>
-      </c>
-      <c r="Z36" s="96" t="s">
-        <v>1492</v>
-      </c>
+        <v>1478</v>
+      </c>
+      <c r="Z36" s="96"/>
       <c r="AB36" t="s">
         <v>1156</v>
       </c>
       <c r="AC36" t="s">
-        <v>1243</v>
+        <v>1488</v>
       </c>
       <c r="AD36" t="s">
-        <v>1243</v>
+        <v>1620</v>
       </c>
       <c r="AE36" t="s">
         <v>1243</v>
       </c>
-      <c r="AG36" t="s">
+      <c r="AF36" s="8" t="s">
+        <v>1488</v>
+      </c>
+      <c r="AG36" s="8" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A37" s="125" t="s">
+        <v>789</v>
+      </c>
+      <c r="B37">
+        <v>2014</v>
+      </c>
+      <c r="C37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H37" t="s">
+        <v>785</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1510</v>
+      </c>
+      <c r="J37" s="96" t="s">
+        <v>770</v>
+      </c>
+      <c r="K37" s="96" t="s">
+        <v>771</v>
+      </c>
+      <c r="L37" s="96" t="s">
+        <v>19</v>
+      </c>
+      <c r="M37" s="96"/>
+      <c r="N37" s="96" t="s">
+        <v>767</v>
+      </c>
+      <c r="O37">
+        <v>40.702464999999997</v>
+      </c>
+      <c r="P37">
+        <v>-105.241646</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37" t="s">
+        <v>790</v>
+      </c>
+      <c r="S37" t="s">
+        <v>22</v>
+      </c>
+      <c r="T37" t="s">
+        <v>22</v>
+      </c>
+      <c r="U37" t="s">
+        <v>791</v>
+      </c>
+      <c r="V37" t="s">
+        <v>1401</v>
+      </c>
+      <c r="W37" t="s">
+        <v>1430</v>
+      </c>
+      <c r="X37" t="s">
+        <v>1429</v>
+      </c>
+      <c r="Y37" s="96" t="s">
+        <v>1156</v>
+      </c>
+      <c r="Z37" s="96" t="s">
+        <v>1492</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AC37" t="s">
         <v>1243</v>
       </c>
+      <c r="AD37" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>1243</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AD36">
-    <sortCondition ref="B2:B36"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AD37">
+    <sortCondition ref="B2:B37"/>
   </sortState>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F7 F19:F24" xr:uid="{8B21EFF3-D61C-024F-A87C-4FC0F83918E4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F7 F20:F25" xr:uid="{8B21EFF3-D61C-024F-A87C-4FC0F83918E4}">
       <formula1>"No fire event, no DOC/NO3, No river, Prescribed Burn, Maybe"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F27:F32 F8:F18" xr:uid="{0E623121-76BB-5545-A51E-3CA5AE425338}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F28:F33 F8:F19" xr:uid="{0E623121-76BB-5545-A51E-3CA5AE425338}">
       <formula1>"Included, No fire event, no DOC/NO3, No river, Prescribed Burn, Wrong study design, Maybe"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F25:F26" xr:uid="{6293A447-FF72-D446-A29F-02B4F97196AE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26:F27" xr:uid="{6293A447-FF72-D446-A29F-02B4F97196AE}">
       <formula1>"No fire event, no DOC/NO3, No river, Prescribed Burn, Wrong study design, Maybe"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="D12" r:id="rId1" xr:uid="{73D7F5F8-4377-1E4E-A0CC-C0B3159C0DFF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
+++ b/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-meta/FireMeta_Rproj/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26464C0-C9A9-814C-8FA2-3ACADE87BB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902C72C4-FE57-7340-B270-3C521C7F42DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="0" windowWidth="38400" windowHeight="24000" activeTab="4" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="4" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
   </bookViews>
   <sheets>
     <sheet name="Study_info" sheetId="2" r:id="rId1"/>
@@ -30421,8 +30421,8 @@
   <dimension ref="A1:AG37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="X1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE13" sqref="AE13"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
+++ b/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-meta/FireMeta_Rproj/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902C72C4-FE57-7340-B270-3C521C7F42DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF0C57F-330D-5F42-8D71-3E5FEF7AF934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="4" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" activeTab="4" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
   </bookViews>
   <sheets>
     <sheet name="Study_info" sheetId="2" r:id="rId1"/>
@@ -30422,7 +30422,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C14" sqref="C14"/>
+      <selection pane="topRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
+++ b/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-meta/FireMeta_Rproj/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF0C57F-330D-5F42-8D71-3E5FEF7AF934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D62C4F3-B747-A646-906B-C3BA65E8AF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" activeTab="4" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
+    <workbookView xWindow="30240" yWindow="0" windowWidth="38400" windowHeight="24000" activeTab="4" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
   </bookViews>
   <sheets>
     <sheet name="Study_info" sheetId="2" r:id="rId1"/>
@@ -30422,7 +30422,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C11" sqref="C11"/>
+      <selection pane="topRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
+++ b/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-meta/FireMeta_Rproj/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D62C4F3-B747-A646-906B-C3BA65E8AF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01017F80-15A8-D643-8F8A-D94486EC0AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="0" windowWidth="38400" windowHeight="24000" activeTab="4" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
   </bookViews>
@@ -4730,9 +4730,6 @@
     <t>Yosemite NP Fire</t>
   </si>
   <si>
-    <t>Caldor Fire(2021)_Mosquito Fire (2002)</t>
-  </si>
-  <si>
     <t>Angora Fire (2007)</t>
   </si>
   <si>
@@ -5075,7 +5072,10 @@
     <t>Can only find TOC data to extract or take from the supplemental</t>
   </si>
   <si>
-    <t>Pole Creek Fire Complex</t>
+    <t>Pole Creek Fire Complex (2018)</t>
+  </si>
+  <si>
+    <t>Caldor Fire(2021)_Mosquito Fire (2022)</t>
   </si>
 </sst>
 </file>
@@ -30422,7 +30422,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C19" sqref="C19"/>
+      <selection pane="topRight" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30430,7 +30430,8 @@
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" customWidth="1"/>
     <col min="5" max="8" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="9" max="22" width="10.83203125" customWidth="1"/>
+    <col min="9" max="9" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="22" width="10.83203125" customWidth="1"/>
     <col min="23" max="23" width="9.6640625" customWidth="1"/>
     <col min="24" max="24" width="37.1640625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="20.5" customWidth="1"/>
@@ -30527,16 +30528,16 @@
         <v>1486</v>
       </c>
       <c r="AD1" s="105" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="AE1" s="6" t="s">
         <v>1379</v>
       </c>
       <c r="AF1" s="6" t="s">
+        <v>1620</v>
+      </c>
+      <c r="AG1" s="6" t="s">
         <v>1621</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>1622</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
@@ -30565,7 +30566,7 @@
         <v>785</v>
       </c>
       <c r="I2" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="M2" t="s">
         <v>937</v>
@@ -30645,7 +30646,7 @@
         <v>692</v>
       </c>
       <c r="I3" s="106" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="L3" t="s">
         <v>1176</v>
@@ -30705,7 +30706,7 @@
         <v>1488</v>
       </c>
       <c r="AG3" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
@@ -30883,7 +30884,7 @@
         <v>693</v>
       </c>
       <c r="I6" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="L6" t="s">
         <v>19</v>
@@ -30940,7 +30941,7 @@
         <v>1243</v>
       </c>
       <c r="AF6" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="AG6" t="s">
         <v>1244</v>
@@ -30972,7 +30973,7 @@
         <v>785</v>
       </c>
       <c r="I7" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="J7" t="s">
         <v>24</v>
@@ -31026,7 +31027,7 @@
         <v>1243</v>
       </c>
       <c r="AD7" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="AE7" t="s">
         <v>1243</v>
@@ -31061,7 +31062,7 @@
         <v>785</v>
       </c>
       <c r="I8" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="M8">
         <v>3</v>
@@ -31141,7 +31142,7 @@
         <v>785</v>
       </c>
       <c r="I9" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="J9" t="s">
         <v>1004</v>
@@ -31284,7 +31285,7 @@
         <v>1243</v>
       </c>
       <c r="AF10" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="AG10" t="s">
         <v>1244</v>
@@ -31303,7 +31304,7 @@
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="I11" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="V11" t="s">
         <v>1401</v>
@@ -31350,18 +31351,18 @@
         <v>422</v>
       </c>
       <c r="D12" s="62" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="I12" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="O12" s="96">
         <v>40.133513999999998</v>
@@ -31373,7 +31374,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="R12" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="S12" t="s">
         <v>22</v>
@@ -31382,7 +31383,7 @@
         <v>22</v>
       </c>
       <c r="U12" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="V12" t="s">
         <v>1401</v>
@@ -31422,7 +31423,7 @@
         <v>785</v>
       </c>
       <c r="I13" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="J13" t="s">
         <v>24</v>
@@ -31490,28 +31491,28 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="125" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B14">
         <v>1989</v>
       </c>
       <c r="C14" t="s">
+        <v>1595</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1602</v>
+      </c>
+      <c r="J14" t="s">
         <v>1596</v>
       </c>
-      <c r="I14" t="s">
-        <v>1603</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>1597</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" t="s">
+        <v>1599</v>
+      </c>
+      <c r="N14" t="s">
         <v>1598</v>
-      </c>
-      <c r="M14" t="s">
-        <v>1600</v>
-      </c>
-      <c r="N14" t="s">
-        <v>1599</v>
       </c>
       <c r="O14" s="94">
         <v>49.704340000000002</v>
@@ -31526,7 +31527,7 @@
         <v>22</v>
       </c>
       <c r="U14" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="V14" t="s">
         <v>1401</v>
@@ -31535,7 +31536,7 @@
         <v>1422</v>
       </c>
       <c r="X14" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="AD14" t="s">
         <v>1243</v>
@@ -31560,7 +31561,7 @@
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="I15" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="V15" t="s">
         <v>1381</v>
@@ -31635,13 +31636,13 @@
         <v>1490</v>
       </c>
       <c r="AD16" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="AE16" t="s">
         <v>1243</v>
       </c>
       <c r="AF16" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="AG16" t="s">
         <v>1244</v>
@@ -31673,7 +31674,7 @@
         <v>785</v>
       </c>
       <c r="I17" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="J17" t="s">
         <v>1184</v>
@@ -31719,13 +31720,13 @@
         <v>1484</v>
       </c>
       <c r="AD17" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="AE17" t="s">
         <v>1243</v>
       </c>
       <c r="AF17" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="AG17" t="s">
         <v>1244</v>
@@ -31757,7 +31758,7 @@
         <v>785</v>
       </c>
       <c r="I18" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="J18" t="s">
         <v>24</v>
@@ -31846,7 +31847,7 @@
         <v>785</v>
       </c>
       <c r="I19" t="s">
-        <v>1514</v>
+        <v>1629</v>
       </c>
       <c r="J19" t="s">
         <v>1168</v>
@@ -31900,7 +31901,7 @@
         <v>1243</v>
       </c>
       <c r="AD19" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="AE19" t="s">
         <v>1243</v>
@@ -31953,10 +31954,10 @@
         <v>1243</v>
       </c>
       <c r="AF20" t="s">
+        <v>1622</v>
+      </c>
+      <c r="AG20" t="s">
         <v>1623</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>1624</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.2">
@@ -31993,7 +31994,7 @@
         <v>1243</v>
       </c>
       <c r="AD21" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="AE21" t="s">
         <v>1243</v>
@@ -32028,7 +32029,7 @@
         <v>785</v>
       </c>
       <c r="I22" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="J22" s="93" t="s">
         <v>751</v>
@@ -32121,7 +32122,7 @@
         <v>693</v>
       </c>
       <c r="I23" s="96" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="J23" s="93" t="s">
         <v>827</v>
@@ -32216,7 +32217,7 @@
         <v>785</v>
       </c>
       <c r="I24" s="96" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="L24" t="s">
         <v>19</v>
@@ -32294,7 +32295,7 @@
         <v>3</v>
       </c>
       <c r="I25" s="96" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="M25" t="s">
         <v>849</v>
@@ -32353,28 +32354,28 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="125" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="B26">
         <v>1982</v>
       </c>
       <c r="C26" t="s">
+        <v>1605</v>
+      </c>
+      <c r="I26" t="s">
         <v>1606</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>1607</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>1608</v>
-      </c>
-      <c r="K26" t="s">
-        <v>1609</v>
       </c>
       <c r="M26">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="O26">
         <v>36.095348999999999</v>
@@ -32392,16 +32393,16 @@
         <v>22</v>
       </c>
       <c r="U26" t="s">
+        <v>1610</v>
+      </c>
+      <c r="V26" t="s">
         <v>1611</v>
-      </c>
-      <c r="V26" t="s">
-        <v>1612</v>
       </c>
       <c r="W26" t="s">
         <v>1426</v>
       </c>
       <c r="X26" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="AD26" t="s">
         <v>1243</v>
@@ -32436,7 +32437,7 @@
         <v>785</v>
       </c>
       <c r="I27" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="J27" t="s">
         <v>882</v>
@@ -32516,7 +32517,7 @@
         <v>785</v>
       </c>
       <c r="I28" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="J28" t="s">
         <v>24</v>
@@ -32656,7 +32657,7 @@
         <v>1244</v>
       </c>
       <c r="AD29" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="AE29" t="s">
         <v>1243</v>
@@ -32825,13 +32826,13 @@
         <v>1483</v>
       </c>
       <c r="AD31" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="AE31" t="s">
         <v>1243</v>
       </c>
       <c r="AF31" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="AG31" t="s">
         <v>1244</v>
@@ -32860,7 +32861,7 @@
         <v>785</v>
       </c>
       <c r="I32" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="M32" t="s">
         <v>930</v>
@@ -32919,22 +32920,22 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" s="125" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="B33">
         <v>1973</v>
       </c>
       <c r="C33" t="s">
+        <v>1586</v>
+      </c>
+      <c r="I33" t="s">
         <v>1587</v>
-      </c>
-      <c r="I33" t="s">
-        <v>1588</v>
       </c>
       <c r="J33" t="s">
         <v>24</v>
       </c>
       <c r="K33" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="L33" t="s">
         <v>19</v>
@@ -32943,7 +32944,7 @@
         <v>883</v>
       </c>
       <c r="N33" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="O33" s="122">
         <v>48.102674999999998</v>
@@ -32955,13 +32956,13 @@
         <v>2</v>
       </c>
       <c r="R33" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="T33" t="s">
         <v>22</v>
       </c>
       <c r="U33" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="V33" t="s">
         <v>1401</v>
@@ -32970,7 +32971,7 @@
         <v>1426</v>
       </c>
       <c r="X33" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="AD33" t="s">
         <v>1243</v>
@@ -33008,7 +33009,7 @@
         <v>785</v>
       </c>
       <c r="I34" s="96" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="J34" t="s">
         <v>873</v>
@@ -33172,7 +33173,7 @@
         <v>1451</v>
       </c>
       <c r="I36" s="96" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="W36" t="s">
         <v>1422</v>
@@ -33191,7 +33192,7 @@
         <v>1488</v>
       </c>
       <c r="AD36" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="AE36" t="s">
         <v>1243</v>
@@ -33334,16 +33335,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B1" s="105" t="s">
         <v>1533</v>
       </c>
-      <c r="B1" s="105" t="s">
-        <v>1534</v>
-      </c>
       <c r="C1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="D1" s="105" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -33351,10 +33352,10 @@
         <v>935</v>
       </c>
       <c r="B2" s="118" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="D2" s="117" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -33362,7 +33363,7 @@
         <v>1174</v>
       </c>
       <c r="B3" s="118" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="D3" s="60" t="s">
         <v>681</v>
@@ -33373,10 +33374,10 @@
         <v>681</v>
       </c>
       <c r="B4" s="119" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="C4" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="D4" t="s">
         <v>1413</v>
@@ -33387,10 +33388,10 @@
         <v>681</v>
       </c>
       <c r="B5" s="119" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="C5" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="D5" t="s">
         <v>1443</v>
@@ -33401,7 +33402,7 @@
         <v>1404</v>
       </c>
       <c r="B6" s="118" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="D6" t="s">
         <v>928</v>
@@ -33412,10 +33413,10 @@
         <v>1413</v>
       </c>
       <c r="B7" s="120" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="C7" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="D7" t="s">
         <v>727</v>
@@ -33426,10 +33427,10 @@
         <v>835</v>
       </c>
       <c r="B8" s="119" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="C8" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="D8" t="s">
         <v>1231</v>
@@ -33440,10 +33441,10 @@
         <v>1001</v>
       </c>
       <c r="B9" s="119" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="C9" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="D9" t="s">
         <v>1233</v>
@@ -33454,10 +33455,10 @@
         <v>982</v>
       </c>
       <c r="B10" s="119" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="C10" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="D10" s="96" t="s">
         <v>750</v>
@@ -33468,10 +33469,10 @@
         <v>1443</v>
       </c>
       <c r="B11" s="119" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="C11" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="D11" s="96" t="s">
         <v>826</v>
@@ -33482,10 +33483,10 @@
         <v>928</v>
       </c>
       <c r="B12" s="119" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="C12" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="D12" t="s">
         <v>711</v>
@@ -33496,7 +33497,7 @@
         <v>670</v>
       </c>
       <c r="B13" s="118" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="D13" t="s">
         <v>881</v>
@@ -33507,10 +33508,10 @@
         <v>909</v>
       </c>
       <c r="B14" s="123" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="C14" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="D14" t="s">
         <v>762</v>
@@ -33521,7 +33522,7 @@
         <v>1183</v>
       </c>
       <c r="B15" s="118" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="D15" t="s">
         <v>789</v>
@@ -33532,7 +33533,7 @@
         <v>727</v>
       </c>
       <c r="B16" s="118" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -33540,10 +33541,10 @@
         <v>1165</v>
       </c>
       <c r="B17" s="118" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="D17" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -33551,13 +33552,13 @@
         <v>1231</v>
       </c>
       <c r="B18" s="119" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C18" t="s">
         <v>700</v>
       </c>
       <c r="D18" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -33565,10 +33566,10 @@
         <v>720</v>
       </c>
       <c r="B19" s="119" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="C19" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -33576,10 +33577,10 @@
         <v>1233</v>
       </c>
       <c r="B20" s="119" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="C20" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -33587,7 +33588,7 @@
         <v>750</v>
       </c>
       <c r="B21" s="118" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -33595,7 +33596,7 @@
         <v>826</v>
       </c>
       <c r="B22" s="118" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -33603,7 +33604,7 @@
         <v>711</v>
       </c>
       <c r="B23" s="118" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -33611,10 +33612,10 @@
         <v>848</v>
       </c>
       <c r="B24" s="121" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="C24" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -33622,7 +33623,7 @@
         <v>881</v>
       </c>
       <c r="B25" s="118" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -33630,10 +33631,10 @@
         <v>1091</v>
       </c>
       <c r="B26" s="119" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="C26" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -33641,7 +33642,7 @@
         <v>689</v>
       </c>
       <c r="B27" s="118" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -33649,10 +33650,10 @@
         <v>762</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="C28" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -33660,10 +33661,10 @@
         <v>924</v>
       </c>
       <c r="B29" s="119" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="C29" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -33671,10 +33672,10 @@
         <v>948</v>
       </c>
       <c r="B30" s="119" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="C30" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -33682,10 +33683,10 @@
         <v>871</v>
       </c>
       <c r="B31" s="123" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="C31" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -33693,10 +33694,10 @@
         <v>765</v>
       </c>
       <c r="B32" s="119" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="C32" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -33704,10 +33705,10 @@
         <v>1232</v>
       </c>
       <c r="B33" s="119" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="C33" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -33715,31 +33716,31 @@
         <v>789</v>
       </c>
       <c r="B34" s="119" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="C34" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B35" s="119" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="C35" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B36" s="119" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="C36" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B37" s="118" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
   </sheetData>

--- a/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
+++ b/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-meta/FireMeta_Rproj/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01017F80-15A8-D643-8F8A-D94486EC0AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4A529F-4BB7-4C4F-BB8F-F979306F8BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="0" windowWidth="38400" windowHeight="24000" activeTab="4" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
   </bookViews>
@@ -30422,7 +30422,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I20" sqref="I20"/>
+      <selection pane="topRight" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
+++ b/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-meta/FireMeta_Rproj/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4A529F-4BB7-4C4F-BB8F-F979306F8BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8A380D-1AE4-3A43-A06B-254C7CDA8663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="0" windowWidth="38400" windowHeight="24000" activeTab="4" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6741" uniqueCount="1630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6746" uniqueCount="1634">
   <si>
     <t>Study</t>
   </si>
@@ -4721,69 +4721,12 @@
     <t>Hewlett Gulch_High Park fire</t>
   </si>
   <si>
-    <t>Hayman Fire (2002)</t>
-  </si>
-  <si>
-    <t>High Park Fire (2012)</t>
-  </si>
-  <si>
     <t>Yosemite NP Fire</t>
   </si>
   <si>
-    <t>Angora Fire (2007)</t>
-  </si>
-  <si>
-    <t>Anaktuvuk River wildfire (2007)</t>
-  </si>
-  <si>
-    <t>Thompson Ridge Wildfire (2013)</t>
-  </si>
-  <si>
-    <t>Boundary Fire (2004)</t>
-  </si>
-  <si>
-    <t>Lost Creek Wildfire (2003)</t>
-  </si>
-  <si>
-    <t>Camp Branch Fire (2016)_Tellico Fire (2016)</t>
-  </si>
-  <si>
-    <t>Clover-Mist Wildfire (1988)</t>
-  </si>
-  <si>
     <t>Historic Fires</t>
   </si>
   <si>
-    <t>Rampage Fire (2003)_Others in Glacier NP</t>
-  </si>
-  <si>
-    <t>Fern Lake (2012)</t>
-  </si>
-  <si>
-    <t>Fourmile Canyon Fire (2010)</t>
-  </si>
-  <si>
-    <t>Rocky Fire (2015)_Wragg Fire (2015)</t>
-  </si>
-  <si>
-    <t>Hayman Fire (2002)_High Park Fire (2012)</t>
-  </si>
-  <si>
-    <t>No name given (2002)</t>
-  </si>
-  <si>
-    <t>Northwest Territories Fire (2013)</t>
-  </si>
-  <si>
-    <t>Red Bench Fire (1988)</t>
-  </si>
-  <si>
-    <t>No name given (2007)</t>
-  </si>
-  <si>
-    <t>Gaviota Fire (2004)</t>
-  </si>
-  <si>
     <t>My_Search</t>
   </si>
   <si>
@@ -4949,9 +4892,6 @@
     <t>Stream chemistry following a forest fire and urea fertilization in north-central Washington</t>
   </si>
   <si>
-    <t>Safety Harbor Fire (1970)</t>
-  </si>
-  <si>
     <t>Ponderosa pine, bitterbrush, bluebunch wheatgrass, cheatgrass, arrowleaf balsamroot, Douglas fir, Pinegrass, Ross sedge, alder, willow, subalpine fir, whitebark pine</t>
   </si>
   <si>
@@ -4994,9 +4934,6 @@
     <t xml:space="preserve">Figure 3 has nitrate-N for East fork (burned) middle fork (burned) and West Fork (unburned). Hampton has already extracted this data and Ill be using that </t>
   </si>
   <si>
-    <t>Matt fire, 1985</t>
-  </si>
-  <si>
     <t>added</t>
   </si>
   <si>
@@ -5072,10 +5009,85 @@
     <t>Can only find TOC data to extract or take from the supplemental</t>
   </si>
   <si>
-    <t>Pole Creek Fire Complex (2018)</t>
-  </si>
-  <si>
-    <t>Caldor Fire(2021)_Mosquito Fire (2022)</t>
+    <t>Fire_year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anaktuvuk River wildfire </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thompson Ridge Wildfire </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boundary Fire </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lost Creek Wildfire </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northwest Territories Fire </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camp Branch Fire_Tellico Fire </t>
+  </si>
+  <si>
+    <t>2021_2022</t>
+  </si>
+  <si>
+    <t>2002_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaviota Fire </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pole Creek Fire Complex </t>
+  </si>
+  <si>
+    <t>Clover-Mist Wildfire</t>
+  </si>
+  <si>
+    <t>Matt fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hayman Fire </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No name given </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Bench Fire </t>
+  </si>
+  <si>
+    <t>Caldor Fire_Mosquito Fire</t>
+  </si>
+  <si>
+    <t>Rampage Fire_Others in Glacier NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fern Lake </t>
+  </si>
+  <si>
+    <t>Fourmile Canyon Fire</t>
+  </si>
+  <si>
+    <t>Angora Fire</t>
+  </si>
+  <si>
+    <t>Hayman Fire_High Park Fire</t>
+  </si>
+  <si>
+    <t>No name given</t>
+  </si>
+  <si>
+    <t>Safety Harbor Fire</t>
+  </si>
+  <si>
+    <t>Rocky Fire_Wragg Fire</t>
+  </si>
+  <si>
+    <t>High Park Fire</t>
+  </si>
+  <si>
+    <t>2012_2012</t>
   </si>
 </sst>
 </file>
@@ -30418,11 +30430,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E83DAFB-3D69-1A4C-8997-3EF8B4236F27}">
-  <dimension ref="A1:AG37"/>
+  <dimension ref="A1:AH37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I36" sqref="I36"/>
+      <selection pane="topRight" activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30431,15 +30443,16 @@
     <col min="2" max="2" width="9.1640625" customWidth="1"/>
     <col min="5" max="8" width="10.83203125" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="22" width="10.83203125" customWidth="1"/>
-    <col min="23" max="23" width="9.6640625" customWidth="1"/>
-    <col min="24" max="24" width="37.1640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.5" customWidth="1"/>
-    <col min="31" max="31" width="4" customWidth="1"/>
-    <col min="32" max="32" width="9.5" customWidth="1"/>
+    <col min="10" max="10" width="38.6640625" customWidth="1"/>
+    <col min="11" max="23" width="10.83203125" customWidth="1"/>
+    <col min="24" max="24" width="9.6640625" customWidth="1"/>
+    <col min="25" max="25" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.5" customWidth="1"/>
+    <col min="32" max="32" width="4" customWidth="1"/>
+    <col min="33" max="33" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -30468,79 +30481,82 @@
         <v>1508</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>1607</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="74" t="s">
+      <c r="W1" s="74" t="s">
         <v>1380</v>
       </c>
-      <c r="W1" s="105" t="s">
+      <c r="X1" s="105" t="s">
         <v>1421</v>
       </c>
-      <c r="X1" s="105" t="s">
+      <c r="Y1" s="105" t="s">
         <v>1420</v>
       </c>
-      <c r="Y1" s="105" t="s">
+      <c r="Z1" s="105" t="s">
         <v>1456</v>
       </c>
-      <c r="Z1" s="105" t="s">
+      <c r="AA1" s="105" t="s">
         <v>1491</v>
       </c>
-      <c r="AA1" s="105" t="s">
+      <c r="AB1" s="105" t="s">
         <v>1464</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>1479</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>1486</v>
       </c>
-      <c r="AD1" s="105" t="s">
-        <v>1613</v>
-      </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AE1" s="105" t="s">
+        <v>1592</v>
+      </c>
+      <c r="AF1" s="6" t="s">
         <v>1379</v>
       </c>
-      <c r="AF1" s="6" t="s">
-        <v>1620</v>
-      </c>
       <c r="AG1" s="6" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+        <v>1599</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" s="125" t="s">
         <v>935</v>
       </c>
@@ -30566,49 +30582,49 @@
         <v>785</v>
       </c>
       <c r="I2" t="s">
-        <v>1515</v>
-      </c>
-      <c r="M2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="J2">
+        <v>2007</v>
+      </c>
+      <c r="N2" t="s">
         <v>937</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>938</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>69.166667000000004</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>-150.75</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>2</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>22</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>939</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>1382</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>1432</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>1431</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>1458</v>
       </c>
-      <c r="Z2" s="116" t="s">
+      <c r="AA2" s="116" t="s">
         <v>1499</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>1481</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>1243</v>
       </c>
       <c r="AD2" t="s">
         <v>1243</v>
@@ -30616,11 +30632,14 @@
       <c r="AE2" t="s">
         <v>1243</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AF2" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH2" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" s="125" t="s">
         <v>1174</v>
       </c>
@@ -30646,70 +30665,73 @@
         <v>692</v>
       </c>
       <c r="I3" s="106" t="s">
-        <v>1516</v>
-      </c>
-      <c r="L3" t="s">
+        <v>1609</v>
+      </c>
+      <c r="J3" s="106">
+        <v>2013</v>
+      </c>
+      <c r="M3" t="s">
         <v>1176</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>1177</v>
       </c>
-      <c r="N3" s="106" t="s">
+      <c r="O3" s="106" t="s">
         <v>1175</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>35.890813000000001</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>-106.540854</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>9</v>
-      </c>
-      <c r="S3" t="s">
-        <v>22</v>
       </c>
       <c r="T3" t="s">
         <v>22</v>
       </c>
       <c r="U3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" t="s">
         <v>1178</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>1390</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>1422</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>1433</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>1463</v>
       </c>
-      <c r="Z3" s="116" t="s">
+      <c r="AA3" s="116" t="s">
         <v>1499</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>1480</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>1483</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>1243</v>
       </c>
       <c r="AE3" t="s">
         <v>1243</v>
       </c>
       <c r="AF3" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AG3" t="s">
         <v>1488</v>
       </c>
-      <c r="AG3" t="s">
-        <v>1623</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH3" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" s="125" t="s">
         <v>681</v>
       </c>
@@ -30736,25 +30758,23 @@
       <c r="L4" s="60"/>
       <c r="M4" s="60"/>
       <c r="N4" s="60"/>
-      <c r="P4" s="60"/>
+      <c r="O4" s="60"/>
       <c r="Q4" s="60"/>
       <c r="R4" s="60"/>
       <c r="S4" s="60"/>
       <c r="T4" s="60"/>
-      <c r="U4" s="60" t="s">
+      <c r="U4" s="60"/>
+      <c r="V4" s="60" t="s">
         <v>682</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>1406</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>1156</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>1156</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>1243</v>
       </c>
       <c r="AD4" t="s">
         <v>1243</v>
@@ -30762,11 +30782,14 @@
       <c r="AE4" t="s">
         <v>1243</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AF4" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH4" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" s="125" t="s">
         <v>681</v>
       </c>
@@ -30794,56 +30817,53 @@
       <c r="I5" t="s">
         <v>1156</v>
       </c>
-      <c r="J5" s="93" t="s">
+      <c r="K5" s="93" t="s">
         <v>733</v>
       </c>
-      <c r="K5" s="93" t="s">
+      <c r="L5" s="93" t="s">
         <v>734</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="93" t="s">
+      <c r="O5" s="93" t="s">
         <v>731</v>
       </c>
-      <c r="O5" s="94">
+      <c r="P5" s="94">
         <v>49.667000000000002</v>
       </c>
-      <c r="P5" s="94">
+      <c r="Q5" s="94">
         <v>-93.733000000000004</v>
       </c>
-      <c r="Q5" s="95">
+      <c r="R5" s="95">
         <v>15</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>732</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>22</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>1394</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>1390</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>1422</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>1414</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>1244</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>1499</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>1156</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>1243</v>
       </c>
       <c r="AD5" t="s">
         <v>1243</v>
@@ -30851,14 +30871,17 @@
       <c r="AE5" t="s">
         <v>1243</v>
       </c>
-      <c r="AF5" s="124" t="s">
+      <c r="AF5" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AG5" s="124" t="s">
         <v>1488</v>
       </c>
-      <c r="AG5" s="124" t="s">
+      <c r="AH5" s="124" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" s="125" t="s">
         <v>1404</v>
       </c>
@@ -30884,70 +30907,73 @@
         <v>693</v>
       </c>
       <c r="I6" t="s">
-        <v>1517</v>
-      </c>
-      <c r="L6" t="s">
+        <v>1610</v>
+      </c>
+      <c r="J6">
+        <v>2004</v>
+      </c>
+      <c r="M6" t="s">
         <v>19</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>784</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>783</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>65.150000000000006</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>-147.5</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>3</v>
-      </c>
-      <c r="S6" t="s">
-        <v>22</v>
       </c>
       <c r="T6" t="s">
         <v>22</v>
       </c>
       <c r="U6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V6" t="s">
         <v>782</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>1405</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>1422</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>1415</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>1459</v>
       </c>
-      <c r="Z6" s="116" t="s">
+      <c r="AA6" s="116" t="s">
         <v>1500</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>1156</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>1483</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>1243</v>
       </c>
       <c r="AE6" t="s">
         <v>1243</v>
       </c>
       <c r="AF6" t="s">
-        <v>1622</v>
+        <v>1243</v>
       </c>
       <c r="AG6" t="s">
+        <v>1601</v>
+      </c>
+      <c r="AH6" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" s="125" t="s">
         <v>1413</v>
       </c>
@@ -30973,70 +30999,73 @@
         <v>785</v>
       </c>
       <c r="I7" t="s">
-        <v>1518</v>
-      </c>
-      <c r="J7" t="s">
+        <v>1611</v>
+      </c>
+      <c r="J7">
+        <v>2003</v>
+      </c>
+      <c r="K7" t="s">
         <v>24</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>741</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>19</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>742</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>49.616667</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>-114.666667</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>3</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>744</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>22</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>1393</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>1401</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>1422</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>1416</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>1460</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>1501</v>
       </c>
-      <c r="AB7" s="114" t="s">
+      <c r="AC7" s="114" t="s">
         <v>1156</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>1243</v>
       </c>
-      <c r="AD7" t="s">
-        <v>1615</v>
-      </c>
       <c r="AE7" t="s">
+        <v>1594</v>
+      </c>
+      <c r="AF7" t="s">
         <v>1243</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AH7" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" s="125" t="s">
         <v>835</v>
       </c>
@@ -31062,64 +31091,67 @@
         <v>785</v>
       </c>
       <c r="I8" t="s">
-        <v>1528</v>
-      </c>
-      <c r="M8">
+        <v>1612</v>
+      </c>
+      <c r="J8">
+        <v>2013</v>
+      </c>
+      <c r="N8">
         <v>3</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>836</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>61.4</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>-121.433333</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>0.5</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>743</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>22</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>837</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>1382</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>1424</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>1453</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>1156</v>
       </c>
-      <c r="Z8" s="116" t="s">
+      <c r="AA8" s="116" t="s">
         <v>1499</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>1156</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>1243</v>
       </c>
       <c r="AE8" t="s">
         <v>1243</v>
       </c>
       <c r="AF8" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AG8" t="s">
         <v>1487</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AH8" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="125" t="s">
         <v>1001</v>
       </c>
@@ -31142,73 +31174,76 @@
         <v>785</v>
       </c>
       <c r="I9" t="s">
-        <v>1519</v>
-      </c>
-      <c r="J9" t="s">
+        <v>1613</v>
+      </c>
+      <c r="J9">
+        <v>2016</v>
+      </c>
+      <c r="K9" t="s">
         <v>1004</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>1002</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>1378</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>35</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>-83</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>2</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>989</v>
-      </c>
-      <c r="S9" t="s">
-        <v>22</v>
       </c>
       <c r="T9" t="s">
         <v>22</v>
       </c>
       <c r="U9" t="s">
+        <v>22</v>
+      </c>
+      <c r="V9" t="s">
         <v>1005</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>1382</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>1422</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>1502</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>1461</v>
       </c>
-      <c r="Z9" s="116" t="s">
+      <c r="AA9" s="116" t="s">
         <v>1503</v>
       </c>
-      <c r="AB9" s="113" t="s">
+      <c r="AC9" s="113" t="s">
         <v>1156</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>1483</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>1243</v>
       </c>
       <c r="AE9" t="s">
         <v>1243</v>
       </c>
-      <c r="AF9" s="8" t="s">
+      <c r="AF9" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AG9" s="8" t="s">
         <v>1488</v>
       </c>
-      <c r="AG9" s="8" t="s">
+      <c r="AH9" s="8" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" s="125" t="s">
         <v>982</v>
       </c>
@@ -31231,67 +31266,70 @@
         <v>785</v>
       </c>
       <c r="I10" t="s">
-        <v>1511</v>
-      </c>
-      <c r="M10" t="s">
+        <v>695</v>
+      </c>
+      <c r="J10">
+        <v>2002</v>
+      </c>
+      <c r="N10" t="s">
         <v>985</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>695</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>39.177683000000002</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-105.26552</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>2</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>984</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>22</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>983</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>1401</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>1422</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>1417</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>1462</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>1499</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>1482</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>1483</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>1243</v>
       </c>
       <c r="AE10" t="s">
         <v>1243</v>
       </c>
       <c r="AF10" t="s">
-        <v>1622</v>
+        <v>1243</v>
       </c>
       <c r="AG10" t="s">
+        <v>1601</v>
+      </c>
+      <c r="AH10" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="125" t="s">
         <v>1443</v>
       </c>
@@ -31304,31 +31342,31 @@
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="I11" t="s">
-        <v>1531</v>
-      </c>
-      <c r="V11" t="s">
+        <v>1616</v>
+      </c>
+      <c r="J11">
+        <v>2004</v>
+      </c>
+      <c r="W11" t="s">
         <v>1401</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>1422</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>1445</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>1465</v>
       </c>
-      <c r="Z11" s="116" t="s">
+      <c r="AA11" s="116" t="s">
         <v>1504</v>
       </c>
-      <c r="AA11" s="62" t="s">
+      <c r="AB11" s="62" t="s">
         <v>1466</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>1156</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>1243</v>
       </c>
       <c r="AD11" t="s">
         <v>1243</v>
@@ -31336,11 +31374,14 @@
       <c r="AE11" t="s">
         <v>1243</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AF11" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH11" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" s="125" t="s">
         <v>1115</v>
       </c>
@@ -31351,53 +31392,56 @@
         <v>422</v>
       </c>
       <c r="D12" s="62" t="s">
-        <v>1624</v>
+        <v>1603</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="I12" t="s">
-        <v>1628</v>
-      </c>
-      <c r="M12">
+        <v>1617</v>
+      </c>
+      <c r="J12">
+        <v>2018</v>
+      </c>
+      <c r="N12">
         <v>0</v>
       </c>
-      <c r="N12" t="s">
-        <v>1625</v>
-      </c>
-      <c r="O12" s="96">
+      <c r="O12" t="s">
+        <v>1604</v>
+      </c>
+      <c r="P12" s="96">
         <v>40.133513999999998</v>
       </c>
-      <c r="P12" s="96">
+      <c r="Q12" s="96">
         <v>-111.771241</v>
       </c>
-      <c r="Q12" s="96">
+      <c r="R12" s="96">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="R12" t="s">
-        <v>1626</v>
-      </c>
       <c r="S12" t="s">
-        <v>22</v>
+        <v>1605</v>
       </c>
       <c r="T12" t="s">
         <v>22</v>
       </c>
       <c r="U12" t="s">
-        <v>1627</v>
+        <v>22</v>
       </c>
       <c r="V12" t="s">
+        <v>1606</v>
+      </c>
+      <c r="W12" t="s">
         <v>1401</v>
       </c>
-      <c r="Z12" s="116"/>
-      <c r="AA12" s="62"/>
-      <c r="AE12" t="s">
+      <c r="AA12" s="116"/>
+      <c r="AB12" s="62"/>
+      <c r="AF12" t="s">
         <v>1243</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AH12" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" s="125" t="s">
         <v>928</v>
       </c>
@@ -31423,61 +31467,61 @@
         <v>785</v>
       </c>
       <c r="I13" t="s">
-        <v>1520</v>
-      </c>
-      <c r="J13" t="s">
+        <v>1618</v>
+      </c>
+      <c r="J13">
+        <v>1988</v>
+      </c>
+      <c r="K13" t="s">
         <v>24</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>932</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>930</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>931</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>44.512999999999998</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>-109.98</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>4</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>933</v>
-      </c>
-      <c r="S13" t="s">
-        <v>22</v>
       </c>
       <c r="T13" t="s">
         <v>22</v>
       </c>
       <c r="U13" t="s">
+        <v>22</v>
+      </c>
+      <c r="V13" t="s">
         <v>934</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>1382</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>1422</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>1467</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>1468</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>1499</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>1156</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>1243</v>
       </c>
       <c r="AD13" t="s">
         <v>1243</v>
@@ -31485,70 +31529,76 @@
       <c r="AE13" t="s">
         <v>1243</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AF13" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH13" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" s="125" t="s">
-        <v>1594</v>
+        <v>1574</v>
       </c>
       <c r="B14">
         <v>1989</v>
       </c>
       <c r="C14" t="s">
-        <v>1595</v>
+        <v>1575</v>
       </c>
       <c r="I14" t="s">
-        <v>1602</v>
-      </c>
-      <c r="J14" t="s">
-        <v>1596</v>
+        <v>1619</v>
+      </c>
+      <c r="J14">
+        <v>1985</v>
       </c>
       <c r="K14" t="s">
-        <v>1597</v>
-      </c>
-      <c r="M14" t="s">
-        <v>1599</v>
+        <v>1576</v>
+      </c>
+      <c r="L14" t="s">
+        <v>1577</v>
       </c>
       <c r="N14" t="s">
-        <v>1598</v>
-      </c>
-      <c r="O14" s="94">
+        <v>1579</v>
+      </c>
+      <c r="O14" t="s">
+        <v>1578</v>
+      </c>
+      <c r="P14" s="94">
         <v>49.704340000000002</v>
       </c>
-      <c r="P14" s="94">
+      <c r="Q14" s="94">
         <v>-116.118877</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>3</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>22</v>
       </c>
-      <c r="U14" t="s">
-        <v>1601</v>
-      </c>
       <c r="V14" t="s">
+        <v>1581</v>
+      </c>
+      <c r="W14" t="s">
         <v>1401</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>1422</v>
       </c>
-      <c r="X14" t="s">
-        <v>1600</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>1243</v>
+      <c r="Y14" t="s">
+        <v>1580</v>
       </c>
       <c r="AE14" t="s">
         <v>1243</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AF14" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH14" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" s="125" t="s">
         <v>670</v>
       </c>
@@ -31561,31 +31611,28 @@
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="I15" t="s">
-        <v>1521</v>
-      </c>
-      <c r="V15" t="s">
+        <v>1512</v>
+      </c>
+      <c r="W15" t="s">
         <v>1381</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>1422</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>1469</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>1470</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>1505</v>
       </c>
-      <c r="AA15" s="114" t="s">
+      <c r="AB15" s="114" t="s">
         <v>1471</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>1156</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>1243</v>
       </c>
       <c r="AD15" t="s">
         <v>1243</v>
@@ -31593,11 +31640,14 @@
       <c r="AE15" t="s">
         <v>1243</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AF15" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="16" spans="1:33" ht="18" x14ac:dyDescent="0.2">
+      <c r="AH15" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="125" t="s">
         <v>909</v>
       </c>
@@ -31610,45 +31660,48 @@
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="I16" t="s">
-        <v>1511</v>
-      </c>
-      <c r="K16" s="97"/>
-      <c r="N16" s="98"/>
-      <c r="V16" t="s">
+        <v>1620</v>
+      </c>
+      <c r="J16">
+        <v>2002</v>
+      </c>
+      <c r="L16" s="97"/>
+      <c r="O16" s="98"/>
+      <c r="W16" t="s">
         <v>1385</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>1436</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>1446</v>
       </c>
-      <c r="Y16" s="96" t="s">
+      <c r="Z16" s="96" t="s">
         <v>1156</v>
       </c>
-      <c r="Z16" s="96" t="s">
+      <c r="AA16" s="96" t="s">
         <v>1493</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>1156</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>1490</v>
       </c>
-      <c r="AD16" t="s">
-        <v>1614</v>
-      </c>
       <c r="AE16" t="s">
+        <v>1593</v>
+      </c>
+      <c r="AF16" t="s">
         <v>1243</v>
       </c>
-      <c r="AF16" t="s">
-        <v>1622</v>
-      </c>
       <c r="AG16" t="s">
+        <v>1601</v>
+      </c>
+      <c r="AH16" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="125" t="s">
         <v>1183</v>
       </c>
@@ -31674,65 +31727,68 @@
         <v>785</v>
       </c>
       <c r="I17" t="s">
-        <v>1530</v>
-      </c>
-      <c r="J17" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J17">
+        <v>2007</v>
+      </c>
+      <c r="K17" t="s">
         <v>1184</v>
       </c>
-      <c r="K17" s="97"/>
-      <c r="M17">
+      <c r="L17" s="97"/>
+      <c r="N17">
         <v>4</v>
       </c>
-      <c r="N17" s="98" t="s">
+      <c r="O17" s="98" t="s">
         <v>1186</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>44.910800000000002</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>-116.1031</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
         <v>22</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>1185</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>1401</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>1422</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>1418</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>1472</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>1506</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>1156</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>1484</v>
       </c>
-      <c r="AD17" t="s">
-        <v>1615</v>
-      </c>
       <c r="AE17" t="s">
+        <v>1594</v>
+      </c>
+      <c r="AF17" t="s">
         <v>1243</v>
       </c>
-      <c r="AF17" t="s">
-        <v>1622</v>
-      </c>
       <c r="AG17" t="s">
+        <v>1601</v>
+      </c>
+      <c r="AH17" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18" s="125" t="s">
         <v>727</v>
       </c>
@@ -31758,58 +31814,58 @@
         <v>785</v>
       </c>
       <c r="I18" t="s">
-        <v>1529</v>
-      </c>
-      <c r="J18" t="s">
+        <v>1622</v>
+      </c>
+      <c r="J18">
+        <v>1988</v>
+      </c>
+      <c r="K18" t="s">
         <v>24</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>724</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>19</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>725</v>
       </c>
-      <c r="O18" s="99">
+      <c r="P18" s="99">
         <v>48.762999999999998</v>
       </c>
-      <c r="P18" s="99">
+      <c r="Q18" s="99">
         <v>-114.226</v>
       </c>
-      <c r="Q18" s="100">
+      <c r="R18" s="100">
         <v>5</v>
       </c>
-      <c r="R18" s="100" t="s">
+      <c r="S18" s="100" t="s">
         <v>726</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
         <v>22</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>1395</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>1401</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>1424</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>1419</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>1156</v>
       </c>
-      <c r="Z18" s="116" t="s">
+      <c r="AA18" s="116" t="s">
         <v>1497</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AC18" t="s">
         <v>1156</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>1243</v>
       </c>
       <c r="AD18" t="s">
         <v>1243</v>
@@ -31817,11 +31873,14 @@
       <c r="AE18" t="s">
         <v>1243</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AF18" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH18" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19" s="125" t="s">
         <v>1165</v>
       </c>
@@ -31847,70 +31906,73 @@
         <v>785</v>
       </c>
       <c r="I19" t="s">
-        <v>1629</v>
+        <v>1623</v>
       </c>
       <c r="J19" t="s">
+        <v>1614</v>
+      </c>
+      <c r="K19" t="s">
         <v>1168</v>
       </c>
-      <c r="L19" s="46" t="s">
+      <c r="M19" s="46" t="s">
         <v>1166</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>987</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>1167</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>38.916015999999999</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>-120.281718</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>2</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>1170</v>
       </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
         <v>22</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>1169</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>1382</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>1424</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>1434</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>1156</v>
       </c>
-      <c r="Z19" s="116" t="s">
+      <c r="AA19" s="116" t="s">
         <v>1499</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AC19" t="s">
         <v>1156</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>1243</v>
       </c>
-      <c r="AD19" t="s">
-        <v>1614</v>
-      </c>
       <c r="AE19" t="s">
+        <v>1593</v>
+      </c>
+      <c r="AF19" t="s">
         <v>1243</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AH19" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" ht="19" x14ac:dyDescent="0.2">
       <c r="A20" s="125" t="s">
         <v>1231</v>
       </c>
@@ -31925,42 +31987,45 @@
       <c r="I20" t="s">
         <v>1510</v>
       </c>
-      <c r="L20" s="46"/>
-      <c r="V20" t="s">
+      <c r="J20" t="s">
+        <v>1633</v>
+      </c>
+      <c r="M20" s="46"/>
+      <c r="W20" t="s">
         <v>1390</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>1430</v>
       </c>
-      <c r="X20" s="112" t="s">
+      <c r="Y20" s="112" t="s">
         <v>1448</v>
       </c>
-      <c r="Y20" s="96" t="s">
+      <c r="Z20" s="96" t="s">
         <v>1156</v>
       </c>
-      <c r="Z20" s="96" t="s">
+      <c r="AA20" s="96" t="s">
         <v>1492</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AC20" t="s">
         <v>1156</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>1489</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>1243</v>
       </c>
       <c r="AE20" t="s">
         <v>1243</v>
       </c>
       <c r="AF20" t="s">
-        <v>1622</v>
+        <v>1243</v>
       </c>
       <c r="AG20" t="s">
-        <v>1623</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+        <v>1601</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21" s="125" t="s">
         <v>1233</v>
       </c>
@@ -31975,35 +32040,35 @@
       <c r="I21" t="s">
         <v>1509</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>1450</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>1455</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>1454</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>1244</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AC21" t="s">
         <v>1156</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>1243</v>
       </c>
-      <c r="AD21" t="s">
-        <v>1616</v>
-      </c>
       <c r="AE21" t="s">
+        <v>1595</v>
+      </c>
+      <c r="AF21" t="s">
         <v>1243</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AH21" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22" s="125" t="s">
         <v>750</v>
       </c>
@@ -32029,74 +32094,77 @@
         <v>785</v>
       </c>
       <c r="I22" t="s">
-        <v>1522</v>
-      </c>
-      <c r="J22" s="93" t="s">
+        <v>1624</v>
+      </c>
+      <c r="J22">
+        <v>2003</v>
+      </c>
+      <c r="K22" s="93" t="s">
         <v>751</v>
       </c>
-      <c r="K22" s="93" t="s">
+      <c r="L22" s="93" t="s">
         <v>752</v>
       </c>
-      <c r="L22" s="93" t="s">
+      <c r="M22" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="M22" s="96"/>
-      <c r="N22" s="93" t="s">
+      <c r="N22" s="96"/>
+      <c r="O22" s="93" t="s">
         <v>753</v>
       </c>
-      <c r="O22" s="94">
+      <c r="P22" s="94">
         <v>48.789253000000002</v>
       </c>
-      <c r="P22" s="94">
+      <c r="Q22" s="94">
         <v>-113.79626500000001</v>
       </c>
-      <c r="Q22" s="95">
+      <c r="R22" s="95">
         <v>4</v>
       </c>
-      <c r="R22" s="95" t="s">
+      <c r="S22" s="95" t="s">
         <v>754</v>
-      </c>
-      <c r="S22" s="96" t="s">
-        <v>22</v>
       </c>
       <c r="T22" s="96" t="s">
         <v>22</v>
       </c>
       <c r="U22" s="96" t="s">
+        <v>22</v>
+      </c>
+      <c r="V22" s="96" t="s">
         <v>1392</v>
       </c>
-      <c r="V22" s="96" t="s">
+      <c r="W22" s="96" t="s">
         <v>1403</v>
       </c>
-      <c r="W22" s="96" t="s">
+      <c r="X22" s="96" t="s">
         <v>1422</v>
       </c>
-      <c r="X22" s="96" t="s">
+      <c r="Y22" s="96" t="s">
         <v>1473</v>
       </c>
-      <c r="Y22" s="96" t="s">
+      <c r="Z22" s="96" t="s">
         <v>1474</v>
       </c>
-      <c r="Z22" s="116" t="s">
+      <c r="AA22" s="116" t="s">
         <v>1507</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AC22" t="s">
         <v>1156</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AD22" t="s">
         <v>1485</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>1243</v>
       </c>
       <c r="AE22" t="s">
         <v>1243</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AF22" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH22" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23" s="125" t="s">
         <v>826</v>
       </c>
@@ -32122,76 +32190,79 @@
         <v>693</v>
       </c>
       <c r="I23" s="96" t="s">
-        <v>1523</v>
-      </c>
-      <c r="J23" s="93" t="s">
+        <v>1625</v>
+      </c>
+      <c r="J23" s="96">
+        <v>2012</v>
+      </c>
+      <c r="K23" s="93" t="s">
         <v>827</v>
       </c>
-      <c r="K23" s="93" t="s">
+      <c r="L23" s="93" t="s">
         <v>828</v>
       </c>
-      <c r="L23" s="93" t="s">
+      <c r="M23" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="M23" s="103" t="s">
+      <c r="N23" s="103" t="s">
         <v>833</v>
       </c>
-      <c r="N23" s="93" t="s">
+      <c r="O23" s="93" t="s">
         <v>829</v>
       </c>
-      <c r="O23" s="94">
+      <c r="P23" s="94">
         <v>40.353888888</v>
       </c>
-      <c r="P23" s="94">
+      <c r="Q23" s="94">
         <v>-105.583611111</v>
       </c>
-      <c r="Q23" s="95">
+      <c r="R23" s="95">
         <v>2</v>
       </c>
-      <c r="R23" s="95" t="s">
+      <c r="S23" s="95" t="s">
         <v>830</v>
-      </c>
-      <c r="S23" s="96" t="s">
-        <v>22</v>
       </c>
       <c r="T23" s="96" t="s">
         <v>22</v>
       </c>
       <c r="U23" s="96" t="s">
+        <v>22</v>
+      </c>
+      <c r="V23" s="96" t="s">
         <v>831</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>1405</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>1422</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>1423</v>
       </c>
-      <c r="Y23" s="96" t="s">
+      <c r="Z23" s="96" t="s">
         <v>1475</v>
       </c>
-      <c r="Z23" s="96" t="s">
+      <c r="AA23" s="96" t="s">
         <v>1499</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AC23" t="s">
         <v>1156</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AD23" t="s">
         <v>1243</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>1485</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AF23" t="s">
         <v>1243</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AH23" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" s="125" t="s">
         <v>711</v>
       </c>
@@ -32217,53 +32288,53 @@
         <v>785</v>
       </c>
       <c r="I24" s="96" t="s">
-        <v>1524</v>
-      </c>
-      <c r="L24" t="s">
+        <v>1626</v>
+      </c>
+      <c r="J24" s="96">
+        <v>2010</v>
+      </c>
+      <c r="M24" t="s">
         <v>19</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>708</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>40.033332999999999</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>-105.416667</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>3</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>709</v>
-      </c>
-      <c r="S24" t="s">
-        <v>22</v>
       </c>
       <c r="T24" t="s">
         <v>22</v>
       </c>
       <c r="U24" t="s">
+        <v>22</v>
+      </c>
+      <c r="V24" t="s">
         <v>710</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>1382</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>1422</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>1435</v>
       </c>
-      <c r="Y24" s="96" t="s">
+      <c r="Z24" s="96" t="s">
         <v>1476</v>
       </c>
-      <c r="Z24" s="96"/>
-      <c r="AB24" t="s">
+      <c r="AA24" s="96"/>
+      <c r="AC24" t="s">
         <v>1156</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>1243</v>
       </c>
       <c r="AD24" t="s">
         <v>1243</v>
@@ -32271,11 +32342,14 @@
       <c r="AE24" t="s">
         <v>1243</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AF24" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH24" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25" s="125" t="s">
         <v>848</v>
       </c>
@@ -32295,52 +32369,52 @@
         <v>3</v>
       </c>
       <c r="I25" s="96" t="s">
-        <v>1524</v>
-      </c>
-      <c r="M25" t="s">
+        <v>1626</v>
+      </c>
+      <c r="J25" s="96">
+        <v>2010</v>
+      </c>
+      <c r="N25" t="s">
         <v>849</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>1377</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>40.050263700000002</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>-105.3666599</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>5</v>
-      </c>
-      <c r="S25" t="s">
-        <v>22</v>
       </c>
       <c r="T25" t="s">
         <v>22</v>
       </c>
       <c r="U25" t="s">
+        <v>22</v>
+      </c>
+      <c r="V25" t="s">
         <v>850</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>1401</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>1422</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>1425</v>
       </c>
-      <c r="Y25" s="96" t="s">
+      <c r="Z25" s="96" t="s">
         <v>1476</v>
       </c>
-      <c r="Z25" s="96" t="s">
+      <c r="AA25" s="96" t="s">
         <v>1499</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AC25" t="s">
         <v>1156</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>1243</v>
       </c>
       <c r="AD25" t="s">
         <v>1243</v>
@@ -32348,70 +32422,73 @@
       <c r="AE25" t="s">
         <v>1243</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AF25" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH25" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26" s="125" t="s">
-        <v>1604</v>
+        <v>1583</v>
       </c>
       <c r="B26">
         <v>1982</v>
       </c>
       <c r="C26" t="s">
-        <v>1605</v>
+        <v>1584</v>
       </c>
       <c r="I26" t="s">
-        <v>1606</v>
-      </c>
-      <c r="J26" t="s">
-        <v>1607</v>
+        <v>1585</v>
       </c>
       <c r="K26" t="s">
-        <v>1608</v>
-      </c>
-      <c r="M26">
+        <v>1586</v>
+      </c>
+      <c r="L26" t="s">
+        <v>1587</v>
+      </c>
+      <c r="N26">
         <v>1</v>
       </c>
-      <c r="N26" t="s">
-        <v>1609</v>
-      </c>
-      <c r="O26">
+      <c r="O26" t="s">
+        <v>1588</v>
+      </c>
+      <c r="P26">
         <v>36.095348999999999</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>-82.265000000000001</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>1</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>989</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U26" t="s">
         <v>22</v>
       </c>
-      <c r="U26" t="s">
-        <v>1610</v>
-      </c>
       <c r="V26" t="s">
-        <v>1611</v>
+        <v>1589</v>
       </c>
       <c r="W26" t="s">
+        <v>1590</v>
+      </c>
+      <c r="X26" t="s">
         <v>1426</v>
       </c>
-      <c r="X26" t="s">
-        <v>1612</v>
-      </c>
-      <c r="AD26" t="s">
+      <c r="Y26" t="s">
+        <v>1591</v>
+      </c>
+      <c r="AE26" t="s">
         <v>1243</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AH26" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27" s="125" t="s">
         <v>881</v>
       </c>
@@ -32437,49 +32514,49 @@
         <v>785</v>
       </c>
       <c r="I27" t="s">
-        <v>1514</v>
-      </c>
-      <c r="J27" t="s">
+        <v>1627</v>
+      </c>
+      <c r="J27">
+        <v>2007</v>
+      </c>
+      <c r="K27" t="s">
         <v>882</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>883</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>884</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>38.896382000000003</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>-120.041629</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>2</v>
       </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
         <v>22</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>887</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>1401</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>1424</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>1498</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>1457</v>
       </c>
-      <c r="AB27" t="s">
+      <c r="AC27" t="s">
         <v>1156</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>1243</v>
       </c>
       <c r="AD27" t="s">
         <v>1243</v>
@@ -32487,11 +32564,14 @@
       <c r="AE27" t="s">
         <v>1243</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AF27" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH27" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28" s="125" t="s">
         <v>1091</v>
       </c>
@@ -32517,67 +32597,70 @@
         <v>785</v>
       </c>
       <c r="I28" t="s">
-        <v>1526</v>
+        <v>1628</v>
       </c>
       <c r="J28" t="s">
+        <v>1615</v>
+      </c>
+      <c r="K28" t="s">
         <v>24</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>1094</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>1092</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>1093</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>1096</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>40.262369999999997</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>-105.59080400000001</v>
       </c>
-      <c r="Q28" s="100">
+      <c r="R28" s="100">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>1095</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>1382</v>
       </c>
-      <c r="W28" t="s">
+      <c r="X28" t="s">
         <v>1436</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>1437</v>
       </c>
-      <c r="Y28" s="96" t="s">
+      <c r="Z28" s="96" t="s">
         <v>1156</v>
       </c>
-      <c r="Z28" s="96" t="s">
+      <c r="AA28" s="96" t="s">
         <v>1493</v>
       </c>
-      <c r="AB28" t="s">
+      <c r="AC28" t="s">
         <v>1156</v>
       </c>
-      <c r="AC28" t="s">
+      <c r="AD28" t="s">
         <v>1490</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>1243</v>
       </c>
       <c r="AE28" t="s">
         <v>1243</v>
       </c>
-      <c r="AG28" t="s">
+      <c r="AF28" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH28" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29" s="125" t="s">
         <v>689</v>
       </c>
@@ -32603,70 +32686,73 @@
         <v>693</v>
       </c>
       <c r="I29" t="s">
-        <v>1511</v>
-      </c>
-      <c r="J29" t="s">
+        <v>695</v>
+      </c>
+      <c r="J29">
+        <v>2002</v>
+      </c>
+      <c r="K29" t="s">
         <v>24</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>694</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>19</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>695</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>39.177683000000002</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>-105.26552</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>5</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>690</v>
       </c>
-      <c r="T29" t="s">
+      <c r="U29" t="s">
         <v>22</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>696</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>1382</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>1439</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>1438</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>1156</v>
       </c>
-      <c r="Z29" s="115" t="s">
+      <c r="AA29" s="115" t="s">
         <v>1493</v>
       </c>
-      <c r="AB29" t="s">
+      <c r="AC29" t="s">
         <v>1156</v>
       </c>
-      <c r="AC29" t="s">
+      <c r="AD29" t="s">
         <v>1244</v>
       </c>
-      <c r="AD29" t="s">
-        <v>1617</v>
-      </c>
       <c r="AE29" t="s">
+        <v>1596</v>
+      </c>
+      <c r="AF29" t="s">
         <v>1243</v>
       </c>
-      <c r="AG29" t="s">
+      <c r="AH29" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30" s="125" t="s">
         <v>762</v>
       </c>
@@ -32692,55 +32778,55 @@
         <v>785</v>
       </c>
       <c r="I30" t="s">
-        <v>1511</v>
-      </c>
-      <c r="J30" t="s">
+        <v>695</v>
+      </c>
+      <c r="J30">
+        <v>2002</v>
+      </c>
+      <c r="K30" t="s">
         <v>24</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>694</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>19</v>
       </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
         <v>721</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>39.177683000000002</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>-105.26552</v>
-      </c>
-      <c r="S30" t="s">
-        <v>22</v>
       </c>
       <c r="T30" t="s">
         <v>22</v>
       </c>
       <c r="U30" t="s">
+        <v>22</v>
+      </c>
+      <c r="V30" t="s">
         <v>1108</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>1382</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>1440</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>1441</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>1156</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="AA30" t="s">
         <v>1494</v>
       </c>
-      <c r="AB30" t="s">
+      <c r="AC30" t="s">
         <v>1156</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>1243</v>
       </c>
       <c r="AD30" t="s">
         <v>1243</v>
@@ -32748,11 +32834,14 @@
       <c r="AE30" t="s">
         <v>1243</v>
       </c>
-      <c r="AG30" t="s">
+      <c r="AF30" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH30" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31" s="125" t="s">
         <v>924</v>
       </c>
@@ -32778,67 +32867,67 @@
         <v>785</v>
       </c>
       <c r="I31" t="s">
-        <v>1513</v>
-      </c>
-      <c r="J31" t="s">
+        <v>1511</v>
+      </c>
+      <c r="K31" t="s">
         <v>873</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>926</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>927</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>37.534036999999998</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>-119.389139</v>
-      </c>
-      <c r="S31" t="s">
-        <v>22</v>
       </c>
       <c r="T31" t="s">
         <v>22</v>
       </c>
       <c r="U31" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" t="s">
         <v>925</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>1401</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>1426</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>1427</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>1156</v>
       </c>
-      <c r="Z31" s="116" t="s">
+      <c r="AA31" s="116" t="s">
         <v>1495</v>
       </c>
-      <c r="AB31" t="s">
+      <c r="AC31" t="s">
         <v>1156</v>
       </c>
-      <c r="AC31" t="s">
+      <c r="AD31" t="s">
         <v>1483</v>
       </c>
-      <c r="AD31" t="s">
-        <v>1618</v>
-      </c>
       <c r="AE31" t="s">
+        <v>1597</v>
+      </c>
+      <c r="AF31" t="s">
         <v>1243</v>
       </c>
-      <c r="AF31" t="s">
-        <v>1622</v>
-      </c>
       <c r="AG31" t="s">
+        <v>1601</v>
+      </c>
+      <c r="AH31" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A32" s="125" t="s">
         <v>948</v>
       </c>
@@ -32861,129 +32950,135 @@
         <v>785</v>
       </c>
       <c r="I32" t="s">
-        <v>1527</v>
-      </c>
-      <c r="M32" t="s">
+        <v>1629</v>
+      </c>
+      <c r="J32">
+        <v>2002</v>
+      </c>
+      <c r="N32" t="s">
         <v>930</v>
       </c>
-      <c r="N32" t="s">
+      <c r="O32" t="s">
         <v>949</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>44.578524999999999</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>-115.66604</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>4</v>
       </c>
-      <c r="T32" t="s">
+      <c r="U32" t="s">
         <v>22</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>950</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>1386</v>
       </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>1426</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>1427</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>1156</v>
       </c>
-      <c r="Z32" s="116" t="s">
+      <c r="AA32" s="116" t="s">
         <v>1496</v>
       </c>
-      <c r="AB32" t="s">
+      <c r="AC32" t="s">
         <v>1156</v>
       </c>
-      <c r="AC32" t="s">
+      <c r="AD32" t="s">
         <v>1244</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>1243</v>
       </c>
       <c r="AE32" t="s">
         <v>1243</v>
       </c>
-      <c r="AF32" s="8" t="s">
+      <c r="AF32" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AG32" s="8" t="s">
         <v>1488</v>
       </c>
-      <c r="AG32" s="8" t="s">
+      <c r="AH32" s="8" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A33" s="125" t="s">
-        <v>1585</v>
+        <v>1566</v>
       </c>
       <c r="B33">
         <v>1973</v>
       </c>
       <c r="C33" t="s">
-        <v>1586</v>
+        <v>1567</v>
       </c>
       <c r="I33" t="s">
-        <v>1587</v>
-      </c>
-      <c r="J33" t="s">
+        <v>1630</v>
+      </c>
+      <c r="J33">
+        <v>1970</v>
+      </c>
+      <c r="K33" t="s">
         <v>24</v>
       </c>
-      <c r="K33" t="s">
-        <v>1588</v>
-      </c>
       <c r="L33" t="s">
+        <v>1568</v>
+      </c>
+      <c r="M33" t="s">
         <v>19</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>883</v>
       </c>
-      <c r="N33" t="s">
-        <v>1589</v>
-      </c>
-      <c r="O33" s="122">
+      <c r="O33" t="s">
+        <v>1569</v>
+      </c>
+      <c r="P33" s="122">
         <v>48.102674999999998</v>
       </c>
-      <c r="P33" s="122">
+      <c r="Q33" s="122">
         <v>-120.35232000000001</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>2</v>
       </c>
-      <c r="R33" t="s">
-        <v>1590</v>
-      </c>
-      <c r="T33" t="s">
+      <c r="S33" t="s">
+        <v>1570</v>
+      </c>
+      <c r="U33" t="s">
         <v>22</v>
       </c>
-      <c r="U33" t="s">
-        <v>1591</v>
-      </c>
       <c r="V33" t="s">
+        <v>1571</v>
+      </c>
+      <c r="W33" t="s">
         <v>1401</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X33" t="s">
         <v>1426</v>
       </c>
-      <c r="X33" t="s">
-        <v>1592</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>1243</v>
+      <c r="Y33" t="s">
+        <v>1572</v>
       </c>
       <c r="AE33" t="s">
         <v>1243</v>
       </c>
-      <c r="AG33" t="s">
+      <c r="AF33" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH33" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A34" s="125" t="s">
         <v>871</v>
       </c>
@@ -33009,68 +33104,71 @@
         <v>785</v>
       </c>
       <c r="I34" s="96" t="s">
-        <v>1525</v>
-      </c>
-      <c r="J34" t="s">
+        <v>1631</v>
+      </c>
+      <c r="J34" s="96">
+        <v>2015</v>
+      </c>
+      <c r="K34" t="s">
         <v>873</v>
       </c>
-      <c r="M34" s="104" t="s">
+      <c r="N34" s="104" t="s">
         <v>874</v>
       </c>
-      <c r="N34" t="s">
+      <c r="O34" t="s">
         <v>875</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>38.512031</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>-122.097228</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>3</v>
       </c>
-      <c r="R34" t="s">
+      <c r="S34" t="s">
         <v>876</v>
-      </c>
-      <c r="S34" t="s">
-        <v>22</v>
       </c>
       <c r="T34" t="s">
         <v>22</v>
       </c>
       <c r="U34" t="s">
+        <v>22</v>
+      </c>
+      <c r="V34" t="s">
         <v>872</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>1401</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X34" t="s">
         <v>1422</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>1428</v>
       </c>
-      <c r="Y34" s="96" t="s">
+      <c r="Z34" s="96" t="s">
         <v>1477</v>
       </c>
-      <c r="Z34" s="96"/>
-      <c r="AB34" t="s">
+      <c r="AA34" s="96"/>
+      <c r="AC34" t="s">
         <v>1156</v>
       </c>
-      <c r="AC34" t="s">
+      <c r="AD34" t="s">
         <v>1487</v>
       </c>
-      <c r="AD34" t="s">
+      <c r="AE34" t="s">
         <v>1485</v>
       </c>
-      <c r="AE34" t="s">
+      <c r="AF34" t="s">
         <v>1243</v>
       </c>
-      <c r="AG34" t="s">
+      <c r="AH34" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A35" s="125" t="s">
         <v>765</v>
       </c>
@@ -33096,61 +33194,61 @@
         <v>785</v>
       </c>
       <c r="I35" t="s">
-        <v>1512</v>
-      </c>
-      <c r="J35" s="108" t="s">
+        <v>1632</v>
+      </c>
+      <c r="J35" s="96">
+        <v>2012</v>
+      </c>
+      <c r="K35" s="108" t="s">
         <v>770</v>
       </c>
-      <c r="K35" s="108" t="s">
+      <c r="L35" s="108" t="s">
         <v>771</v>
       </c>
-      <c r="L35" s="108" t="s">
+      <c r="M35" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>1</v>
       </c>
-      <c r="N35" s="108" t="s">
+      <c r="O35" s="108" t="s">
         <v>767</v>
       </c>
-      <c r="O35" s="109">
+      <c r="P35" s="109">
         <v>40.7159999</v>
       </c>
-      <c r="P35" s="109">
+      <c r="Q35" s="109">
         <v>-105.23308400000001</v>
       </c>
-      <c r="Q35" s="110">
+      <c r="R35" s="110">
         <v>0.5</v>
       </c>
-      <c r="R35" s="110" t="s">
+      <c r="S35" s="110" t="s">
         <v>768</v>
       </c>
-      <c r="S35" t="s">
+      <c r="T35" t="s">
         <v>22</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>769</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>1382</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X35" t="s">
         <v>1430</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>1442</v>
       </c>
-      <c r="Y35" s="96" t="s">
+      <c r="Z35" s="96" t="s">
         <v>1156</v>
       </c>
-      <c r="Z35" s="96" t="s">
+      <c r="AA35" s="96" t="s">
         <v>1492</v>
       </c>
-      <c r="AB35" t="s">
+      <c r="AC35" t="s">
         <v>1156</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>1243</v>
       </c>
       <c r="AD35" t="s">
         <v>1243</v>
@@ -33158,11 +33256,14 @@
       <c r="AE35" t="s">
         <v>1243</v>
       </c>
-      <c r="AG35" t="s">
+      <c r="AF35" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH35" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A36" s="125" t="s">
         <v>1232</v>
       </c>
@@ -33173,38 +33274,41 @@
         <v>1451</v>
       </c>
       <c r="I36" s="96" t="s">
-        <v>1524</v>
-      </c>
-      <c r="W36" t="s">
+        <v>1626</v>
+      </c>
+      <c r="J36" s="96">
+        <v>2010</v>
+      </c>
+      <c r="X36" t="s">
         <v>1422</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>1452</v>
       </c>
-      <c r="Y36" s="96" t="s">
+      <c r="Z36" s="96" t="s">
         <v>1478</v>
       </c>
-      <c r="Z36" s="96"/>
-      <c r="AB36" t="s">
+      <c r="AA36" s="96"/>
+      <c r="AC36" t="s">
         <v>1156</v>
       </c>
-      <c r="AC36" t="s">
+      <c r="AD36" t="s">
         <v>1488</v>
       </c>
-      <c r="AD36" t="s">
-        <v>1619</v>
-      </c>
       <c r="AE36" t="s">
+        <v>1598</v>
+      </c>
+      <c r="AF36" t="s">
         <v>1243</v>
       </c>
-      <c r="AF36" s="8" t="s">
+      <c r="AG36" s="8" t="s">
         <v>1488</v>
       </c>
-      <c r="AG36" s="8" t="s">
+      <c r="AH36" s="8" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A37" s="125" t="s">
         <v>789</v>
       </c>
@@ -33229,60 +33333,60 @@
       <c r="I37" t="s">
         <v>1510</v>
       </c>
-      <c r="J37" s="96" t="s">
+      <c r="J37" t="s">
+        <v>1633</v>
+      </c>
+      <c r="K37" s="96" t="s">
         <v>770</v>
       </c>
-      <c r="K37" s="96" t="s">
+      <c r="L37" s="96" t="s">
         <v>771</v>
       </c>
-      <c r="L37" s="96" t="s">
+      <c r="M37" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="M37" s="96"/>
-      <c r="N37" s="96" t="s">
+      <c r="N37" s="96"/>
+      <c r="O37" s="96" t="s">
         <v>767</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>40.702464999999997</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>-105.241646</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>1</v>
       </c>
-      <c r="R37" t="s">
+      <c r="S37" t="s">
         <v>790</v>
-      </c>
-      <c r="S37" t="s">
-        <v>22</v>
       </c>
       <c r="T37" t="s">
         <v>22</v>
       </c>
       <c r="U37" t="s">
+        <v>22</v>
+      </c>
+      <c r="V37" t="s">
         <v>791</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>1401</v>
       </c>
-      <c r="W37" t="s">
+      <c r="X37" t="s">
         <v>1430</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>1429</v>
       </c>
-      <c r="Y37" s="96" t="s">
+      <c r="Z37" s="96" t="s">
         <v>1156</v>
       </c>
-      <c r="Z37" s="96" t="s">
+      <c r="AA37" s="96" t="s">
         <v>1492</v>
       </c>
-      <c r="AB37" t="s">
+      <c r="AC37" t="s">
         <v>1156</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>1243</v>
       </c>
       <c r="AD37" t="s">
         <v>1243</v>
@@ -33290,12 +33394,15 @@
       <c r="AE37" t="s">
         <v>1243</v>
       </c>
-      <c r="AG37" t="s">
+      <c r="AF37" t="s">
         <v>1243</v>
       </c>
+      <c r="AH37" t="s">
+        <v>1243</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AD37">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE37">
     <sortCondition ref="B2:B37"/>
   </sortState>
   <dataValidations count="3">
@@ -33335,16 +33442,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>1532</v>
+        <v>1513</v>
       </c>
       <c r="B1" s="105" t="s">
-        <v>1533</v>
+        <v>1514</v>
       </c>
       <c r="C1" t="s">
-        <v>1572</v>
+        <v>1553</v>
       </c>
       <c r="D1" s="105" t="s">
-        <v>1569</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -33352,10 +33459,10 @@
         <v>935</v>
       </c>
       <c r="B2" s="118" t="s">
-        <v>1559</v>
+        <v>1540</v>
       </c>
       <c r="D2" s="117" t="s">
-        <v>1559</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -33363,7 +33470,7 @@
         <v>1174</v>
       </c>
       <c r="B3" s="118" t="s">
-        <v>1546</v>
+        <v>1527</v>
       </c>
       <c r="D3" s="60" t="s">
         <v>681</v>
@@ -33374,10 +33481,10 @@
         <v>681</v>
       </c>
       <c r="B4" s="119" t="s">
-        <v>1560</v>
+        <v>1541</v>
       </c>
       <c r="C4" t="s">
-        <v>1573</v>
+        <v>1554</v>
       </c>
       <c r="D4" t="s">
         <v>1413</v>
@@ -33388,10 +33495,10 @@
         <v>681</v>
       </c>
       <c r="B5" s="119" t="s">
-        <v>1564</v>
+        <v>1545</v>
       </c>
       <c r="C5" t="s">
-        <v>1574</v>
+        <v>1555</v>
       </c>
       <c r="D5" t="s">
         <v>1443</v>
@@ -33402,7 +33509,7 @@
         <v>1404</v>
       </c>
       <c r="B6" s="118" t="s">
-        <v>1541</v>
+        <v>1522</v>
       </c>
       <c r="D6" t="s">
         <v>928</v>
@@ -33413,10 +33520,10 @@
         <v>1413</v>
       </c>
       <c r="B7" s="120" t="s">
-        <v>1542</v>
+        <v>1523</v>
       </c>
       <c r="C7" t="s">
-        <v>1575</v>
+        <v>1556</v>
       </c>
       <c r="D7" t="s">
         <v>727</v>
@@ -33427,10 +33534,10 @@
         <v>835</v>
       </c>
       <c r="B8" s="119" t="s">
-        <v>1549</v>
+        <v>1530</v>
       </c>
       <c r="C8" t="s">
-        <v>1576</v>
+        <v>1557</v>
       </c>
       <c r="D8" t="s">
         <v>1231</v>
@@ -33441,10 +33548,10 @@
         <v>1001</v>
       </c>
       <c r="B9" s="119" t="s">
-        <v>1549</v>
+        <v>1530</v>
       </c>
       <c r="C9" t="s">
-        <v>1577</v>
+        <v>1558</v>
       </c>
       <c r="D9" t="s">
         <v>1233</v>
@@ -33455,10 +33562,10 @@
         <v>982</v>
       </c>
       <c r="B10" s="119" t="s">
-        <v>1561</v>
+        <v>1542</v>
       </c>
       <c r="C10" t="s">
-        <v>1578</v>
+        <v>1559</v>
       </c>
       <c r="D10" s="96" t="s">
         <v>750</v>
@@ -33469,10 +33576,10 @@
         <v>1443</v>
       </c>
       <c r="B11" s="119" t="s">
-        <v>1552</v>
+        <v>1533</v>
       </c>
       <c r="C11" t="s">
-        <v>1579</v>
+        <v>1560</v>
       </c>
       <c r="D11" s="96" t="s">
         <v>826</v>
@@ -33483,10 +33590,10 @@
         <v>928</v>
       </c>
       <c r="B12" s="119" t="s">
-        <v>1544</v>
+        <v>1525</v>
       </c>
       <c r="C12" t="s">
-        <v>1580</v>
+        <v>1561</v>
       </c>
       <c r="D12" t="s">
         <v>711</v>
@@ -33497,7 +33604,7 @@
         <v>670</v>
       </c>
       <c r="B13" s="118" t="s">
-        <v>1556</v>
+        <v>1537</v>
       </c>
       <c r="D13" t="s">
         <v>881</v>
@@ -33508,10 +33615,10 @@
         <v>909</v>
       </c>
       <c r="B14" s="123" t="s">
-        <v>1562</v>
+        <v>1543</v>
       </c>
       <c r="C14" t="s">
-        <v>1603</v>
+        <v>1582</v>
       </c>
       <c r="D14" t="s">
         <v>762</v>
@@ -33522,7 +33629,7 @@
         <v>1183</v>
       </c>
       <c r="B15" s="118" t="s">
-        <v>1557</v>
+        <v>1538</v>
       </c>
       <c r="D15" t="s">
         <v>789</v>
@@ -33533,7 +33640,7 @@
         <v>727</v>
       </c>
       <c r="B16" s="118" t="s">
-        <v>1535</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -33541,10 +33648,10 @@
         <v>1165</v>
       </c>
       <c r="B17" s="118" t="s">
-        <v>1537</v>
+        <v>1518</v>
       </c>
       <c r="D17" t="s">
-        <v>1570</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -33552,13 +33659,13 @@
         <v>1231</v>
       </c>
       <c r="B18" s="119" t="s">
-        <v>1568</v>
+        <v>1549</v>
       </c>
       <c r="C18" t="s">
         <v>700</v>
       </c>
       <c r="D18" t="s">
-        <v>1571</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -33566,10 +33673,10 @@
         <v>720</v>
       </c>
       <c r="B19" s="119" t="s">
-        <v>1545</v>
+        <v>1526</v>
       </c>
       <c r="C19" t="s">
-        <v>1576</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -33577,10 +33684,10 @@
         <v>1233</v>
       </c>
       <c r="B20" s="119" t="s">
-        <v>1563</v>
+        <v>1544</v>
       </c>
       <c r="C20" t="s">
-        <v>1581</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -33588,7 +33695,7 @@
         <v>750</v>
       </c>
       <c r="B21" s="118" t="s">
-        <v>1547</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -33596,7 +33703,7 @@
         <v>826</v>
       </c>
       <c r="B22" s="118" t="s">
-        <v>1536</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -33604,7 +33711,7 @@
         <v>711</v>
       </c>
       <c r="B23" s="118" t="s">
-        <v>1538</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -33612,10 +33719,10 @@
         <v>848</v>
       </c>
       <c r="B24" s="121" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C24" t="s">
         <v>1565</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1584</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -33623,7 +33730,7 @@
         <v>881</v>
       </c>
       <c r="B25" s="118" t="s">
-        <v>1543</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -33631,10 +33738,10 @@
         <v>1091</v>
       </c>
       <c r="B26" s="119" t="s">
-        <v>1553</v>
+        <v>1534</v>
       </c>
       <c r="C26" t="s">
-        <v>1576</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -33642,7 +33749,7 @@
         <v>689</v>
       </c>
       <c r="B27" s="118" t="s">
-        <v>1534</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -33650,10 +33757,10 @@
         <v>762</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>1540</v>
+        <v>1521</v>
       </c>
       <c r="C28" t="s">
-        <v>1582</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -33661,10 +33768,10 @@
         <v>924</v>
       </c>
       <c r="B29" s="119" t="s">
-        <v>1550</v>
+        <v>1531</v>
       </c>
       <c r="C29" t="s">
-        <v>1578</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -33672,10 +33779,10 @@
         <v>948</v>
       </c>
       <c r="B30" s="119" t="s">
-        <v>1554</v>
+        <v>1535</v>
       </c>
       <c r="C30" t="s">
-        <v>1583</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -33683,10 +33790,10 @@
         <v>871</v>
       </c>
       <c r="B31" s="123" t="s">
-        <v>1567</v>
+        <v>1548</v>
       </c>
       <c r="C31" t="s">
-        <v>1593</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -33694,10 +33801,10 @@
         <v>765</v>
       </c>
       <c r="B32" s="119" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C32" t="s">
         <v>1555</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1574</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -33705,10 +33812,10 @@
         <v>1232</v>
       </c>
       <c r="B33" s="119" t="s">
-        <v>1551</v>
+        <v>1532</v>
       </c>
       <c r="C33" t="s">
-        <v>1574</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -33716,31 +33823,31 @@
         <v>789</v>
       </c>
       <c r="B34" s="119" t="s">
-        <v>1548</v>
+        <v>1529</v>
       </c>
       <c r="C34" t="s">
-        <v>1574</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B35" s="119" t="s">
-        <v>1558</v>
+        <v>1539</v>
       </c>
       <c r="C35" t="s">
-        <v>1578</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B36" s="119" t="s">
-        <v>1566</v>
+        <v>1547</v>
       </c>
       <c r="C36" t="s">
-        <v>1576</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B37" s="118" t="s">
-        <v>1539</v>
+        <v>1520</v>
       </c>
     </row>
   </sheetData>

--- a/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
+++ b/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-meta/FireMeta_Rproj/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8A380D-1AE4-3A43-A06B-254C7CDA8663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A172DD71-CD0B-5747-B168-F91C9CCC5CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="0" windowWidth="38400" windowHeight="24000" activeTab="4" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
+    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="23500" activeTab="7" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
   </bookViews>
   <sheets>
     <sheet name="Study_info" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="Study_info_filtered_V3_Q" sheetId="10" r:id="rId5"/>
     <sheet name="Hampton_cross_reference" sheetId="11" r:id="rId6"/>
     <sheet name="Original_meta_analysis" sheetId="4" r:id="rId7"/>
-    <sheet name="Exclusion" sheetId="3" r:id="rId8"/>
+    <sheet name="Publication" sheetId="12" r:id="rId8"/>
+    <sheet name="Exclusion" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6746" uniqueCount="1634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6908" uniqueCount="1663">
   <si>
     <t>Study</t>
   </si>
@@ -5089,6 +5090,93 @@
   <si>
     <t>2012_2012</t>
   </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>Pre_post_reference</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Climate/TSF/BP</t>
+  </si>
+  <si>
+    <t>Climate/TSF</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>Too old for burn percentage</t>
+  </si>
+  <si>
+    <t>Too new for burn percentage</t>
+  </si>
+  <si>
+    <t>Not in the USA (Canada)</t>
+  </si>
+  <si>
+    <t>Climate</t>
+  </si>
+  <si>
+    <t>Publications</t>
+  </si>
+  <si>
+    <t>Too long since fire for climate</t>
+  </si>
+  <si>
+    <t>Too long since fire for  climate, no MTBS data (in Alaska)</t>
+  </si>
+  <si>
+    <t>No_Exact_Dates</t>
+  </si>
+  <si>
+    <t>Mean of means, Historic fires</t>
+  </si>
+  <si>
+    <t>Watersheds</t>
+  </si>
+  <si>
+    <t>Reference_impact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excluded </t>
+  </si>
+  <si>
+    <t>8-mean/3-no exact dates</t>
+  </si>
+  <si>
+    <t>Total publications</t>
+  </si>
+  <si>
+    <t>Burn Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impossible to extract with all the overlapping points. </t>
+  </si>
+  <si>
+    <t>Monthly DOC concentrations</t>
+  </si>
+  <si>
+    <t>no data availability</t>
+  </si>
+  <si>
+    <t>Not open access</t>
+  </si>
+  <si>
+    <t>Not open access. Mean of burned and unburned sites. There is a time series plot and I could most likely extract if we wanted to add</t>
+  </si>
+  <si>
+    <t xml:space="preserve">supplemental are averages of sampling </t>
+  </si>
+  <si>
+    <t>chrome-extension://efaidnbmnnnibpcajpcglclefindmkaj/https://pubs.usgs.gov/fs/2012/3095/FS12-3095.pdf</t>
+  </si>
 </sst>
 </file>
 
@@ -5097,7 +5185,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5325,8 +5413,15 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5399,6 +5494,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFB7988"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -5413,7 +5514,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -5582,6 +5683,18 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5589,6 +5702,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFB7988"/>
+      <color rgb="FFFE4C2F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -5900,8 +6019,8 @@
   <dimension ref="A1:AQ321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30432,9 +30551,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E83DAFB-3D69-1A4C-8997-3EF8B4236F27}">
   <dimension ref="A1:AH37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J38" sqref="J38"/>
+      <selection pane="topRight" activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33272,6 +33391,9 @@
       </c>
       <c r="C36" t="s">
         <v>1451</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1662</v>
       </c>
       <c r="I36" s="96" t="s">
         <v>1626</v>
@@ -34345,6 +34467,637 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F57175-4851-C144-BE97-0FB64AE1A031}">
+  <dimension ref="A1:M41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="133" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="125" t="s">
+        <v>935</v>
+      </c>
+      <c r="B2" t="s">
+        <v>766</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1647</v>
+      </c>
+      <c r="F2" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="125" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B3" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="125" t="s">
+        <v>681</v>
+      </c>
+      <c r="B4" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="125" t="s">
+        <v>681</v>
+      </c>
+      <c r="B5" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="125" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B6" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="129" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="126" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B7" s="127" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C7" s="128" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D7" s="129" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="131" t="s">
+        <v>835</v>
+      </c>
+      <c r="B8" s="132" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1643</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1644</v>
+      </c>
+      <c r="F8" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="126" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B9" s="129" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C9" s="130" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D9" s="129" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="126" t="s">
+        <v>982</v>
+      </c>
+      <c r="B10" s="129" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C10" s="130" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D10" s="129" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="125" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1638</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1644</v>
+      </c>
+      <c r="F11" t="s">
+        <v>766</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="125" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1638</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1644</v>
+      </c>
+      <c r="F12" t="s">
+        <v>766</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="125" t="s">
+        <v>928</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1638</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1644</v>
+      </c>
+      <c r="F13" t="s">
+        <v>766</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="125" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1643</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1644</v>
+      </c>
+      <c r="F14" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="126" t="s">
+        <v>670</v>
+      </c>
+      <c r="B15" s="129" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C15" s="130" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D15" s="129" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="126" t="s">
+        <v>909</v>
+      </c>
+      <c r="B16" s="129" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C16" s="130" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D16" s="129" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="126" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B17" s="129" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C17" s="130" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D17" s="129" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="125" t="s">
+        <v>727</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1638</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1644</v>
+      </c>
+      <c r="F18" t="s">
+        <v>766</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="125" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1642</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1644</v>
+      </c>
+      <c r="F19" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="125" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B20" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="126" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B21" s="129" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C21" s="130" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D21" s="129" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="125" t="s">
+        <v>750</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1638</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1644</v>
+      </c>
+      <c r="F22" t="s">
+        <v>766</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="125" t="s">
+        <v>826</v>
+      </c>
+      <c r="B23" t="s">
+        <v>692</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="125" t="s">
+        <v>711</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1638</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1644</v>
+      </c>
+      <c r="F24" t="s">
+        <v>766</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="125" t="s">
+        <v>848</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1638</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1644</v>
+      </c>
+      <c r="F25" t="s">
+        <v>766</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="125" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1644</v>
+      </c>
+      <c r="F26" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="125" t="s">
+        <v>881</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1638</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1644</v>
+      </c>
+      <c r="F27" t="s">
+        <v>766</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="125" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B28" t="s">
+        <v>766</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1646</v>
+      </c>
+      <c r="F28" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="125" t="s">
+        <v>689</v>
+      </c>
+      <c r="B29" t="s">
+        <v>692</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="126" t="s">
+        <v>762</v>
+      </c>
+      <c r="B30" s="129" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C30" s="130" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D30" s="129" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="126" t="s">
+        <v>924</v>
+      </c>
+      <c r="B31" s="129" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C31" s="130" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D31" s="129" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="126" t="s">
+        <v>948</v>
+      </c>
+      <c r="B32" s="129" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C32" s="130" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D32" s="129" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="125" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1641</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1644</v>
+      </c>
+      <c r="F33" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="125" t="s">
+        <v>871</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1638</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1644</v>
+      </c>
+      <c r="F34" t="s">
+        <v>766</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="125" t="s">
+        <v>765</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1638</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1644</v>
+      </c>
+      <c r="F35" t="s">
+        <v>766</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="126" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B36" s="129" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C36" s="130" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D36" s="129" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="125" t="s">
+        <v>789</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1638</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1644</v>
+      </c>
+      <c r="F37" t="s">
+        <v>766</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>1654</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1651</v>
+      </c>
+      <c r="G39" t="s">
+        <v>692</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1652</v>
+      </c>
+      <c r="K39" t="s">
+        <v>1644</v>
+      </c>
+      <c r="L39" t="s">
+        <v>766</v>
+      </c>
+      <c r="M39" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E40">
+        <v>36</v>
+      </c>
+      <c r="F40">
+        <v>29</v>
+      </c>
+      <c r="G40">
+        <v>7</v>
+      </c>
+      <c r="H40">
+        <v>11</v>
+      </c>
+      <c r="J40" t="s">
+        <v>1645</v>
+      </c>
+      <c r="K40">
+        <v>16</v>
+      </c>
+      <c r="L40">
+        <v>18</v>
+      </c>
+      <c r="M40">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H41" t="s">
+        <v>1653</v>
+      </c>
+      <c r="J41" t="s">
+        <v>1650</v>
+      </c>
+      <c r="K41">
+        <v>57</v>
+      </c>
+      <c r="L41">
+        <v>62</v>
+      </c>
+      <c r="M41">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C38:C318" xr:uid="{FD711A7D-41E8-F040-9572-9576DBCF9ABB}">
+      <formula1>"Included, No fire event, no DOC/NO3, No river, Prescribed Burn, Wrong study design, Maybe"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C37" xr:uid="{192BF5E7-419A-1346-81C6-3282657A0D49}">
+      <formula1>"Pre_Post, Mean, No_Exact_Dates, No_MTBS"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C319:C1048576" xr:uid="{550C936F-4BAD-C74C-88C1-26D8B48030BF}">
+      <formula1>$F:$F</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4EDC603-3282-6340-BD81-0DFA981250B6}">
   <dimension ref="B2:D8"/>
   <sheetViews>

--- a/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
+++ b/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-meta/FireMeta_Rproj/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A172DD71-CD0B-5747-B168-F91C9CCC5CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF87A9E-D152-194D-91AC-BDB6C99AFE1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="23500" activeTab="7" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
   </bookViews>

--- a/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
+++ b/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-meta/FireMeta_Rproj/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF87A9E-D152-194D-91AC-BDB6C99AFE1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26549174-45E8-4446-8173-55E1814FFB36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="23500" activeTab="7" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" activeTab="7" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
   </bookViews>
   <sheets>
     <sheet name="Study_info" sheetId="2" r:id="rId1"/>
@@ -5514,7 +5514,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -5684,16 +5684,10 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -30551,9 +30545,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E83DAFB-3D69-1A4C-8997-3EF8B4236F27}">
   <dimension ref="A1:AH37"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I40" sqref="I40"/>
+      <selection pane="topRight" activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34470,8 +34464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F57175-4851-C144-BE97-0FB64AE1A031}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34498,7 +34492,7 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="133" t="s">
+      <c r="D1" s="129" t="s">
         <v>16</v>
       </c>
     </row>
@@ -34548,7 +34542,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="129" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="127" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="126" t="s">
         <v>1413</v>
       </c>
@@ -34558,15 +34552,15 @@
       <c r="C7" s="128" t="s">
         <v>1636</v>
       </c>
-      <c r="D7" s="129" t="s">
+      <c r="D7" s="127" t="s">
         <v>1660</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="131" t="s">
+      <c r="A8" s="125" t="s">
         <v>835</v>
       </c>
-      <c r="B8" s="132" t="s">
+      <c r="B8" t="s">
         <v>1639</v>
       </c>
       <c r="D8" t="s">
@@ -34579,31 +34573,31 @@
         <v>766</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="127" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="126" t="s">
         <v>1001</v>
       </c>
-      <c r="B9" s="129" t="s">
+      <c r="B9" s="127" t="s">
         <v>1637</v>
       </c>
-      <c r="C9" s="130" t="s">
+      <c r="C9" s="128" t="s">
         <v>1648</v>
       </c>
-      <c r="D9" s="129" t="s">
+      <c r="D9" s="127" t="s">
         <v>1656</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="127" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="126" t="s">
         <v>982</v>
       </c>
-      <c r="B10" s="129" t="s">
+      <c r="B10" s="127" t="s">
         <v>1637</v>
       </c>
-      <c r="C10" s="130" t="s">
+      <c r="C10" s="128" t="s">
         <v>1636</v>
       </c>
-      <c r="D10" s="129" t="s">
+      <c r="D10" s="127" t="s">
         <v>1657</v>
       </c>
     </row>
@@ -34675,45 +34669,45 @@
         <v>766</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="127" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="126" t="s">
         <v>670</v>
       </c>
-      <c r="B15" s="129" t="s">
+      <c r="B15" s="127" t="s">
         <v>1637</v>
       </c>
-      <c r="C15" s="130" t="s">
+      <c r="C15" s="128" t="s">
         <v>1636</v>
       </c>
-      <c r="D15" s="129" t="s">
+      <c r="D15" s="127" t="s">
         <v>1649</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="127" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="126" t="s">
         <v>909</v>
       </c>
-      <c r="B16" s="129" t="s">
+      <c r="B16" s="127" t="s">
         <v>1637</v>
       </c>
-      <c r="C16" s="130" t="s">
+      <c r="C16" s="128" t="s">
         <v>1636</v>
       </c>
-      <c r="D16" s="129" t="s">
+      <c r="D16" s="127" t="s">
         <v>1658</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="127" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="126" t="s">
         <v>1183</v>
       </c>
-      <c r="B17" s="129" t="s">
+      <c r="B17" s="127" t="s">
         <v>1637</v>
       </c>
-      <c r="C17" s="130" t="s">
+      <c r="C17" s="128" t="s">
         <v>1636</v>
       </c>
-      <c r="D17" s="129" t="s">
+      <c r="D17" s="127" t="s">
         <v>1659</v>
       </c>
     </row>
@@ -34759,17 +34753,17 @@
         <v>692</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" s="127" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="126" t="s">
         <v>1233</v>
       </c>
-      <c r="B21" s="129" t="s">
+      <c r="B21" s="127" t="s">
         <v>1637</v>
       </c>
-      <c r="C21" s="130" t="s">
+      <c r="C21" s="128" t="s">
         <v>1636</v>
       </c>
-      <c r="D21" s="129" t="s">
+      <c r="D21" s="127" t="s">
         <v>1659</v>
       </c>
     </row>
@@ -34891,45 +34885,45 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" s="127" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="126" t="s">
         <v>762</v>
       </c>
-      <c r="B30" s="129" t="s">
+      <c r="B30" s="127" t="s">
         <v>1637</v>
       </c>
-      <c r="C30" s="130" t="s">
+      <c r="C30" s="128" t="s">
         <v>1636</v>
       </c>
-      <c r="D30" s="129" t="s">
+      <c r="D30" s="127" t="s">
         <v>1658</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" s="127" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="126" t="s">
         <v>924</v>
       </c>
-      <c r="B31" s="129" t="s">
+      <c r="B31" s="127" t="s">
         <v>1637</v>
       </c>
-      <c r="C31" s="130" t="s">
+      <c r="C31" s="128" t="s">
         <v>1636</v>
       </c>
-      <c r="D31" s="129" t="s">
+      <c r="D31" s="127" t="s">
         <v>1658</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" s="127" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="126" t="s">
         <v>948</v>
       </c>
-      <c r="B32" s="129" t="s">
+      <c r="B32" s="127" t="s">
         <v>1637</v>
       </c>
-      <c r="C32" s="130" t="s">
+      <c r="C32" s="128" t="s">
         <v>1648</v>
       </c>
-      <c r="D32" s="129" t="s">
+      <c r="D32" s="127" t="s">
         <v>1661</v>
       </c>
     </row>
@@ -34984,17 +34978,17 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="129" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" s="127" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="126" t="s">
         <v>1232</v>
       </c>
-      <c r="B36" s="129" t="s">
+      <c r="B36" s="127" t="s">
         <v>1637</v>
       </c>
-      <c r="C36" s="130" t="s">
+      <c r="C36" s="128" t="s">
         <v>1648</v>
       </c>
-      <c r="D36" s="129" t="s">
+      <c r="D36" s="127" t="s">
         <v>1656</v>
       </c>
     </row>
